--- a/2020.10.04/BAO CAO CHI T08.2020.xlsx
+++ b/2020.10.04/BAO CAO CHI T08.2020.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANH\CHI NOI BO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Tools\03_linhtinh\GitHub\NhungLe\2020.10.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TONG CHI NB T08.20'!$A$4:$K$143</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="396">
   <si>
     <t>NGÀY</t>
   </si>
@@ -929,21 +929,12 @@
     <t>Đồ dùng văn phòng:Ky rác, GVS, ổ khóa…</t>
   </si>
   <si>
-    <t>CP khác:Phí dự thi MARK 2020,mua bao xà bần, túi ny long…</t>
-  </si>
-  <si>
     <t>Công cụ, dụng Cụ: Máy lọc khí Samsung, Bàn làm việc,loa JBL……</t>
   </si>
   <si>
-    <t>Chi lương T8+T9(10 ngày) và trợ cấp thất nghiệp Mr.Đồng</t>
-  </si>
-  <si>
     <t>Vay mua nhà</t>
   </si>
   <si>
-    <t>CP phát sinh khác:  Mua trái cây, CPN,Phí hủy HĐ, mua quà tặng đối tác</t>
-  </si>
-  <si>
     <t>CỌC DỰ THẦU:CT Data Center Tân Thuận</t>
   </si>
   <si>
@@ -1167,17 +1158,77 @@
   </si>
   <si>
     <t>Rút tiền tài khoản</t>
+  </si>
+  <si>
+    <t>Công Đoàn</t>
+  </si>
+  <si>
+    <t>CP phát sinh khác:  Mua trái cây, CPN,Phí hủy HĐ, mua quà tặng đối tác,cúng rằm ,mua cá</t>
+  </si>
+  <si>
+    <t>TT -</t>
+  </si>
+  <si>
+    <t>TT Lương thợ phụ</t>
+  </si>
+  <si>
+    <t>TT BHXH cho người lao động</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT tiền thuê VP Vacons </t>
+  </si>
+  <si>
+    <t>TT kho Vacons</t>
+  </si>
+  <si>
+    <t>TT tiền nước Vacons,TT tiền điện Vacons</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>điện thoại</t>
+  </si>
+  <si>
+    <t>rác</t>
+  </si>
+  <si>
+    <t>vệ sinh</t>
+  </si>
+  <si>
+    <t>giữ xe, gửi xe</t>
+  </si>
+  <si>
+    <t>đồ dùng văn phòng</t>
+  </si>
+  <si>
+    <t>In ấn</t>
+  </si>
+  <si>
+    <t>CPN, mua hoa, mua quà</t>
+  </si>
+  <si>
+    <t>phí ngân hàng</t>
+  </si>
+  <si>
+    <t>GTGT</t>
+  </si>
+  <si>
+    <t>lãi vay  mua xe</t>
+  </si>
+  <si>
+    <t>TT  mua nhà của sếp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;?\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;?\ _₫_-;_-@_-"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1828,9 +1879,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1849,7 +1900,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1860,10 +1911,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1873,10 +1924,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1886,26 +1937,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1917,10 +1968,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1929,16 +1980,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1947,33 +1998,33 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1983,10 +2034,10 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,10 +2046,10 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2007,10 +2058,10 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2020,7 +2071,7 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2030,10 +2081,10 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2042,13 +2093,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2057,7 +2108,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2066,20 +2117,20 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2090,26 +2141,26 @@
     <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2119,7 +2170,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2127,7 +2178,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2141,39 +2192,39 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="26" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="26" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2183,7 +2234,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2199,7 +2250,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2253,8 +2304,20 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4239,7 +4302,7 @@
         <v>208</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I59" s="103" t="s">
         <v>42</v>
@@ -4500,7 +4563,7 @@
         <v>58</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D68" s="105">
         <v>200000</v>
@@ -4798,7 +4861,7 @@
         <v>58</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D78" s="105">
         <v>100000000</v>
@@ -4810,7 +4873,7 @@
         <v>272</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5" t="s">
@@ -5150,10 +5213,10 @@
         <v>266</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I89" s="103" t="s">
         <v>42</v>
@@ -5797,7 +5860,7 @@
         <v>58</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D112" s="148">
         <v>480000</v>
@@ -5825,7 +5888,7 @@
         <v>58</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D113" s="148">
         <v>142000</v>
@@ -5853,7 +5916,7 @@
         <v>58</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D114" s="148">
         <v>100000000</v>
@@ -5865,11 +5928,11 @@
         <v>272</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H114" s="5"/>
       <c r="I114" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J114" s="152" t="s">
         <v>71</v>
@@ -5884,7 +5947,7 @@
         <v>9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D115" s="148">
         <v>1340900</v>
@@ -5896,10 +5959,10 @@
         <v>12</v>
       </c>
       <c r="G115" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>34</v>
@@ -5917,7 +5980,7 @@
         <v>141</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D116" s="148">
         <v>13600000</v>
@@ -5929,7 +5992,7 @@
         <v>12</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H116" s="5"/>
       <c r="I116" s="5" t="s">
@@ -5948,7 +6011,7 @@
         <v>237</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D117" s="148">
         <v>5000000</v>
@@ -5957,7 +6020,7 @@
         <v>11</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5" t="s">
@@ -5978,7 +6041,7 @@
         <v>58</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D118" s="148">
         <v>100000000</v>
@@ -5989,7 +6052,7 @@
       <c r="F118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J118" s="152" t="s">
         <v>71</v>
@@ -6003,10 +6066,10 @@
         <v>44063</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D119" s="148">
         <v>450000</v>
@@ -6015,17 +6078,17 @@
         <v>11</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J119" s="152" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K119" s="9"/>
     </row>
@@ -6034,10 +6097,10 @@
         <v>44063</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D120" s="148">
         <v>2000000</v>
@@ -6065,7 +6128,7 @@
         <v>9</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D121" s="148">
         <v>78000000</v>
@@ -6077,7 +6140,7 @@
         <v>243</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5" t="s">
@@ -6096,7 +6159,7 @@
         <v>237</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D122" s="148">
         <v>665000</v>
@@ -6108,7 +6171,7 @@
         <v>243</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="1" t="s">
@@ -6127,7 +6190,7 @@
         <v>58</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D123" s="148">
         <v>750000</v>
@@ -6139,7 +6202,7 @@
         <v>25</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5" t="s">
@@ -6158,7 +6221,7 @@
         <v>9</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D124" s="148">
         <v>54000000</v>
@@ -6170,7 +6233,7 @@
         <v>12</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5" t="s">
@@ -6189,7 +6252,7 @@
         <v>9</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D125" s="148">
         <v>30000000</v>
@@ -6220,7 +6283,7 @@
         <v>58</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D126" s="148">
         <v>700000</v>
@@ -6251,7 +6314,7 @@
         <v>9</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D127" s="148">
         <v>62106000</v>
@@ -6282,7 +6345,7 @@
         <v>184</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D128" s="148">
         <v>5903016</v>
@@ -6308,7 +6371,7 @@
         <v>184</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D129" s="148">
         <v>330000</v>
@@ -6319,7 +6382,7 @@
       <c r="F129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J129" s="152" t="s">
         <v>71</v>
@@ -6334,7 +6397,7 @@
         <v>184</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D130" s="148">
         <v>330000</v>
@@ -6345,7 +6408,7 @@
       <c r="F130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J130" s="152" t="s">
         <v>71</v>
@@ -6357,10 +6420,10 @@
         <v>44064</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D131" s="148">
         <v>42010000</v>
@@ -6388,7 +6451,7 @@
         <v>237</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D132" s="148">
         <v>169097171</v>
@@ -6419,7 +6482,7 @@
         <v>58</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D133" s="148">
         <v>765000</v>
@@ -6428,7 +6491,7 @@
         <v>11</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="5" t="s">
@@ -6447,7 +6510,7 @@
         <v>58</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D134" s="148">
         <v>830000</v>
@@ -6456,7 +6519,7 @@
         <v>27</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5" t="s">
@@ -6475,7 +6538,7 @@
         <v>16</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D135" s="148">
         <v>1860000</v>
@@ -6501,7 +6564,7 @@
         <v>9</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D136" s="148">
         <v>1680000</v>
@@ -6527,7 +6590,7 @@
         <v>58</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D137" s="148">
         <v>160360</v>
@@ -6539,11 +6602,11 @@
         <v>25</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H137" s="5"/>
       <c r="I137" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J137" s="152" t="s">
         <v>71</v>
@@ -6558,7 +6621,7 @@
         <v>58</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D138" s="148">
         <v>1360000</v>
@@ -6586,14 +6649,14 @@
         <v>58</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D139" s="148">
         <f>1147000-50460+160360</f>
         <v>1256900</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>25</v>
@@ -6615,7 +6678,7 @@
         <v>9</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D140" s="148">
         <v>4290000</v>
@@ -6627,7 +6690,7 @@
         <v>12</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H140" s="5"/>
       <c r="I140" s="5" t="s">
@@ -6646,7 +6709,7 @@
         <v>58</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D141" s="148">
         <v>10000000</v>
@@ -6692,7 +6755,7 @@
         <v>126</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I142" s="5" t="s">
         <v>34</v>
@@ -6710,7 +6773,7 @@
         <v>9</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D143" s="148">
         <v>41356800</v>
@@ -6722,10 +6785,10 @@
         <v>243</v>
       </c>
       <c r="G143" s="147" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I143" s="5" t="s">
         <v>34</v>
@@ -6858,10 +6921,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AE1005"/>
+  <dimension ref="A1:AF1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6870,20 +6933,21 @@
     <col min="2" max="2" width="63.140625" style="12" customWidth="1"/>
     <col min="3" max="4" width="21.7109375" style="96" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="23" style="12" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="22" style="12" customWidth="1"/>
-    <col min="10" max="11" width="20.28515625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="22" style="12" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" style="116" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="12" customWidth="1"/>
-    <col min="16" max="30" width="18.140625" style="12" customWidth="1"/>
-    <col min="31" max="16384" width="14.42578125" style="12"/>
+    <col min="6" max="6" width="32.5703125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23" style="12" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="22" style="12" customWidth="1"/>
+    <col min="11" max="12" width="20.28515625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="22" style="12" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" style="116" customWidth="1"/>
+    <col min="16" max="16" width="30.28515625" style="12" customWidth="1"/>
+    <col min="17" max="31" width="18.140625" style="12" customWidth="1"/>
+    <col min="32" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="165" t="s">
         <v>134</v>
       </c>
@@ -6899,37 +6963,39 @@
       <c r="K1" s="165"/>
       <c r="L1" s="165"/>
       <c r="M1" s="165"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="11"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
-    </row>
-    <row r="2" spans="1:30" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:31" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="166"/>
       <c r="B2" s="166"/>
       <c r="C2" s="166"/>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="11"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="108"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -6943,15 +7009,16 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="108"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-    </row>
-    <row r="4" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="97" t="s">
         <v>72</v>
@@ -6959,41 +7026,42 @@
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="98"/>
-      <c r="F4" s="98">
-        <f t="shared" ref="F4" si="0">SUM(F5:F8)</f>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98">
+        <f t="shared" ref="G4" si="0">SUM(G5:G8)</f>
         <v>259267871</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98">
-        <f>SUM(H5:H8)</f>
-        <v>826983646</v>
-      </c>
+      <c r="H4" s="98"/>
       <c r="I4" s="98">
         <f>SUM(I5:I8)</f>
-        <v>2520597331</v>
+        <v>826483646</v>
       </c>
       <c r="J4" s="98">
         <f>SUM(J5:J8)</f>
-        <v>930463147</v>
+        <v>2480064716</v>
       </c>
       <c r="K4" s="98">
         <f>SUM(K5:K8)</f>
-        <v>1477574487</v>
+        <v>930463147</v>
       </c>
       <c r="L4" s="98">
         <f>SUM(L5:L8)</f>
-        <v>6014886482</v>
-      </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="11"/>
+        <v>1477574487</v>
+      </c>
+      <c r="M4" s="98">
+        <f>SUM(M5:M8)</f>
+        <v>5973853867</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="108"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-    </row>
-    <row r="5" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
         <v>73</v>
@@ -7001,37 +7069,38 @@
       <c r="C5" s="19"/>
       <c r="D5" s="20"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19">
+      <c r="F5" s="19"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19">
         <v>76000000</v>
       </c>
-      <c r="I5" s="140">
+      <c r="J5" s="140">
         <f>162413116</f>
         <v>162413116</v>
       </c>
-      <c r="J5" s="140">
-        <v>0</v>
-      </c>
       <c r="K5" s="140">
         <v>0</v>
       </c>
-      <c r="L5" s="19">
-        <f>H5+I5+J5+K5</f>
+      <c r="L5" s="140">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <f>I5+J5+K5+L5</f>
         <v>238413116</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="N5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="108"/>
-      <c r="O5" s="11"/>
+      <c r="O5" s="108"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="167" t="s">
         <v>75</v>
       </c>
@@ -7039,38 +7108,39 @@
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19">
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19">
         <v>350000000</v>
       </c>
-      <c r="I6" s="19">
+      <c r="J6" s="19">
         <f>1740000000</f>
         <v>1740000000</v>
       </c>
-      <c r="J6" s="19">
+      <c r="K6" s="19">
         <v>100000000</v>
       </c>
-      <c r="K6" s="19">
+      <c r="L6" s="19">
         <f>600000000+70000000+500000000</f>
         <v>1170000000</v>
       </c>
-      <c r="L6" s="19">
-        <f>H6+I6+J6+K6</f>
+      <c r="M6" s="19">
+        <f>I6+J6+K6+L6</f>
         <v>3360000000</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="N6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="108"/>
-      <c r="O6" s="11"/>
+      <c r="O6" s="108"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-    </row>
-    <row r="7" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="11"/>
+    </row>
+    <row r="7" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
         <v>77</v>
@@ -7078,33 +7148,34 @@
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24">
-        <f>H68</f>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24">
+        <f>I68</f>
         <v>0</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24">
+      <c r="J7" s="24"/>
+      <c r="K7" s="24">
         <v>100000000</v>
       </c>
-      <c r="K7" s="24">
+      <c r="L7" s="24">
         <v>0</v>
       </c>
-      <c r="L7" s="24">
-        <f>H7+I7+J7+K7</f>
+      <c r="M7" s="24">
+        <f>I7+J7+K7+L7</f>
         <v>100000000</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="11"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="108"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="B8" s="28" t="s">
         <v>78</v>
@@ -7112,41 +7183,42 @@
       <c r="C8" s="29"/>
       <c r="D8" s="30"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="30">
-        <f t="shared" ref="F8" si="1">F10+F17+F44+F48+F52+F60+F64+F65+F66</f>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30">
+        <f>G10+G17+G44+G48+G52+G60+G64+G65+G66</f>
         <v>259267871</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29">
-        <f>H10+H17+H44+H48+H52+H60+H64+H65+H66</f>
-        <v>400983646</v>
-      </c>
+      <c r="H8" s="29"/>
       <c r="I8" s="29">
-        <f>I10+I17+I44+I48+I52+I60+I64+I65+I66+I68</f>
-        <v>618184215</v>
+        <f>I10+I17+I44+I48+I52+I60+I64+I65+I66</f>
+        <v>400483646</v>
       </c>
       <c r="J8" s="29">
         <f>J10+J17+J44+J48+J52+J60+J64+J65+J66+J68</f>
-        <v>730463147</v>
+        <v>577651600</v>
       </c>
       <c r="K8" s="29">
         <f>K10+K17+K44+K48+K52+K60+K64+K65+K66+K68</f>
-        <v>307574487</v>
+        <v>730463147</v>
       </c>
       <c r="L8" s="29">
         <f>L10+L17+L44+L48+L52+L60+L64+L65+L66+L68</f>
-        <v>2316473366</v>
-      </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="11"/>
+        <v>307574487</v>
+      </c>
+      <c r="M8" s="29">
+        <f>M10+M17+M44+M48+M52+M60+M64+M65+M66+M68</f>
+        <v>2275440751</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="108"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>79</v>
       </c>
@@ -7156,31 +7228,31 @@
       <c r="C9" s="34"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="I9" s="35" t="s">
-        <v>343</v>
-      </c>
       <c r="J9" s="35" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="M9" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="N9" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="149"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="37"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="150"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
@@ -7195,8 +7267,9 @@
       <c r="AB9" s="37"/>
       <c r="AC9" s="37"/>
       <c r="AD9" s="37"/>
-    </row>
-    <row r="10" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE9" s="37"/>
+    </row>
+    <row r="10" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>83</v>
       </c>
@@ -7206,34 +7279,34 @@
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="40">
-        <f>SUM(F11:F16)</f>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40">
+        <f>SUM(G11:G16)</f>
         <v>219092000</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40">
-        <f>SUM(H11:H16)</f>
-        <v>361784396</v>
-      </c>
+      <c r="H10" s="40"/>
       <c r="I10" s="40">
         <f>SUM(I11:I16)</f>
-        <v>431954776</v>
+        <v>361784396</v>
       </c>
       <c r="J10" s="40">
         <f>SUM(J11:J16)</f>
-        <v>723358887</v>
+        <v>431954776</v>
       </c>
       <c r="K10" s="40">
         <f>SUM(K11:K16)</f>
-        <v>256574440</v>
+        <v>723358887</v>
       </c>
       <c r="L10" s="40">
         <f>SUM(L11:L16)</f>
+        <v>256574440</v>
+      </c>
+      <c r="M10" s="40">
+        <f>SUM(M11:M16)</f>
         <v>1992764499</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="11"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="108"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -7249,8 +7322,9 @@
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
-    </row>
-    <row r="11" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="11"/>
+    </row>
+    <row r="11" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>1</v>
       </c>
@@ -7260,30 +7334,32 @@
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
-      <c r="F11" s="44">
+      <c r="F11" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" s="44">
         <v>217172000</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44">
+      <c r="H11" s="44"/>
+      <c r="I11" s="44">
         <v>323542333</v>
       </c>
-      <c r="I11" s="109">
+      <c r="J11" s="109">
         <v>377913437</v>
       </c>
-      <c r="J11" s="109">
+      <c r="K11" s="109">
         <f>576905871+42010000</f>
         <v>618915871</v>
       </c>
-      <c r="K11" s="109">
+      <c r="L11" s="109">
         <v>251574440</v>
       </c>
-      <c r="L11" s="117">
-        <f>H11+F11+I11+J11+K11</f>
+      <c r="M11" s="117">
+        <f>I11+G11+J11+K11+L11</f>
         <v>1789118081</v>
       </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="11"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="108"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -7299,8 +7375,9 @@
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
-    </row>
-    <row r="12" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="11"/>
+    </row>
+    <row r="12" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>2</v>
       </c>
@@ -7310,28 +7387,28 @@
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
-      <c r="F12" s="44">
+      <c r="F12" s="44"/>
+      <c r="G12" s="44">
         <v>0</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44">
+      <c r="H12" s="44"/>
+      <c r="I12" s="44">
         <v>25315000</v>
       </c>
-      <c r="I12" s="109">
+      <c r="J12" s="109">
         <v>48471339</v>
       </c>
-      <c r="J12" s="109">
+      <c r="K12" s="109">
         <v>0</v>
       </c>
-      <c r="K12" s="109"/>
-      <c r="L12" s="118">
-        <f>H12+I12+J12+K12</f>
+      <c r="L12" s="109"/>
+      <c r="M12" s="118">
+        <f>I12+J12+K12+L12</f>
         <v>73786339</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="11"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="138"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -7346,8 +7423,9 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
-    </row>
-    <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE12" s="11"/>
+    </row>
+    <row r="13" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>3</v>
       </c>
@@ -7359,26 +7437,26 @@
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
-      <c r="H13" s="44">
+      <c r="H13" s="44"/>
+      <c r="I13" s="44">
         <v>8957000</v>
       </c>
-      <c r="I13" s="109">
+      <c r="J13" s="109">
         <v>1740000</v>
       </c>
-      <c r="J13" s="109">
+      <c r="K13" s="109">
         <f>78000000+5000000+2000000</f>
         <v>85000000</v>
       </c>
-      <c r="K13" s="109">
+      <c r="L13" s="109">
         <v>5000000</v>
       </c>
-      <c r="L13" s="118">
-        <f>H13+I13+J13+K13</f>
+      <c r="M13" s="118">
+        <f>I13+J13+K13+L13</f>
         <v>100697000</v>
       </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="11"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="108"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -7394,8 +7472,9 @@
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
-    </row>
-    <row r="14" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE13" s="11"/>
+    </row>
+    <row r="14" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>4</v>
       </c>
@@ -7405,28 +7484,30 @@
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="44"/>
-      <c r="F14" s="44">
+      <c r="F14" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="44">
         <v>1920000</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44">
+      <c r="H14" s="44"/>
+      <c r="I14" s="44">
         <v>2460000</v>
       </c>
-      <c r="I14" s="109">
+      <c r="J14" s="109">
         <f>3830000</f>
         <v>3830000</v>
       </c>
-      <c r="J14" s="109">
+      <c r="K14" s="109">
         <v>3540000</v>
       </c>
-      <c r="K14" s="109"/>
-      <c r="L14" s="118">
-        <f>F14+H14+I14+J14+K14</f>
+      <c r="L14" s="109"/>
+      <c r="M14" s="118">
+        <f>G14+I14+J14+K14+L14</f>
         <v>11750000</v>
       </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="11"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="108"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -7442,34 +7523,35 @@
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
-    </row>
-    <row r="15" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE14" s="11"/>
+    </row>
+    <row r="15" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>5</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
-      <c r="H15" s="44">
+      <c r="H15" s="44"/>
+      <c r="I15" s="44">
         <v>1510063</v>
       </c>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109">
+      <c r="J15" s="109"/>
+      <c r="K15" s="109">
         <v>5903016</v>
       </c>
-      <c r="K15" s="109"/>
-      <c r="L15" s="118">
-        <f>H15+I15+J15+K15</f>
+      <c r="L15" s="109"/>
+      <c r="M15" s="118">
+        <f>I15+J15+K15+L15</f>
         <v>7413079</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="11"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="108"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -7485,36 +7567,37 @@
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
-    </row>
-    <row r="16" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="11"/>
+    </row>
+    <row r="16" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>6</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
-      <c r="H16" s="44">
+      <c r="H16" s="44"/>
+      <c r="I16" s="44">
         <v>0</v>
       </c>
-      <c r="I16" s="109">
+      <c r="J16" s="109">
         <v>0</v>
       </c>
-      <c r="J16" s="109">
+      <c r="K16" s="109">
         <v>10000000</v>
       </c>
-      <c r="K16" s="109"/>
-      <c r="L16" s="118">
-        <f>F16+H16+I16+J16+K16</f>
+      <c r="L16" s="109"/>
+      <c r="M16" s="118">
+        <f>G16+I16+J16+K16+L16</f>
         <v>10000000</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="11"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="108"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -7530,8 +7613,9 @@
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
-    </row>
-    <row r="17" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE16" s="11"/>
+    </row>
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>88</v>
       </c>
@@ -7541,34 +7625,34 @@
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
-      <c r="F17" s="50">
-        <f t="shared" ref="F17" si="2">SUM(F18:F43)</f>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50">
+        <f>SUM(G18:G41)</f>
         <v>40175871</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51">
-        <f>SUM(H18:H43)</f>
-        <v>8489250</v>
-      </c>
-      <c r="I17" s="139">
-        <f>SUM(I18:I43)</f>
-        <v>145649439</v>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51">
+        <f>SUM(I18:I41)</f>
+        <v>7989250</v>
       </c>
       <c r="J17" s="139">
-        <f>SUM(J18:J43)</f>
+        <f>SUM(J18:J41)</f>
+        <v>105116824</v>
+      </c>
+      <c r="K17" s="139">
+        <f>SUM(K18:K41)</f>
         <v>6339260</v>
       </c>
-      <c r="K17" s="139">
-        <f>SUM(K18:K43)</f>
+      <c r="L17" s="139">
+        <f>SUM(L18:L41)</f>
         <v>1252000</v>
       </c>
-      <c r="L17" s="51">
-        <f>SUM(L18:L43)</f>
-        <v>201905820</v>
-      </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="53"/>
+      <c r="M17" s="51">
+        <f>SUM(M18:M41)</f>
+        <v>160873205</v>
+      </c>
+      <c r="N17" s="52"/>
+      <c r="O17" s="112"/>
       <c r="P17" s="53"/>
       <c r="Q17" s="53"/>
       <c r="R17" s="53"/>
@@ -7584,37 +7668,38 @@
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="53"/>
-    </row>
-    <row r="18" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE17" s="53"/>
+    </row>
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>1</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44">
-        <f>F18+G18</f>
+      <c r="G18" s="55"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44">
+        <f>G18+H18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="109">
+      <c r="J18" s="109">
         <v>0</v>
       </c>
-      <c r="J18" s="109">
+      <c r="K18" s="109">
         <v>160360</v>
       </c>
-      <c r="K18" s="109"/>
-      <c r="L18" s="118">
-        <f>H18+I18+J18+K18</f>
+      <c r="L18" s="109"/>
+      <c r="M18" s="118">
+        <f>I18+J18+K18+L18</f>
         <v>160360</v>
       </c>
-      <c r="M18" s="56"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="11"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="108"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -7630,8 +7715,9 @@
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
-    </row>
-    <row r="19" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="11"/>
+    </row>
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>2</v>
       </c>
@@ -7641,25 +7727,27 @@
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
       <c r="E19" s="55"/>
-      <c r="F19" s="44"/>
+      <c r="F19" s="182" t="s">
+        <v>380</v>
+      </c>
       <c r="G19" s="44"/>
-      <c r="H19" s="44">
+      <c r="H19" s="44"/>
+      <c r="I19" s="44">
         <v>0</v>
       </c>
-      <c r="I19" s="109">
+      <c r="J19" s="109">
         <v>44556800</v>
       </c>
-      <c r="J19" s="109">
+      <c r="K19" s="109">
         <v>0</v>
       </c>
-      <c r="K19" s="109"/>
-      <c r="L19" s="118">
-        <f>H19+I19+J19+K19</f>
+      <c r="L19" s="109"/>
+      <c r="M19" s="118">
+        <f>I19+J19+K19+L19</f>
         <v>44556800</v>
       </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="11"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="108"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
@@ -7675,8 +7763,9 @@
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
-    </row>
-    <row r="20" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE19" s="11"/>
+    </row>
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>3</v>
       </c>
@@ -7686,27 +7775,29 @@
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="55"/>
-      <c r="F20" s="44">
+      <c r="F20" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="G20" s="44">
         <v>14000000</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44">
+      <c r="H20" s="44"/>
+      <c r="I20" s="44">
         <v>0</v>
       </c>
-      <c r="I20" s="109">
+      <c r="J20" s="109">
         <v>3960000</v>
       </c>
-      <c r="J20" s="109">
+      <c r="K20" s="109">
         <v>0</v>
       </c>
-      <c r="K20" s="109"/>
-      <c r="L20" s="118">
-        <f>H20+I20+J20+K20+F20</f>
+      <c r="L20" s="109"/>
+      <c r="M20" s="118">
+        <f>I20+J20+K20+L20+G20</f>
         <v>17960000</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="11"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="108"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
@@ -7722,8 +7813,9 @@
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
-    </row>
-    <row r="21" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE20" s="11"/>
+    </row>
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>4</v>
       </c>
@@ -7733,25 +7825,27 @@
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
       <c r="E21" s="55"/>
-      <c r="F21" s="44"/>
+      <c r="F21" s="55" t="s">
+        <v>382</v>
+      </c>
       <c r="G21" s="44"/>
-      <c r="H21" s="44">
+      <c r="H21" s="44"/>
+      <c r="I21" s="44">
         <v>0</v>
       </c>
-      <c r="I21" s="109">
+      <c r="J21" s="109">
         <v>6000000</v>
       </c>
-      <c r="J21" s="109">
+      <c r="K21" s="109">
         <v>0</v>
       </c>
-      <c r="K21" s="109"/>
-      <c r="L21" s="118">
-        <f t="shared" ref="L21:L43" si="3">H21+I21+J21+K21+F21</f>
+      <c r="L21" s="109"/>
+      <c r="M21" s="118">
+        <f t="shared" ref="M21:M41" si="1">I21+J21+K21+L21+G21</f>
         <v>6000000</v>
       </c>
-      <c r="M21" s="45"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="11"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="108"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -7767,8 +7861,9 @@
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
-    </row>
-    <row r="22" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE21" s="11"/>
+    </row>
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>5</v>
       </c>
@@ -7778,26 +7873,28 @@
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
       <c r="E22" s="55"/>
-      <c r="F22" s="44"/>
+      <c r="F22" s="182" t="s">
+        <v>383</v>
+      </c>
       <c r="G22" s="44"/>
-      <c r="H22" s="44">
+      <c r="H22" s="44"/>
+      <c r="I22" s="44">
         <v>0</v>
       </c>
-      <c r="I22" s="109">
+      <c r="J22" s="109">
         <f>10574956+596850</f>
         <v>11171806</v>
       </c>
-      <c r="J22" s="109">
+      <c r="K22" s="109">
         <v>0</v>
       </c>
-      <c r="K22" s="109"/>
-      <c r="L22" s="118">
-        <f t="shared" si="3"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="118">
+        <f t="shared" si="1"/>
         <v>11171806</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="57"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="113"/>
       <c r="P22" s="57"/>
       <c r="Q22" s="57"/>
       <c r="R22" s="57"/>
@@ -7813,8 +7910,9 @@
       <c r="AB22" s="57"/>
       <c r="AC22" s="57"/>
       <c r="AD22" s="57"/>
-    </row>
-    <row r="23" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE22" s="57"/>
+    </row>
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>6</v>
       </c>
@@ -7824,28 +7922,28 @@
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="55"/>
-      <c r="F23" s="44"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="44"/>
-      <c r="H23" s="44">
-        <v>0</v>
-      </c>
-      <c r="I23" s="109">
+      <c r="H23" s="44"/>
+      <c r="I23" s="44">
         <v>0</v>
       </c>
       <c r="J23" s="109">
         <v>0</v>
       </c>
-      <c r="K23" s="109"/>
-      <c r="L23" s="118">
-        <f t="shared" si="3"/>
+      <c r="K23" s="109">
         <v>0</v>
       </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="11"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="45"/>
+      <c r="O23" s="113"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="57"/>
+      <c r="R23" s="11"/>
       <c r="S23" s="57"/>
       <c r="T23" s="57"/>
       <c r="U23" s="57"/>
@@ -7858,8 +7956,9 @@
       <c r="AB23" s="57"/>
       <c r="AC23" s="57"/>
       <c r="AD23" s="57"/>
-    </row>
-    <row r="24" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE23" s="57"/>
+    </row>
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>7</v>
       </c>
@@ -7869,23 +7968,25 @@
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="55"/>
-      <c r="F24" s="44"/>
+      <c r="F24" s="55" t="s">
+        <v>384</v>
+      </c>
       <c r="G24" s="44"/>
-      <c r="H24" s="44">
+      <c r="H24" s="44"/>
+      <c r="I24" s="44">
         <v>0</v>
       </c>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109">
+      <c r="J24" s="109"/>
+      <c r="K24" s="109">
         <v>0</v>
       </c>
-      <c r="K24" s="109"/>
-      <c r="L24" s="118">
-        <f t="shared" si="3"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="118">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="11"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="108"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
@@ -7901,8 +8002,9 @@
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE24" s="11"/>
+    </row>
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>8</v>
       </c>
@@ -7912,28 +8014,30 @@
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="55"/>
-      <c r="F25" s="44"/>
+      <c r="F25" s="55" t="s">
+        <v>385</v>
+      </c>
       <c r="G25" s="44"/>
-      <c r="H25" s="44">
+      <c r="H25" s="44"/>
+      <c r="I25" s="44">
         <v>0</v>
       </c>
-      <c r="I25" s="109">
+      <c r="J25" s="109">
         <v>5994014</v>
       </c>
-      <c r="J25" s="109">
+      <c r="K25" s="109">
         <v>0</v>
       </c>
-      <c r="K25" s="109"/>
-      <c r="L25" s="118">
-        <f t="shared" si="3"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="118">
+        <f t="shared" si="1"/>
         <v>5994014</v>
       </c>
-      <c r="M25" s="45"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="11"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="113"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="57"/>
+      <c r="R25" s="11"/>
       <c r="S25" s="57"/>
       <c r="T25" s="57"/>
       <c r="U25" s="57"/>
@@ -7946,8 +8050,9 @@
       <c r="AB25" s="57"/>
       <c r="AC25" s="57"/>
       <c r="AD25" s="57"/>
-    </row>
-    <row r="26" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE25" s="57"/>
+    </row>
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>9</v>
       </c>
@@ -7957,28 +8062,30 @@
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="55"/>
-      <c r="F26" s="44"/>
+      <c r="F26" s="55" t="s">
+        <v>386</v>
+      </c>
       <c r="G26" s="44"/>
-      <c r="H26" s="44">
-        <v>0</v>
-      </c>
-      <c r="I26" s="109">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44">
         <v>0</v>
       </c>
       <c r="J26" s="109">
         <v>0</v>
       </c>
-      <c r="K26" s="109"/>
-      <c r="L26" s="118">
-        <f t="shared" si="3"/>
+      <c r="K26" s="109">
         <v>0</v>
       </c>
-      <c r="M26" s="45"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="11"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="45"/>
+      <c r="O26" s="113"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="57"/>
+      <c r="R26" s="11"/>
       <c r="S26" s="57"/>
       <c r="T26" s="57"/>
       <c r="U26" s="57"/>
@@ -7991,8 +8098,9 @@
       <c r="AB26" s="57"/>
       <c r="AC26" s="57"/>
       <c r="AD26" s="57"/>
-    </row>
-    <row r="27" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE26" s="57"/>
+    </row>
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>10</v>
       </c>
@@ -8002,30 +8110,32 @@
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
       <c r="E27" s="55"/>
-      <c r="F27" s="44">
+      <c r="F27" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="G27" s="44">
         <v>3581779</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44">
-        <v>0</v>
-      </c>
-      <c r="I27" s="109">
+      <c r="H27" s="44"/>
+      <c r="I27" s="44">
         <v>0</v>
       </c>
       <c r="J27" s="109">
         <v>0</v>
       </c>
-      <c r="K27" s="109"/>
-      <c r="L27" s="118">
-        <f t="shared" si="3"/>
+      <c r="K27" s="109">
+        <v>0</v>
+      </c>
+      <c r="L27" s="109"/>
+      <c r="M27" s="118">
+        <f t="shared" si="1"/>
         <v>3581779</v>
       </c>
-      <c r="M27" s="45"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="11"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="113"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
-      <c r="R27" s="57"/>
+      <c r="R27" s="11"/>
       <c r="S27" s="57"/>
       <c r="T27" s="57"/>
       <c r="U27" s="57"/>
@@ -8038,8 +8148,9 @@
       <c r="AB27" s="57"/>
       <c r="AC27" s="57"/>
       <c r="AD27" s="57"/>
-    </row>
-    <row r="28" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE27" s="57"/>
+    </row>
+    <row r="28" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>11</v>
       </c>
@@ -8049,30 +8160,32 @@
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
       <c r="E28" s="55"/>
-      <c r="F28" s="44">
+      <c r="F28" s="55" t="s">
+        <v>388</v>
+      </c>
+      <c r="G28" s="44">
         <v>1935000</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44">
-        <v>0</v>
-      </c>
-      <c r="I28" s="109">
+      <c r="H28" s="44"/>
+      <c r="I28" s="44">
         <v>0</v>
       </c>
       <c r="J28" s="109">
         <v>0</v>
       </c>
-      <c r="K28" s="109"/>
-      <c r="L28" s="118">
-        <f t="shared" si="3"/>
+      <c r="K28" s="109">
+        <v>0</v>
+      </c>
+      <c r="L28" s="109"/>
+      <c r="M28" s="118">
+        <f t="shared" si="1"/>
         <v>1935000</v>
       </c>
-      <c r="M28" s="45"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="11"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="113"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
-      <c r="R28" s="57"/>
+      <c r="R28" s="11"/>
       <c r="S28" s="57"/>
       <c r="T28" s="57"/>
       <c r="U28" s="57"/>
@@ -8085,8 +8198,9 @@
       <c r="AB28" s="57"/>
       <c r="AC28" s="57"/>
       <c r="AD28" s="57"/>
-    </row>
-    <row r="29" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE28" s="57"/>
+    </row>
+    <row r="29" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>12</v>
       </c>
@@ -8096,27 +8210,29 @@
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
       <c r="E29" s="55"/>
-      <c r="F29" s="44"/>
+      <c r="F29" s="55" t="s">
+        <v>389</v>
+      </c>
       <c r="G29" s="44"/>
-      <c r="H29" s="109">
+      <c r="H29" s="44"/>
+      <c r="I29" s="109">
         <v>3696250</v>
       </c>
-      <c r="I29" s="109">
+      <c r="J29" s="109">
         <v>1152500</v>
       </c>
-      <c r="J29" s="109">
+      <c r="K29" s="109">
         <v>2148900</v>
       </c>
-      <c r="K29" s="109">
+      <c r="L29" s="109">
         <v>1252000</v>
       </c>
-      <c r="L29" s="118">
-        <f t="shared" si="3"/>
+      <c r="M29" s="118">
+        <f t="shared" si="1"/>
         <v>8249650</v>
       </c>
-      <c r="M29" s="45"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="11"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="108"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
@@ -8132,8 +8248,9 @@
       <c r="AB29" s="11"/>
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
-    </row>
-    <row r="30" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE29" s="11"/>
+    </row>
+    <row r="30" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>13</v>
       </c>
@@ -8143,25 +8260,27 @@
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
       <c r="E30" s="55"/>
-      <c r="F30" s="44"/>
+      <c r="F30" s="55" t="s">
+        <v>99</v>
+      </c>
       <c r="G30" s="44"/>
-      <c r="H30" s="44">
+      <c r="H30" s="44"/>
+      <c r="I30" s="44">
         <v>0</v>
       </c>
-      <c r="I30" s="44">
+      <c r="J30" s="44">
         <v>5619000</v>
       </c>
-      <c r="J30" s="44">
+      <c r="K30" s="44">
         <v>0</v>
       </c>
-      <c r="K30" s="44"/>
-      <c r="L30" s="118">
-        <f t="shared" si="3"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="118">
+        <f t="shared" si="1"/>
         <v>5619000</v>
       </c>
-      <c r="M30" s="45"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="11"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="108"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
@@ -8177,34 +8296,37 @@
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
-    </row>
-    <row r="31" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE30" s="11"/>
+    </row>
+    <row r="31" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>14</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="55"/>
-      <c r="F31" s="44"/>
+      <c r="F31" s="55" t="s">
+        <v>390</v>
+      </c>
       <c r="G31" s="44"/>
-      <c r="H31" s="109">
+      <c r="H31" s="44"/>
+      <c r="I31" s="109">
         <v>0</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44">
+      <c r="J31" s="44"/>
+      <c r="K31" s="44">
         <v>700000</v>
       </c>
-      <c r="K31" s="44"/>
-      <c r="L31" s="118">
-        <f t="shared" si="3"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="118">
+        <f t="shared" si="1"/>
         <v>700000</v>
       </c>
-      <c r="M31" s="45"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="11"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="108"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
@@ -8220,36 +8342,37 @@
       <c r="AB31" s="11"/>
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
-    </row>
-    <row r="32" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE31" s="11"/>
+    </row>
+    <row r="32" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>15</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
       <c r="E32" s="55"/>
-      <c r="F32" s="44">
+      <c r="F32" s="55"/>
+      <c r="G32" s="44">
         <v>2210000</v>
       </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="109">
+      <c r="H32" s="44"/>
+      <c r="I32" s="109">
         <v>4075000</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44">
+      <c r="J32" s="44"/>
+      <c r="K32" s="44">
         <v>830000</v>
       </c>
-      <c r="K32" s="44"/>
-      <c r="L32" s="118">
-        <f t="shared" si="3"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="118">
+        <f t="shared" si="1"/>
         <v>7115000</v>
       </c>
-      <c r="M32" s="60"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="11"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="108"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
@@ -8265,8 +8388,9 @@
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
-    </row>
-    <row r="33" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE32" s="11"/>
+    </row>
+    <row r="33" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>16</v>
       </c>
@@ -8276,21 +8400,21 @@
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
       <c r="E33" s="55"/>
-      <c r="F33" s="44"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="44"/>
-      <c r="H33" s="109">
+      <c r="H33" s="44"/>
+      <c r="I33" s="109">
         <v>0</v>
       </c>
-      <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
-      <c r="L33" s="118">
-        <f t="shared" si="3"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="118">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M33" s="45"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="11"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="108"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
@@ -8306,8 +8430,9 @@
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
-    </row>
-    <row r="34" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE33" s="11"/>
+    </row>
+    <row r="34" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>17</v>
       </c>
@@ -8317,21 +8442,21 @@
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
       <c r="E34" s="55"/>
-      <c r="F34" s="44"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="44"/>
-      <c r="H34" s="109">
+      <c r="H34" s="44"/>
+      <c r="I34" s="109">
         <v>0</v>
       </c>
-      <c r="I34" s="44"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
-      <c r="L34" s="118">
-        <f t="shared" si="3"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="118">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="45"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="11"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="108"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
@@ -8347,36 +8472,39 @@
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
-    </row>
-    <row r="35" spans="1:30" ht="33" x14ac:dyDescent="0.25">
+      <c r="AE34" s="11"/>
+    </row>
+    <row r="35" spans="1:31" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>18</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
       <c r="E35" s="55"/>
-      <c r="F35" s="44">
+      <c r="F35" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="G35" s="44">
         <v>1648000</v>
       </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="109">
+      <c r="H35" s="44"/>
+      <c r="I35" s="109">
         <v>50000</v>
       </c>
-      <c r="I35" s="44">
+      <c r="J35" s="44">
         <v>2379000</v>
       </c>
-      <c r="J35" s="44"/>
       <c r="K35" s="44"/>
-      <c r="L35" s="118">
-        <f t="shared" si="3"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="118">
+        <f t="shared" si="1"/>
         <v>4077000</v>
       </c>
-      <c r="M35" s="45"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="11"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="108"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
@@ -8392,8 +8520,9 @@
       <c r="AB35" s="11"/>
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
-    </row>
-    <row r="36" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE35" s="11"/>
+    </row>
+    <row r="36" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>19</v>
       </c>
@@ -8403,23 +8532,23 @@
       <c r="C36" s="44"/>
       <c r="D36" s="44"/>
       <c r="E36" s="55"/>
-      <c r="F36" s="44">
+      <c r="F36" s="55"/>
+      <c r="G36" s="44">
         <v>16801092</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="109">
+      <c r="H36" s="44"/>
+      <c r="I36" s="109">
         <v>0</v>
       </c>
-      <c r="I36" s="44"/>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
-      <c r="L36" s="118">
-        <f t="shared" si="3"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="118">
+        <f t="shared" si="1"/>
         <v>16801092</v>
       </c>
-      <c r="M36" s="45"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="11"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="108"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
@@ -8435,34 +8564,35 @@
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
-    </row>
-    <row r="37" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE36" s="11"/>
+    </row>
+    <row r="37" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>20</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C37" s="44"/>
       <c r="D37" s="44"/>
       <c r="E37" s="55"/>
-      <c r="F37" s="44"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="44"/>
-      <c r="H37" s="109">
+      <c r="H37" s="44"/>
+      <c r="I37" s="109">
         <v>0</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44">
+      <c r="J37" s="44"/>
+      <c r="K37" s="44">
         <v>1840000</v>
       </c>
-      <c r="K37" s="44"/>
-      <c r="L37" s="118">
-        <f t="shared" si="3"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="118">
+        <f t="shared" si="1"/>
         <v>1840000</v>
       </c>
-      <c r="M37" s="45"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="11"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="108"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
@@ -8478,8 +8608,9 @@
       <c r="AB37" s="11"/>
       <c r="AC37" s="11"/>
       <c r="AD37" s="11"/>
-    </row>
-    <row r="38" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE37" s="11"/>
+    </row>
+    <row r="38" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>21</v>
       </c>
@@ -8489,21 +8620,21 @@
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="55"/>
-      <c r="F38" s="44"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="44"/>
-      <c r="H38" s="109">
+      <c r="H38" s="44"/>
+      <c r="I38" s="109">
         <v>0</v>
       </c>
-      <c r="I38" s="44"/>
       <c r="J38" s="44"/>
       <c r="K38" s="44"/>
-      <c r="L38" s="118">
-        <f t="shared" si="3"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="118">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M38" s="45"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="11"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="108"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
@@ -8519,8 +8650,9 @@
       <c r="AB38" s="11"/>
       <c r="AC38" s="11"/>
       <c r="AD38" s="11"/>
-    </row>
-    <row r="39" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE38" s="11"/>
+    </row>
+    <row r="39" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>22</v>
       </c>
@@ -8530,23 +8662,23 @@
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
       <c r="E39" s="55"/>
-      <c r="F39" s="44"/>
+      <c r="F39" s="55"/>
       <c r="G39" s="44"/>
-      <c r="H39" s="109">
+      <c r="H39" s="44"/>
+      <c r="I39" s="109">
         <v>0</v>
       </c>
-      <c r="I39" s="44">
+      <c r="J39" s="44">
         <v>7470000</v>
       </c>
-      <c r="J39" s="44"/>
       <c r="K39" s="44"/>
-      <c r="L39" s="118">
-        <f t="shared" si="3"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="118">
+        <f t="shared" si="1"/>
         <v>7470000</v>
       </c>
-      <c r="M39" s="45"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="11"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="108"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
@@ -8562,8 +8694,9 @@
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
-    </row>
-    <row r="40" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE39" s="11"/>
+    </row>
+    <row r="40" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>23</v>
       </c>
@@ -8573,27 +8706,29 @@
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
       <c r="E40" s="55"/>
-      <c r="F40" s="44"/>
+      <c r="F40" s="55" t="s">
+        <v>392</v>
+      </c>
       <c r="G40" s="44"/>
-      <c r="H40" s="109">
+      <c r="H40" s="44"/>
+      <c r="I40" s="109">
         <f>58000+110000</f>
         <v>168000</v>
       </c>
-      <c r="I40" s="44">
+      <c r="J40" s="44">
         <f>412500</f>
         <v>412500</v>
       </c>
-      <c r="J40" s="44">
+      <c r="K40" s="44">
         <v>660000</v>
       </c>
-      <c r="K40" s="44"/>
-      <c r="L40" s="118">
-        <f t="shared" si="3"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="118">
+        <f t="shared" si="1"/>
         <v>1240500</v>
       </c>
-      <c r="M40" s="45"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="11"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="108"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
@@ -8609,35 +8744,37 @@
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
-    </row>
-    <row r="41" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE40" s="11"/>
+    </row>
+    <row r="41" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>24</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C41" s="44"/>
       <c r="D41" s="44"/>
       <c r="E41" s="55"/>
-      <c r="F41" s="44"/>
+      <c r="F41" s="55" t="s">
+        <v>394</v>
+      </c>
       <c r="G41" s="44"/>
-      <c r="H41" s="109">
-        <v>500000</v>
-      </c>
+      <c r="H41" s="44"/>
       <c r="I41" s="44">
-        <f>1498000+9500000</f>
-        <v>10998000</v>
-      </c>
-      <c r="J41" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="44">
+        <v>16401204</v>
+      </c>
       <c r="K41" s="44"/>
-      <c r="L41" s="118">
-        <f t="shared" si="3"/>
-        <v>11498000</v>
-      </c>
-      <c r="M41" s="45"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="11"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="118">
+        <f t="shared" si="1"/>
+        <v>16401204</v>
+      </c>
+      <c r="N41" s="45"/>
+      <c r="O41" s="108"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
@@ -8653,34 +8790,28 @@
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
       <c r="AD41" s="11"/>
-    </row>
-    <row r="42" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE41" s="11"/>
+    </row>
+    <row r="42" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>25</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
       <c r="E42" s="55"/>
-      <c r="F42" s="44"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="44"/>
-      <c r="H42" s="109">
-        <v>0</v>
-      </c>
-      <c r="I42" s="44">
-        <v>29534615</v>
-      </c>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="44"/>
       <c r="K42" s="44"/>
-      <c r="L42" s="118">
-        <f t="shared" si="3"/>
-        <v>29534615</v>
-      </c>
-      <c r="M42" s="45"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="11"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="118"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="108"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
@@ -8696,34 +8827,24 @@
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
-    </row>
-    <row r="43" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42">
-        <v>26</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>292</v>
-      </c>
+      <c r="AE42" s="11"/>
+    </row>
+    <row r="43" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
       <c r="E43" s="55"/>
-      <c r="F43" s="44"/>
+      <c r="F43" s="55"/>
       <c r="G43" s="44"/>
-      <c r="H43" s="44">
-        <v>0</v>
-      </c>
-      <c r="I43" s="44">
-        <v>16401204</v>
-      </c>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
       <c r="J43" s="44"/>
       <c r="K43" s="44"/>
-      <c r="L43" s="118">
-        <f t="shared" si="3"/>
-        <v>16401204</v>
-      </c>
-      <c r="M43" s="45"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="11"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="118"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="108"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
@@ -8739,8 +8860,9 @@
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
       <c r="AD43" s="11"/>
-    </row>
-    <row r="44" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE43" s="11"/>
+    </row>
+    <row r="44" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>104</v>
       </c>
@@ -8748,47 +8870,47 @@
         <v>105</v>
       </c>
       <c r="C44" s="50">
-        <f t="shared" ref="C44:F44" si="4">SUM(C45:C47)</f>
+        <f t="shared" ref="C44:G44" si="2">SUM(C45:C47)</f>
         <v>0</v>
       </c>
       <c r="D44" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E44" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" s="50">
-        <f t="shared" si="4"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G44" s="50"/>
-      <c r="H44" s="51">
-        <f>SUM(H45:H47)</f>
-        <v>30710000</v>
-      </c>
+      <c r="H44" s="50"/>
       <c r="I44" s="51">
         <f>SUM(I45:I47)</f>
-        <v>5580000</v>
+        <v>30710000</v>
       </c>
       <c r="J44" s="51">
         <f>SUM(J45:J47)</f>
-        <v>0</v>
+        <v>5580000</v>
       </c>
       <c r="K44" s="51">
         <f>SUM(K45:K47)</f>
-        <v>16000000</v>
+        <v>0</v>
       </c>
       <c r="L44" s="51">
         <f>SUM(L45:L47)</f>
+        <v>16000000</v>
+      </c>
+      <c r="M44" s="51">
+        <f>SUM(M45:M47)</f>
         <v>52290000</v>
       </c>
-      <c r="M44" s="52"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="11"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="114"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="61"/>
+      <c r="Q44" s="11"/>
       <c r="R44" s="61"/>
       <c r="S44" s="61"/>
       <c r="T44" s="61"/>
@@ -8802,8 +8924,9 @@
       <c r="AB44" s="61"/>
       <c r="AC44" s="61"/>
       <c r="AD44" s="61"/>
-    </row>
-    <row r="45" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE44" s="61"/>
+    </row>
+    <row r="45" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>1</v>
       </c>
@@ -8818,20 +8941,20 @@
       </c>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
-      <c r="H45" s="44">
-        <f>F45+G45</f>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44">
+        <f>G45+H45</f>
         <v>0</v>
       </c>
-      <c r="I45" s="44"/>
       <c r="J45" s="44"/>
       <c r="K45" s="44"/>
-      <c r="L45" s="118">
-        <f t="shared" ref="L45:L47" si="5">H45+I45+J45+K45</f>
+      <c r="L45" s="44"/>
+      <c r="M45" s="118">
+        <f t="shared" ref="M45:M47" si="3">I45+J45+K45+L45</f>
         <v>0</v>
       </c>
-      <c r="M45" s="45"/>
-      <c r="N45" s="108"/>
-      <c r="O45" s="11"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="108"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
@@ -8847,38 +8970,39 @@
       <c r="AB45" s="11"/>
       <c r="AC45" s="11"/>
       <c r="AD45" s="11"/>
-    </row>
-    <row r="46" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE45" s="11"/>
+    </row>
+    <row r="46" spans="1:31" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>2</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="109">
+      <c r="H46" s="44"/>
+      <c r="I46" s="109">
         <f>12000000+18710000</f>
         <v>30710000</v>
       </c>
-      <c r="I46" s="44">
+      <c r="J46" s="44">
         <f>4590000+990000</f>
         <v>5580000</v>
       </c>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44">
+      <c r="K46" s="44"/>
+      <c r="L46" s="44">
         <v>16000000</v>
       </c>
-      <c r="L46" s="118">
-        <f>H46+I46+J46+K46</f>
+      <c r="M46" s="118">
+        <f>I46+J46+K46+L46</f>
         <v>52290000</v>
       </c>
-      <c r="M46" s="45"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="11"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="108"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
@@ -8894,8 +9018,9 @@
       <c r="AB46" s="11"/>
       <c r="AC46" s="11"/>
       <c r="AD46" s="11"/>
-    </row>
-    <row r="47" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE46" s="11"/>
+    </row>
+    <row r="47" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>3</v>
       </c>
@@ -8907,20 +9032,20 @@
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
-      <c r="H47" s="44">
-        <f>F47+G47</f>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44">
+        <f>G47+H47</f>
         <v>0</v>
       </c>
-      <c r="I47" s="44"/>
       <c r="J47" s="44"/>
       <c r="K47" s="44"/>
-      <c r="L47" s="118">
-        <f t="shared" si="5"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="118">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M47" s="45"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="11"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="108"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
@@ -8936,8 +9061,9 @@
       <c r="AB47" s="11"/>
       <c r="AC47" s="11"/>
       <c r="AD47" s="11"/>
-    </row>
-    <row r="48" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE47" s="11"/>
+    </row>
+    <row r="48" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
         <v>108</v>
       </c>
@@ -8945,45 +9071,45 @@
         <v>109</v>
       </c>
       <c r="C48" s="50">
-        <f t="shared" ref="C48:F48" si="6">SUM(C49:C51)</f>
+        <f t="shared" ref="C48:G48" si="4">SUM(C49:C51)</f>
         <v>0</v>
       </c>
       <c r="D48" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E48" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F48" s="50">
-        <f t="shared" si="6"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G48" s="50"/>
-      <c r="H48" s="51">
-        <f>SUM(H49:H51)</f>
-        <v>0</v>
-      </c>
+      <c r="H48" s="50"/>
       <c r="I48" s="51">
         <f>SUM(I49:I51)</f>
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="J48" s="51">
         <f>SUM(J49:J51)</f>
-        <v>765000</v>
+        <v>5000000</v>
       </c>
       <c r="K48" s="51">
         <f>SUM(K49:K51)</f>
-        <v>0</v>
+        <v>765000</v>
       </c>
       <c r="L48" s="51">
         <f>SUM(L49:L51)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="51">
+        <f>SUM(M49:M51)</f>
         <v>5765000</v>
       </c>
-      <c r="M48" s="52"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="61"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="114"/>
       <c r="P48" s="61"/>
       <c r="Q48" s="61"/>
       <c r="R48" s="61"/>
@@ -8999,8 +9125,9 @@
       <c r="AB48" s="61"/>
       <c r="AC48" s="61"/>
       <c r="AD48" s="61"/>
-    </row>
-    <row r="49" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE48" s="61"/>
+    </row>
+    <row r="49" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>1</v>
       </c>
@@ -9012,19 +9139,19 @@
       <c r="E49" s="44"/>
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
-      <c r="H49" s="44">
+      <c r="H49" s="44"/>
+      <c r="I49" s="44">
         <v>0</v>
       </c>
-      <c r="I49" s="44"/>
       <c r="J49" s="44"/>
       <c r="K49" s="44"/>
-      <c r="L49" s="118">
-        <f>H49+I49+J49+K49</f>
+      <c r="L49" s="44"/>
+      <c r="M49" s="118">
+        <f>I49+J49+K49+L49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="45"/>
-      <c r="N49" s="108"/>
-      <c r="O49" s="11"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="108"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -9040,8 +9167,9 @@
       <c r="AB49" s="11"/>
       <c r="AC49" s="11"/>
       <c r="AD49" s="11"/>
-    </row>
-    <row r="50" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE49" s="11"/>
+    </row>
+    <row r="50" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>2</v>
       </c>
@@ -9053,20 +9181,20 @@
       <c r="E50" s="44"/>
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
-      <c r="H50" s="44">
-        <f>F50+G50</f>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44">
+        <f>G50+H50</f>
         <v>0</v>
       </c>
-      <c r="I50" s="44"/>
       <c r="J50" s="44"/>
       <c r="K50" s="44"/>
-      <c r="L50" s="118">
-        <f>H50+I50+J50+K50</f>
+      <c r="L50" s="44"/>
+      <c r="M50" s="118">
+        <f>I50+J50+K50+L50</f>
         <v>0</v>
       </c>
-      <c r="M50" s="45"/>
-      <c r="N50" s="108"/>
-      <c r="O50" s="11"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="108"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -9082,36 +9210,37 @@
       <c r="AB50" s="11"/>
       <c r="AC50" s="11"/>
       <c r="AD50" s="11"/>
-    </row>
-    <row r="51" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE50" s="11"/>
+    </row>
+    <row r="51" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>3</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C51" s="44"/>
       <c r="D51" s="44"/>
       <c r="E51" s="44"/>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
-      <c r="H51" s="44">
+      <c r="H51" s="44"/>
+      <c r="I51" s="44">
         <v>0</v>
       </c>
-      <c r="I51" s="44">
+      <c r="J51" s="44">
         <v>5000000</v>
       </c>
-      <c r="J51" s="44">
+      <c r="K51" s="44">
         <v>765000</v>
       </c>
-      <c r="K51" s="44"/>
-      <c r="L51" s="118">
-        <f t="shared" ref="L51" si="7">H51+I51+J51+K51</f>
+      <c r="L51" s="44"/>
+      <c r="M51" s="118">
+        <f t="shared" ref="M51" si="5">I51+J51+K51+L51</f>
         <v>5765000</v>
       </c>
-      <c r="M51" s="45"/>
-      <c r="N51" s="108"/>
-      <c r="O51" s="11"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="108"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
@@ -9127,8 +9256,9 @@
       <c r="AB51" s="11"/>
       <c r="AC51" s="11"/>
       <c r="AD51" s="11"/>
-    </row>
-    <row r="52" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE51" s="11"/>
+    </row>
+    <row r="52" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>112</v>
       </c>
@@ -9136,28 +9266,25 @@
         <v>113</v>
       </c>
       <c r="C52" s="50">
-        <f t="shared" ref="C52:F52" si="8">SUM(C53:C59)</f>
+        <f t="shared" ref="C52:G52" si="6">SUM(C53:C59)</f>
         <v>0</v>
       </c>
       <c r="D52" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E52" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F52" s="50">
-        <f t="shared" si="8"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G52" s="50"/>
-      <c r="H52" s="51">
-        <f>SUM(H53:H55)</f>
-        <v>0</v>
-      </c>
+      <c r="H52" s="50"/>
       <c r="I52" s="51">
-        <f>SUM(I53:I59)</f>
+        <f>SUM(I53:I55)</f>
         <v>0</v>
       </c>
       <c r="J52" s="51">
@@ -9166,15 +9293,18 @@
       </c>
       <c r="K52" s="51">
         <f>SUM(K53:K59)</f>
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="L52" s="51">
         <f>SUM(L53:L59)</f>
         <v>25000000</v>
       </c>
-      <c r="M52" s="52"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="11"/>
+      <c r="M52" s="51">
+        <f>SUM(M53:M59)</f>
+        <v>25000000</v>
+      </c>
+      <c r="N52" s="52"/>
+      <c r="O52" s="108"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
@@ -9190,8 +9320,9 @@
       <c r="AB52" s="11"/>
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
-    </row>
-    <row r="53" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE52" s="11"/>
+    </row>
+    <row r="53" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>1</v>
       </c>
@@ -9203,21 +9334,21 @@
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
-      <c r="H53" s="44">
-        <v>0</v>
-      </c>
+      <c r="H53" s="44"/>
       <c r="I53" s="44">
         <v>0</v>
       </c>
-      <c r="J53" s="44"/>
+      <c r="J53" s="44">
+        <v>0</v>
+      </c>
       <c r="K53" s="44"/>
-      <c r="L53" s="118">
-        <f>H53+I53+J53+K53</f>
+      <c r="L53" s="44"/>
+      <c r="M53" s="118">
+        <f>I53+J53+K53+L53</f>
         <v>0</v>
       </c>
-      <c r="M53" s="45"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="11"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="108"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
@@ -9233,8 +9364,9 @@
       <c r="AB53" s="11"/>
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
-    </row>
-    <row r="54" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE53" s="11"/>
+    </row>
+    <row r="54" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>2</v>
       </c>
@@ -9246,21 +9378,21 @@
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
-      <c r="H54" s="44">
-        <v>0</v>
-      </c>
+      <c r="H54" s="44"/>
       <c r="I54" s="44">
         <v>0</v>
       </c>
-      <c r="J54" s="44"/>
+      <c r="J54" s="44">
+        <v>0</v>
+      </c>
       <c r="K54" s="44"/>
-      <c r="L54" s="118">
-        <f t="shared" ref="L54:L63" si="9">H54+I54+J54+K54</f>
+      <c r="L54" s="44"/>
+      <c r="M54" s="118">
+        <f t="shared" ref="M54:M63" si="7">I54+J54+K54+L54</f>
         <v>0</v>
       </c>
-      <c r="M54" s="45"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="11"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="108"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
@@ -9276,8 +9408,9 @@
       <c r="AB54" s="11"/>
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
-    </row>
-    <row r="55" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE54" s="11"/>
+    </row>
+    <row r="55" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>3</v>
       </c>
@@ -9289,21 +9422,21 @@
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
-      <c r="H55" s="44">
-        <v>0</v>
-      </c>
+      <c r="H55" s="44"/>
       <c r="I55" s="44">
         <v>0</v>
       </c>
-      <c r="J55" s="44"/>
+      <c r="J55" s="44">
+        <v>0</v>
+      </c>
       <c r="K55" s="44"/>
-      <c r="L55" s="118">
-        <f t="shared" si="9"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="118">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M55" s="45"/>
-      <c r="N55" s="108"/>
-      <c r="O55" s="11"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="108"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -9319,8 +9452,9 @@
       <c r="AB55" s="11"/>
       <c r="AC55" s="11"/>
       <c r="AD55" s="11"/>
-    </row>
-    <row r="56" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE55" s="11"/>
+    </row>
+    <row r="56" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>4</v>
       </c>
@@ -9332,21 +9466,21 @@
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
-      <c r="H56" s="44">
-        <v>0</v>
-      </c>
+      <c r="H56" s="44"/>
       <c r="I56" s="44">
         <v>0</v>
       </c>
-      <c r="J56" s="44"/>
+      <c r="J56" s="44">
+        <v>0</v>
+      </c>
       <c r="K56" s="44"/>
-      <c r="L56" s="118">
-        <f t="shared" si="9"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="118">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M56" s="45"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="11"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="108"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -9362,8 +9496,9 @@
       <c r="AB56" s="11"/>
       <c r="AC56" s="11"/>
       <c r="AD56" s="11"/>
-    </row>
-    <row r="57" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE56" s="11"/>
+    </row>
+    <row r="57" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>5</v>
       </c>
@@ -9375,24 +9510,24 @@
       <c r="E57" s="44"/>
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
-      <c r="H57" s="44">
-        <f>F57+G57</f>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44">
+        <f>G57+H57</f>
         <v>0</v>
       </c>
-      <c r="I57" s="44">
+      <c r="J57" s="44">
         <v>0</v>
       </c>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44">
+      <c r="K57" s="44"/>
+      <c r="L57" s="44">
         <v>25000000</v>
       </c>
-      <c r="L57" s="118">
-        <f t="shared" si="9"/>
+      <c r="M57" s="118">
+        <f t="shared" si="7"/>
         <v>25000000</v>
       </c>
-      <c r="M57" s="45"/>
-      <c r="N57" s="108"/>
-      <c r="O57" s="11"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="108"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
@@ -9408,8 +9543,9 @@
       <c r="AB57" s="11"/>
       <c r="AC57" s="11"/>
       <c r="AD57" s="11"/>
-    </row>
-    <row r="58" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE57" s="11"/>
+    </row>
+    <row r="58" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>6</v>
       </c>
@@ -9421,21 +9557,21 @@
       <c r="E58" s="44"/>
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="44">
-        <v>0</v>
-      </c>
+      <c r="H58" s="44"/>
       <c r="I58" s="44">
         <v>0</v>
       </c>
-      <c r="J58" s="44"/>
+      <c r="J58" s="44">
+        <v>0</v>
+      </c>
       <c r="K58" s="44"/>
-      <c r="L58" s="118">
-        <f t="shared" si="9"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="118">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M58" s="45"/>
-      <c r="N58" s="108"/>
-      <c r="O58" s="11"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="108"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
@@ -9451,35 +9587,36 @@
       <c r="AB58" s="11"/>
       <c r="AC58" s="11"/>
       <c r="AD58" s="11"/>
-    </row>
-    <row r="59" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE58" s="11"/>
+    </row>
+    <row r="59" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>7</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C59" s="44"/>
       <c r="D59" s="44"/>
       <c r="E59" s="44"/>
       <c r="F59" s="44"/>
       <c r="G59" s="44"/>
-      <c r="H59" s="44">
-        <f>F59+G59</f>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44">
+        <f>G59+H59</f>
         <v>0</v>
       </c>
-      <c r="I59" s="44">
+      <c r="J59" s="44">
         <v>0</v>
       </c>
-      <c r="J59" s="44"/>
       <c r="K59" s="44"/>
-      <c r="L59" s="118">
-        <f t="shared" si="9"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="118">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M59" s="45"/>
-      <c r="N59" s="108"/>
-      <c r="O59" s="11"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="108"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
@@ -9495,8 +9632,9 @@
       <c r="AB59" s="11"/>
       <c r="AC59" s="11"/>
       <c r="AD59" s="11"/>
-    </row>
-    <row r="60" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE59" s="11"/>
+    </row>
+    <row r="60" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="62" t="s">
         <v>120</v>
       </c>
@@ -9504,26 +9642,23 @@
         <v>121</v>
       </c>
       <c r="C60" s="64">
-        <f t="shared" ref="C60:F60" si="10">SUM(C61:C63)</f>
+        <f t="shared" ref="C60:G60" si="8">SUM(C61:C63)</f>
         <v>0</v>
       </c>
       <c r="D60" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E60" s="64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F60" s="64">
-        <f t="shared" si="10"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="51">
-        <f>SUM(H61:H63)</f>
-        <v>0</v>
-      </c>
+      <c r="H60" s="50"/>
       <c r="I60" s="51">
         <f>SUM(I61:I63)</f>
         <v>0</v>
@@ -9534,15 +9669,18 @@
       </c>
       <c r="K60" s="51">
         <f>SUM(K61:K63)</f>
-        <v>8748047</v>
+        <v>0</v>
       </c>
       <c r="L60" s="51">
         <f>SUM(L61:L63)</f>
         <v>8748047</v>
       </c>
-      <c r="M60" s="65"/>
-      <c r="N60" s="108"/>
-      <c r="O60" s="11"/>
+      <c r="M60" s="51">
+        <f>SUM(M61:M63)</f>
+        <v>8748047</v>
+      </c>
+      <c r="N60" s="65"/>
+      <c r="O60" s="108"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
@@ -9558,8 +9696,9 @@
       <c r="AB60" s="11"/>
       <c r="AC60" s="11"/>
       <c r="AD60" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE60" s="11"/>
+    </row>
+    <row r="61" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>1</v>
       </c>
@@ -9570,23 +9709,23 @@
       <c r="D61" s="46"/>
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44">
-        <f>F61+G61</f>
+      <c r="G61" s="46"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44">
+        <f>G61+H61</f>
         <v>0</v>
       </c>
-      <c r="I61" s="44">
+      <c r="J61" s="44">
         <v>0</v>
       </c>
-      <c r="J61" s="44"/>
       <c r="K61" s="44"/>
-      <c r="L61" s="118">
-        <f t="shared" si="9"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="118">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M61" s="47"/>
-      <c r="N61" s="108"/>
-      <c r="O61" s="11"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="108"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
@@ -9602,8 +9741,9 @@
       <c r="AB61" s="11"/>
       <c r="AC61" s="11"/>
       <c r="AD61" s="11"/>
-    </row>
-    <row r="62" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE61" s="11"/>
+    </row>
+    <row r="62" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>2</v>
       </c>
@@ -9613,25 +9753,27 @@
       <c r="C62" s="46"/>
       <c r="D62" s="46"/>
       <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44">
-        <v>0</v>
-      </c>
+      <c r="F62" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G62" s="46"/>
+      <c r="H62" s="44"/>
       <c r="I62" s="44">
         <v>0</v>
       </c>
-      <c r="J62" s="44"/>
-      <c r="K62" s="155">
+      <c r="J62" s="44">
+        <v>0</v>
+      </c>
+      <c r="K62" s="44"/>
+      <c r="L62" s="155">
         <v>8748047</v>
       </c>
-      <c r="L62" s="118">
-        <f t="shared" si="9"/>
+      <c r="M62" s="118">
+        <f t="shared" si="7"/>
         <v>8748047</v>
       </c>
-      <c r="M62" s="47"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="11"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="108"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
@@ -9647,8 +9789,9 @@
       <c r="AB62" s="11"/>
       <c r="AC62" s="11"/>
       <c r="AD62" s="11"/>
-    </row>
-    <row r="63" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="AE62" s="11"/>
+    </row>
+    <row r="63" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>3</v>
       </c>
@@ -9659,23 +9802,23 @@
       <c r="D63" s="46"/>
       <c r="E63" s="46"/>
       <c r="F63" s="46"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44">
-        <f>F63+G63</f>
+      <c r="G63" s="46"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44">
+        <f>G63+H63</f>
         <v>0</v>
       </c>
-      <c r="I63" s="44">
+      <c r="J63" s="44">
         <v>0</v>
       </c>
-      <c r="J63" s="44"/>
       <c r="K63" s="44"/>
-      <c r="L63" s="118">
-        <f t="shared" si="9"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="118">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M63" s="47"/>
-      <c r="N63" s="108"/>
-      <c r="O63" s="11"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="108"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
@@ -9691,8 +9834,9 @@
       <c r="AB63" s="11"/>
       <c r="AC63" s="11"/>
       <c r="AD63" s="11"/>
-    </row>
-    <row r="64" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE63" s="11"/>
+    </row>
+    <row r="64" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="66" t="s">
         <v>125</v>
       </c>
@@ -9709,9 +9853,9 @@
       <c r="J64" s="68"/>
       <c r="K64" s="68"/>
       <c r="L64" s="68"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="108"/>
-      <c r="O64" s="11"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="69"/>
+      <c r="O64" s="108"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
@@ -9727,8 +9871,9 @@
       <c r="AB64" s="11"/>
       <c r="AC64" s="11"/>
       <c r="AD64" s="11"/>
-    </row>
-    <row r="65" spans="1:31" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE64" s="11"/>
+    </row>
+    <row r="65" spans="1:32" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="70" t="s">
         <v>127</v>
       </c>
@@ -9742,23 +9887,23 @@
         <v>0</v>
       </c>
       <c r="F65" s="72"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50">
-        <v>0</v>
-      </c>
+      <c r="G65" s="72"/>
+      <c r="H65" s="50"/>
       <c r="I65" s="50">
         <v>0</v>
       </c>
       <c r="J65" s="50">
         <v>0</v>
       </c>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50">
+      <c r="K65" s="50">
         <v>0</v>
       </c>
-      <c r="M65" s="73"/>
-      <c r="N65" s="108"/>
-      <c r="O65" s="11"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50">
+        <v>0</v>
+      </c>
+      <c r="N65" s="73"/>
+      <c r="O65" s="108"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
@@ -9774,14 +9919,15 @@
       <c r="AB65" s="11"/>
       <c r="AC65" s="11"/>
       <c r="AD65" s="11"/>
-      <c r="AE65" s="12"/>
-    </row>
-    <row r="66" spans="1:31" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="12"/>
+    </row>
+    <row r="66" spans="1:32" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="75" t="s">
         <v>129</v>
       </c>
       <c r="B66" s="76" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C66" s="77"/>
       <c r="D66" s="77"/>
@@ -9789,27 +9935,27 @@
         <f>C66+D66</f>
         <v>0</v>
       </c>
-      <c r="F66" s="77"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50">
+      <c r="F66" s="180"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50">
         <v>0</v>
       </c>
-      <c r="I66" s="50">
+      <c r="J66" s="50">
         <v>2000000</v>
-      </c>
-      <c r="J66" s="50">
-        <v>0</v>
       </c>
       <c r="K66" s="50">
         <v>0</v>
       </c>
       <c r="L66" s="50">
-        <f>I66+H66+F66</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="50">
+        <f>J66+I66+G66</f>
         <v>2000000</v>
       </c>
-      <c r="M66" s="69"/>
-      <c r="N66" s="108"/>
-      <c r="O66" s="11"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="108"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -9825,9 +9971,10 @@
       <c r="AB66" s="11"/>
       <c r="AC66" s="11"/>
       <c r="AD66" s="11"/>
-      <c r="AE66" s="12"/>
-    </row>
-    <row r="67" spans="1:31" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE66" s="11"/>
+      <c r="AF66" s="12"/>
+    </row>
+    <row r="67" spans="1:32" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="78"/>
       <c r="B67" s="78"/>
       <c r="C67" s="78"/>
@@ -9840,9 +9987,9 @@
       <c r="J67" s="78"/>
       <c r="K67" s="78"/>
       <c r="L67" s="78"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="108"/>
-      <c r="O67" s="11"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="108"/>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
@@ -9858,9 +10005,10 @@
       <c r="AB67" s="11"/>
       <c r="AC67" s="11"/>
       <c r="AD67" s="11"/>
-      <c r="AE67" s="12"/>
-    </row>
-    <row r="68" spans="1:31" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="12"/>
+    </row>
+    <row r="68" spans="1:32" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="79" t="s">
         <v>130</v>
       </c>
@@ -9872,29 +10020,26 @@
         <v>0</v>
       </c>
       <c r="D68" s="81">
-        <f t="shared" ref="D68:M68" si="11">SUM(D69:D70)</f>
+        <f t="shared" ref="D68:N68" si="9">SUM(D69:D70)</f>
         <v>0</v>
       </c>
       <c r="E68" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F68" s="81">
-        <f t="shared" si="11"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G68" s="82"/>
-      <c r="H68" s="51">
-        <f>SUM(H69:H71)</f>
-        <v>0</v>
-      </c>
+      <c r="H68" s="82"/>
       <c r="I68" s="51">
         <f>SUM(I69:I71)</f>
-        <v>28000000</v>
+        <v>0</v>
       </c>
       <c r="J68" s="51">
         <f>SUM(J69:J71)</f>
-        <v>0</v>
+        <v>28000000</v>
       </c>
       <c r="K68" s="51">
         <f>SUM(K69:K71)</f>
@@ -9902,14 +10047,17 @@
       </c>
       <c r="L68" s="51">
         <f>SUM(L69:L71)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="51">
+        <f>SUM(M69:M71)</f>
         <v>28000000</v>
       </c>
-      <c r="M68" s="81">
-        <f t="shared" si="11"/>
+      <c r="N68" s="81">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N68" s="108"/>
-      <c r="O68" s="11"/>
+      <c r="O68" s="108"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
@@ -9925,35 +10073,38 @@
       <c r="AB68" s="11"/>
       <c r="AC68" s="11"/>
       <c r="AD68" s="11"/>
-      <c r="AE68" s="12"/>
-    </row>
-    <row r="69" spans="1:31" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE68" s="11"/>
+      <c r="AF68" s="12"/>
+    </row>
+    <row r="69" spans="1:32" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="83">
         <v>1</v>
       </c>
       <c r="B69" s="84" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C69" s="85"/>
       <c r="D69" s="85"/>
       <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="86">
+      <c r="F69" s="85" t="s">
+        <v>395</v>
+      </c>
+      <c r="G69" s="85"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86">
         <v>0</v>
       </c>
-      <c r="I69" s="44">
+      <c r="J69" s="44">
         <v>28000000</v>
       </c>
-      <c r="J69" s="44"/>
       <c r="K69" s="44"/>
-      <c r="L69" s="44">
-        <f t="shared" ref="L69:L70" si="12">H69+I69+J69+K69</f>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44">
+        <f t="shared" ref="M69:M70" si="10">I69+J69+K69+L69</f>
         <v>28000000</v>
       </c>
-      <c r="M69" s="87"/>
-      <c r="N69" s="108"/>
-      <c r="O69" s="11"/>
+      <c r="N69" s="87"/>
+      <c r="O69" s="108"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
@@ -9969,9 +10120,10 @@
       <c r="AB69" s="11"/>
       <c r="AC69" s="11"/>
       <c r="AD69" s="11"/>
-      <c r="AE69" s="12"/>
-    </row>
-    <row r="70" spans="1:31" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE69" s="11"/>
+      <c r="AF69" s="12"/>
+    </row>
+    <row r="70" spans="1:32" s="74" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="88">
         <v>2</v>
       </c>
@@ -9981,23 +10133,23 @@
       <c r="C70" s="90"/>
       <c r="D70" s="90"/>
       <c r="E70" s="85"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="86">
-        <v>0</v>
-      </c>
+      <c r="F70" s="181"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="86"/>
       <c r="I70" s="86">
         <v>0</v>
       </c>
-      <c r="J70" s="86"/>
+      <c r="J70" s="86">
+        <v>0</v>
+      </c>
       <c r="K70" s="86"/>
-      <c r="L70" s="86">
-        <f t="shared" si="12"/>
+      <c r="L70" s="86"/>
+      <c r="M70" s="86">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M70" s="87"/>
-      <c r="N70" s="108"/>
-      <c r="O70" s="11"/>
+      <c r="N70" s="87"/>
+      <c r="O70" s="108"/>
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
@@ -10013,9 +10165,10 @@
       <c r="AB70" s="11"/>
       <c r="AC70" s="11"/>
       <c r="AD70" s="11"/>
-      <c r="AE70" s="12"/>
-    </row>
-    <row r="71" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE70" s="11"/>
+      <c r="AF70" s="12"/>
+    </row>
+    <row r="71" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="91"/>
       <c r="B71" s="92"/>
       <c r="C71" s="93"/>
@@ -10028,9 +10181,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
-      <c r="M71" s="91"/>
-      <c r="N71" s="115"/>
-      <c r="O71" s="91"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="91"/>
+      <c r="O71" s="115"/>
       <c r="P71" s="91"/>
       <c r="Q71" s="91"/>
       <c r="R71" s="91"/>
@@ -10046,10 +10199,11 @@
       <c r="AB71" s="91"/>
       <c r="AC71" s="91"/>
       <c r="AD71" s="91"/>
-    </row>
-    <row r="72" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE71" s="91"/>
+    </row>
+    <row r="72" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="169" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B72" s="169"/>
       <c r="C72" s="169"/>
@@ -10062,9 +10216,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="115"/>
-      <c r="O72" s="91"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="115"/>
       <c r="P72" s="91"/>
       <c r="Q72" s="91"/>
       <c r="R72" s="91"/>
@@ -10080,8 +10234,9 @@
       <c r="AB72" s="91"/>
       <c r="AC72" s="91"/>
       <c r="AD72" s="91"/>
-    </row>
-    <row r="73" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE72" s="91"/>
+    </row>
+    <row r="73" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="169" t="s">
         <v>133</v>
       </c>
@@ -10096,9 +10251,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="115"/>
-      <c r="O73" s="91"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="91"/>
+      <c r="O73" s="115"/>
       <c r="P73" s="91"/>
       <c r="Q73" s="91"/>
       <c r="R73" s="91"/>
@@ -10114,8 +10269,9 @@
       <c r="AB73" s="91"/>
       <c r="AC73" s="91"/>
       <c r="AD73" s="91"/>
-    </row>
-    <row r="74" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE73" s="91"/>
+    </row>
+    <row r="74" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="91"/>
       <c r="B74" s="92"/>
       <c r="C74" s="93"/>
@@ -10128,9 +10284,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="115"/>
-      <c r="O74" s="91"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="115"/>
       <c r="P74" s="91"/>
       <c r="Q74" s="91"/>
       <c r="R74" s="91"/>
@@ -10146,8 +10302,9 @@
       <c r="AB74" s="91"/>
       <c r="AC74" s="91"/>
       <c r="AD74" s="91"/>
-    </row>
-    <row r="75" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE74" s="91"/>
+    </row>
+    <row r="75" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="91"/>
       <c r="B75" s="92"/>
       <c r="C75" s="93"/>
@@ -10160,9 +10317,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
-      <c r="M75" s="91"/>
-      <c r="N75" s="115"/>
-      <c r="O75" s="91"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="91"/>
+      <c r="O75" s="115"/>
       <c r="P75" s="91"/>
       <c r="Q75" s="91"/>
       <c r="R75" s="91"/>
@@ -10178,8 +10335,9 @@
       <c r="AB75" s="91"/>
       <c r="AC75" s="91"/>
       <c r="AD75" s="91"/>
-    </row>
-    <row r="76" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE75" s="91"/>
+    </row>
+    <row r="76" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="91"/>
       <c r="B76" s="92"/>
       <c r="C76" s="93"/>
@@ -10192,9 +10350,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
-      <c r="M76" s="91"/>
-      <c r="N76" s="115"/>
-      <c r="O76" s="91"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="91"/>
+      <c r="O76" s="115"/>
       <c r="P76" s="91"/>
       <c r="Q76" s="91"/>
       <c r="R76" s="91"/>
@@ -10210,8 +10368,9 @@
       <c r="AB76" s="91"/>
       <c r="AC76" s="91"/>
       <c r="AD76" s="91"/>
-    </row>
-    <row r="77" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE76" s="91"/>
+    </row>
+    <row r="77" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="164" t="s">
         <v>198</v>
       </c>
@@ -10226,9 +10385,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
-      <c r="M77" s="91"/>
-      <c r="N77" s="115"/>
-      <c r="O77" s="91"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="91"/>
+      <c r="O77" s="115"/>
       <c r="P77" s="91"/>
       <c r="Q77" s="91"/>
       <c r="R77" s="91"/>
@@ -10244,8 +10403,9 @@
       <c r="AB77" s="91"/>
       <c r="AC77" s="91"/>
       <c r="AD77" s="91"/>
-    </row>
-    <row r="78" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE77" s="91"/>
+    </row>
+    <row r="78" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="91"/>
       <c r="B78" s="92"/>
       <c r="C78" s="93"/>
@@ -10258,9 +10418,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
-      <c r="M78" s="91"/>
-      <c r="N78" s="115"/>
-      <c r="O78" s="91"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="91"/>
+      <c r="O78" s="115"/>
       <c r="P78" s="91"/>
       <c r="Q78" s="91"/>
       <c r="R78" s="91"/>
@@ -10276,8 +10436,9 @@
       <c r="AB78" s="91"/>
       <c r="AC78" s="91"/>
       <c r="AD78" s="91"/>
-    </row>
-    <row r="79" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE78" s="91"/>
+    </row>
+    <row r="79" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="91"/>
       <c r="B79" s="92"/>
       <c r="C79" s="93"/>
@@ -10290,9 +10451,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="115"/>
-      <c r="O79" s="91"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="91"/>
+      <c r="O79" s="115"/>
       <c r="P79" s="91"/>
       <c r="Q79" s="91"/>
       <c r="R79" s="91"/>
@@ -10308,8 +10469,9 @@
       <c r="AB79" s="91"/>
       <c r="AC79" s="91"/>
       <c r="AD79" s="91"/>
-    </row>
-    <row r="80" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE79" s="91"/>
+    </row>
+    <row r="80" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="91"/>
       <c r="B80" s="92"/>
       <c r="C80" s="93"/>
@@ -10322,9 +10484,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="115"/>
-      <c r="O80" s="91"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="91"/>
+      <c r="O80" s="115"/>
       <c r="P80" s="91"/>
       <c r="Q80" s="91"/>
       <c r="R80" s="91"/>
@@ -10340,8 +10502,9 @@
       <c r="AB80" s="91"/>
       <c r="AC80" s="91"/>
       <c r="AD80" s="91"/>
-    </row>
-    <row r="81" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE80" s="91"/>
+    </row>
+    <row r="81" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="91"/>
       <c r="B81" s="92"/>
       <c r="C81" s="93"/>
@@ -10354,9 +10517,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
-      <c r="M81" s="91"/>
-      <c r="N81" s="115"/>
-      <c r="O81" s="91"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="91"/>
+      <c r="O81" s="115"/>
       <c r="P81" s="91"/>
       <c r="Q81" s="91"/>
       <c r="R81" s="91"/>
@@ -10372,8 +10535,9 @@
       <c r="AB81" s="91"/>
       <c r="AC81" s="91"/>
       <c r="AD81" s="91"/>
-    </row>
-    <row r="82" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE81" s="91"/>
+    </row>
+    <row r="82" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="91"/>
       <c r="B82" s="92"/>
       <c r="C82" s="93"/>
@@ -10386,9 +10550,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
-      <c r="M82" s="91"/>
-      <c r="N82" s="115"/>
-      <c r="O82" s="91"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="91"/>
+      <c r="O82" s="115"/>
       <c r="P82" s="91"/>
       <c r="Q82" s="91"/>
       <c r="R82" s="91"/>
@@ -10404,8 +10568,9 @@
       <c r="AB82" s="91"/>
       <c r="AC82" s="91"/>
       <c r="AD82" s="91"/>
-    </row>
-    <row r="83" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE82" s="91"/>
+    </row>
+    <row r="83" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="91"/>
       <c r="B83" s="92"/>
       <c r="C83" s="93"/>
@@ -10418,9 +10583,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
-      <c r="M83" s="91"/>
-      <c r="N83" s="115"/>
-      <c r="O83" s="91"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="91"/>
+      <c r="O83" s="115"/>
       <c r="P83" s="91"/>
       <c r="Q83" s="91"/>
       <c r="R83" s="91"/>
@@ -10436,8 +10601,9 @@
       <c r="AB83" s="91"/>
       <c r="AC83" s="91"/>
       <c r="AD83" s="91"/>
-    </row>
-    <row r="84" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE83" s="91"/>
+    </row>
+    <row r="84" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="91"/>
       <c r="B84" s="92"/>
       <c r="C84" s="93"/>
@@ -10450,9 +10616,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
-      <c r="M84" s="91"/>
-      <c r="N84" s="115"/>
-      <c r="O84" s="91"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="91"/>
+      <c r="O84" s="115"/>
       <c r="P84" s="91"/>
       <c r="Q84" s="91"/>
       <c r="R84" s="91"/>
@@ -10468,8 +10634,9 @@
       <c r="AB84" s="91"/>
       <c r="AC84" s="91"/>
       <c r="AD84" s="91"/>
-    </row>
-    <row r="85" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE84" s="91"/>
+    </row>
+    <row r="85" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="91"/>
       <c r="B85" s="92"/>
       <c r="C85" s="93"/>
@@ -10482,9 +10649,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="115"/>
-      <c r="O85" s="91"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="91"/>
+      <c r="O85" s="115"/>
       <c r="P85" s="91"/>
       <c r="Q85" s="91"/>
       <c r="R85" s="91"/>
@@ -10500,8 +10667,9 @@
       <c r="AB85" s="91"/>
       <c r="AC85" s="91"/>
       <c r="AD85" s="91"/>
-    </row>
-    <row r="86" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE85" s="91"/>
+    </row>
+    <row r="86" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="91"/>
       <c r="B86" s="92"/>
       <c r="C86" s="93"/>
@@ -10514,9 +10682,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
-      <c r="M86" s="91"/>
-      <c r="N86" s="115"/>
-      <c r="O86" s="91"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="91"/>
+      <c r="O86" s="115"/>
       <c r="P86" s="91"/>
       <c r="Q86" s="91"/>
       <c r="R86" s="91"/>
@@ -10532,8 +10700,9 @@
       <c r="AB86" s="91"/>
       <c r="AC86" s="91"/>
       <c r="AD86" s="91"/>
-    </row>
-    <row r="87" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE86" s="91"/>
+    </row>
+    <row r="87" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="91"/>
       <c r="B87" s="92"/>
       <c r="C87" s="93"/>
@@ -10546,9 +10715,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
-      <c r="M87" s="91"/>
-      <c r="N87" s="115"/>
-      <c r="O87" s="91"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="91"/>
+      <c r="O87" s="115"/>
       <c r="P87" s="91"/>
       <c r="Q87" s="91"/>
       <c r="R87" s="91"/>
@@ -10564,8 +10733,9 @@
       <c r="AB87" s="91"/>
       <c r="AC87" s="91"/>
       <c r="AD87" s="91"/>
-    </row>
-    <row r="88" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE87" s="91"/>
+    </row>
+    <row r="88" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="91"/>
       <c r="B88" s="92"/>
       <c r="C88" s="93"/>
@@ -10578,9 +10748,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
-      <c r="M88" s="91"/>
-      <c r="N88" s="115"/>
-      <c r="O88" s="91"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="91"/>
+      <c r="O88" s="115"/>
       <c r="P88" s="91"/>
       <c r="Q88" s="91"/>
       <c r="R88" s="91"/>
@@ -10596,8 +10766,9 @@
       <c r="AB88" s="91"/>
       <c r="AC88" s="91"/>
       <c r="AD88" s="91"/>
-    </row>
-    <row r="89" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE88" s="91"/>
+    </row>
+    <row r="89" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="91"/>
       <c r="B89" s="92"/>
       <c r="C89" s="93"/>
@@ -10610,9 +10781,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
-      <c r="M89" s="91"/>
-      <c r="N89" s="115"/>
-      <c r="O89" s="91"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="91"/>
+      <c r="O89" s="115"/>
       <c r="P89" s="91"/>
       <c r="Q89" s="91"/>
       <c r="R89" s="91"/>
@@ -10628,8 +10799,9 @@
       <c r="AB89" s="91"/>
       <c r="AC89" s="91"/>
       <c r="AD89" s="91"/>
-    </row>
-    <row r="90" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE89" s="91"/>
+    </row>
+    <row r="90" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="91"/>
       <c r="B90" s="92"/>
       <c r="C90" s="93"/>
@@ -10642,9 +10814,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
-      <c r="M90" s="91"/>
-      <c r="N90" s="115"/>
-      <c r="O90" s="91"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="91"/>
+      <c r="O90" s="115"/>
       <c r="P90" s="91"/>
       <c r="Q90" s="91"/>
       <c r="R90" s="91"/>
@@ -10660,8 +10832,9 @@
       <c r="AB90" s="91"/>
       <c r="AC90" s="91"/>
       <c r="AD90" s="91"/>
-    </row>
-    <row r="91" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE90" s="91"/>
+    </row>
+    <row r="91" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="91"/>
       <c r="B91" s="92"/>
       <c r="C91" s="93"/>
@@ -10674,9 +10847,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
       <c r="L91" s="11"/>
-      <c r="M91" s="91"/>
-      <c r="N91" s="115"/>
-      <c r="O91" s="91"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="91"/>
+      <c r="O91" s="115"/>
       <c r="P91" s="91"/>
       <c r="Q91" s="91"/>
       <c r="R91" s="91"/>
@@ -10692,8 +10865,9 @@
       <c r="AB91" s="91"/>
       <c r="AC91" s="91"/>
       <c r="AD91" s="91"/>
-    </row>
-    <row r="92" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE91" s="91"/>
+    </row>
+    <row r="92" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="91"/>
       <c r="B92" s="92"/>
       <c r="C92" s="93"/>
@@ -10706,9 +10880,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="11"/>
       <c r="L92" s="11"/>
-      <c r="M92" s="91"/>
-      <c r="N92" s="115"/>
-      <c r="O92" s="91"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="91"/>
+      <c r="O92" s="115"/>
       <c r="P92" s="91"/>
       <c r="Q92" s="91"/>
       <c r="R92" s="91"/>
@@ -10724,8 +10898,9 @@
       <c r="AB92" s="91"/>
       <c r="AC92" s="91"/>
       <c r="AD92" s="91"/>
-    </row>
-    <row r="93" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE92" s="91"/>
+    </row>
+    <row r="93" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="91"/>
       <c r="B93" s="92"/>
       <c r="C93" s="93"/>
@@ -10738,9 +10913,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
-      <c r="M93" s="91"/>
-      <c r="N93" s="115"/>
-      <c r="O93" s="91"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="91"/>
+      <c r="O93" s="115"/>
       <c r="P93" s="91"/>
       <c r="Q93" s="91"/>
       <c r="R93" s="91"/>
@@ -10756,8 +10931,9 @@
       <c r="AB93" s="91"/>
       <c r="AC93" s="91"/>
       <c r="AD93" s="91"/>
-    </row>
-    <row r="94" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE93" s="91"/>
+    </row>
+    <row r="94" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="91"/>
       <c r="B94" s="92"/>
       <c r="C94" s="93"/>
@@ -10770,9 +10946,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
-      <c r="M94" s="91"/>
-      <c r="N94" s="115"/>
-      <c r="O94" s="91"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="91"/>
+      <c r="O94" s="115"/>
       <c r="P94" s="91"/>
       <c r="Q94" s="91"/>
       <c r="R94" s="91"/>
@@ -10788,8 +10964,9 @@
       <c r="AB94" s="91"/>
       <c r="AC94" s="91"/>
       <c r="AD94" s="91"/>
-    </row>
-    <row r="95" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE94" s="91"/>
+    </row>
+    <row r="95" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="91"/>
       <c r="B95" s="92"/>
       <c r="C95" s="93"/>
@@ -10802,9 +10979,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
-      <c r="M95" s="91"/>
-      <c r="N95" s="115"/>
-      <c r="O95" s="91"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="91"/>
+      <c r="O95" s="115"/>
       <c r="P95" s="91"/>
       <c r="Q95" s="91"/>
       <c r="R95" s="91"/>
@@ -10820,8 +10997,9 @@
       <c r="AB95" s="91"/>
       <c r="AC95" s="91"/>
       <c r="AD95" s="91"/>
-    </row>
-    <row r="96" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE95" s="91"/>
+    </row>
+    <row r="96" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="91"/>
       <c r="B96" s="92"/>
       <c r="C96" s="93"/>
@@ -10834,9 +11012,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
-      <c r="M96" s="91"/>
-      <c r="N96" s="115"/>
-      <c r="O96" s="91"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="91"/>
+      <c r="O96" s="115"/>
       <c r="P96" s="91"/>
       <c r="Q96" s="91"/>
       <c r="R96" s="91"/>
@@ -10852,8 +11030,9 @@
       <c r="AB96" s="91"/>
       <c r="AC96" s="91"/>
       <c r="AD96" s="91"/>
-    </row>
-    <row r="97" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE96" s="91"/>
+    </row>
+    <row r="97" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="91"/>
       <c r="B97" s="92"/>
       <c r="C97" s="93"/>
@@ -10866,9 +11045,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
-      <c r="M97" s="91"/>
-      <c r="N97" s="115"/>
-      <c r="O97" s="91"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="91"/>
+      <c r="O97" s="115"/>
       <c r="P97" s="91"/>
       <c r="Q97" s="91"/>
       <c r="R97" s="91"/>
@@ -10884,8 +11063,9 @@
       <c r="AB97" s="91"/>
       <c r="AC97" s="91"/>
       <c r="AD97" s="91"/>
-    </row>
-    <row r="98" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE97" s="91"/>
+    </row>
+    <row r="98" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="91"/>
       <c r="B98" s="92"/>
       <c r="C98" s="93"/>
@@ -10898,9 +11078,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
       <c r="L98" s="11"/>
-      <c r="M98" s="91"/>
-      <c r="N98" s="115"/>
-      <c r="O98" s="91"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="91"/>
+      <c r="O98" s="115"/>
       <c r="P98" s="91"/>
       <c r="Q98" s="91"/>
       <c r="R98" s="91"/>
@@ -10916,8 +11096,9 @@
       <c r="AB98" s="91"/>
       <c r="AC98" s="91"/>
       <c r="AD98" s="91"/>
-    </row>
-    <row r="99" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE98" s="91"/>
+    </row>
+    <row r="99" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="91"/>
       <c r="B99" s="92"/>
       <c r="C99" s="93"/>
@@ -10930,9 +11111,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
-      <c r="M99" s="91"/>
-      <c r="N99" s="115"/>
-      <c r="O99" s="91"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="91"/>
+      <c r="O99" s="115"/>
       <c r="P99" s="91"/>
       <c r="Q99" s="91"/>
       <c r="R99" s="91"/>
@@ -10948,8 +11129,9 @@
       <c r="AB99" s="91"/>
       <c r="AC99" s="91"/>
       <c r="AD99" s="91"/>
-    </row>
-    <row r="100" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE99" s="91"/>
+    </row>
+    <row r="100" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="91"/>
       <c r="B100" s="92"/>
       <c r="C100" s="93"/>
@@ -10962,9 +11144,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
-      <c r="M100" s="91"/>
-      <c r="N100" s="115"/>
-      <c r="O100" s="91"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="91"/>
+      <c r="O100" s="115"/>
       <c r="P100" s="91"/>
       <c r="Q100" s="91"/>
       <c r="R100" s="91"/>
@@ -10980,8 +11162,9 @@
       <c r="AB100" s="91"/>
       <c r="AC100" s="91"/>
       <c r="AD100" s="91"/>
-    </row>
-    <row r="101" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE100" s="91"/>
+    </row>
+    <row r="101" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="91"/>
       <c r="B101" s="92"/>
       <c r="C101" s="93"/>
@@ -10994,9 +11177,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
-      <c r="M101" s="91"/>
-      <c r="N101" s="115"/>
-      <c r="O101" s="91"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="91"/>
+      <c r="O101" s="115"/>
       <c r="P101" s="91"/>
       <c r="Q101" s="91"/>
       <c r="R101" s="91"/>
@@ -11012,8 +11195,9 @@
       <c r="AB101" s="91"/>
       <c r="AC101" s="91"/>
       <c r="AD101" s="91"/>
-    </row>
-    <row r="102" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE101" s="91"/>
+    </row>
+    <row r="102" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="91"/>
       <c r="B102" s="92"/>
       <c r="C102" s="93"/>
@@ -11026,9 +11210,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
       <c r="L102" s="11"/>
-      <c r="M102" s="91"/>
-      <c r="N102" s="115"/>
-      <c r="O102" s="91"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="91"/>
+      <c r="O102" s="115"/>
       <c r="P102" s="91"/>
       <c r="Q102" s="91"/>
       <c r="R102" s="91"/>
@@ -11044,8 +11228,9 @@
       <c r="AB102" s="91"/>
       <c r="AC102" s="91"/>
       <c r="AD102" s="91"/>
-    </row>
-    <row r="103" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE102" s="91"/>
+    </row>
+    <row r="103" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="91"/>
       <c r="B103" s="92"/>
       <c r="C103" s="93"/>
@@ -11058,9 +11243,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
       <c r="L103" s="11"/>
-      <c r="M103" s="91"/>
-      <c r="N103" s="115"/>
-      <c r="O103" s="91"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="91"/>
+      <c r="O103" s="115"/>
       <c r="P103" s="91"/>
       <c r="Q103" s="91"/>
       <c r="R103" s="91"/>
@@ -11076,8 +11261,9 @@
       <c r="AB103" s="91"/>
       <c r="AC103" s="91"/>
       <c r="AD103" s="91"/>
-    </row>
-    <row r="104" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE103" s="91"/>
+    </row>
+    <row r="104" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="91"/>
       <c r="B104" s="92"/>
       <c r="C104" s="93"/>
@@ -11090,9 +11276,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="11"/>
       <c r="L104" s="11"/>
-      <c r="M104" s="91"/>
-      <c r="N104" s="115"/>
-      <c r="O104" s="91"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="91"/>
+      <c r="O104" s="115"/>
       <c r="P104" s="91"/>
       <c r="Q104" s="91"/>
       <c r="R104" s="91"/>
@@ -11108,8 +11294,9 @@
       <c r="AB104" s="91"/>
       <c r="AC104" s="91"/>
       <c r="AD104" s="91"/>
-    </row>
-    <row r="105" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE104" s="91"/>
+    </row>
+    <row r="105" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="91"/>
       <c r="B105" s="92"/>
       <c r="C105" s="93"/>
@@ -11122,9 +11309,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="11"/>
       <c r="L105" s="11"/>
-      <c r="M105" s="91"/>
-      <c r="N105" s="115"/>
-      <c r="O105" s="91"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="91"/>
+      <c r="O105" s="115"/>
       <c r="P105" s="91"/>
       <c r="Q105" s="91"/>
       <c r="R105" s="91"/>
@@ -11140,8 +11327,9 @@
       <c r="AB105" s="91"/>
       <c r="AC105" s="91"/>
       <c r="AD105" s="91"/>
-    </row>
-    <row r="106" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE105" s="91"/>
+    </row>
+    <row r="106" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="91"/>
       <c r="B106" s="92"/>
       <c r="C106" s="93"/>
@@ -11154,9 +11342,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="11"/>
       <c r="L106" s="11"/>
-      <c r="M106" s="91"/>
-      <c r="N106" s="115"/>
-      <c r="O106" s="91"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="91"/>
+      <c r="O106" s="115"/>
       <c r="P106" s="91"/>
       <c r="Q106" s="91"/>
       <c r="R106" s="91"/>
@@ -11172,8 +11360,9 @@
       <c r="AB106" s="91"/>
       <c r="AC106" s="91"/>
       <c r="AD106" s="91"/>
-    </row>
-    <row r="107" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE106" s="91"/>
+    </row>
+    <row r="107" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="91"/>
       <c r="B107" s="92"/>
       <c r="C107" s="93"/>
@@ -11186,9 +11375,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="11"/>
       <c r="L107" s="11"/>
-      <c r="M107" s="91"/>
-      <c r="N107" s="115"/>
-      <c r="O107" s="91"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="91"/>
+      <c r="O107" s="115"/>
       <c r="P107" s="91"/>
       <c r="Q107" s="91"/>
       <c r="R107" s="91"/>
@@ -11204,8 +11393,9 @@
       <c r="AB107" s="91"/>
       <c r="AC107" s="91"/>
       <c r="AD107" s="91"/>
-    </row>
-    <row r="108" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE107" s="91"/>
+    </row>
+    <row r="108" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="91"/>
       <c r="B108" s="92"/>
       <c r="C108" s="93"/>
@@ -11218,9 +11408,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
       <c r="L108" s="11"/>
-      <c r="M108" s="91"/>
-      <c r="N108" s="115"/>
-      <c r="O108" s="91"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="91"/>
+      <c r="O108" s="115"/>
       <c r="P108" s="91"/>
       <c r="Q108" s="91"/>
       <c r="R108" s="91"/>
@@ -11236,8 +11426,9 @@
       <c r="AB108" s="91"/>
       <c r="AC108" s="91"/>
       <c r="AD108" s="91"/>
-    </row>
-    <row r="109" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE108" s="91"/>
+    </row>
+    <row r="109" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="91"/>
       <c r="B109" s="92"/>
       <c r="C109" s="93"/>
@@ -11250,9 +11441,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="11"/>
       <c r="L109" s="11"/>
-      <c r="M109" s="91"/>
-      <c r="N109" s="115"/>
-      <c r="O109" s="91"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="91"/>
+      <c r="O109" s="115"/>
       <c r="P109" s="91"/>
       <c r="Q109" s="91"/>
       <c r="R109" s="91"/>
@@ -11268,8 +11459,9 @@
       <c r="AB109" s="91"/>
       <c r="AC109" s="91"/>
       <c r="AD109" s="91"/>
-    </row>
-    <row r="110" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE109" s="91"/>
+    </row>
+    <row r="110" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="91"/>
       <c r="B110" s="92"/>
       <c r="C110" s="93"/>
@@ -11282,9 +11474,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="11"/>
       <c r="L110" s="11"/>
-      <c r="M110" s="91"/>
-      <c r="N110" s="115"/>
-      <c r="O110" s="91"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="91"/>
+      <c r="O110" s="115"/>
       <c r="P110" s="91"/>
       <c r="Q110" s="91"/>
       <c r="R110" s="91"/>
@@ -11300,8 +11492,9 @@
       <c r="AB110" s="91"/>
       <c r="AC110" s="91"/>
       <c r="AD110" s="91"/>
-    </row>
-    <row r="111" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE110" s="91"/>
+    </row>
+    <row r="111" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="91"/>
       <c r="B111" s="92"/>
       <c r="C111" s="93"/>
@@ -11314,9 +11507,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
-      <c r="M111" s="91"/>
-      <c r="N111" s="115"/>
-      <c r="O111" s="91"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="91"/>
+      <c r="O111" s="115"/>
       <c r="P111" s="91"/>
       <c r="Q111" s="91"/>
       <c r="R111" s="91"/>
@@ -11332,8 +11525,9 @@
       <c r="AB111" s="91"/>
       <c r="AC111" s="91"/>
       <c r="AD111" s="91"/>
-    </row>
-    <row r="112" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE111" s="91"/>
+    </row>
+    <row r="112" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="91"/>
       <c r="B112" s="92"/>
       <c r="C112" s="93"/>
@@ -11346,9 +11540,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
       <c r="L112" s="11"/>
-      <c r="M112" s="91"/>
-      <c r="N112" s="115"/>
-      <c r="O112" s="91"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="91"/>
+      <c r="O112" s="115"/>
       <c r="P112" s="91"/>
       <c r="Q112" s="91"/>
       <c r="R112" s="91"/>
@@ -11364,8 +11558,9 @@
       <c r="AB112" s="91"/>
       <c r="AC112" s="91"/>
       <c r="AD112" s="91"/>
-    </row>
-    <row r="113" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE112" s="91"/>
+    </row>
+    <row r="113" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="91"/>
       <c r="B113" s="92"/>
       <c r="C113" s="93"/>
@@ -11378,9 +11573,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
       <c r="L113" s="11"/>
-      <c r="M113" s="91"/>
-      <c r="N113" s="115"/>
-      <c r="O113" s="91"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="91"/>
+      <c r="O113" s="115"/>
       <c r="P113" s="91"/>
       <c r="Q113" s="91"/>
       <c r="R113" s="91"/>
@@ -11396,8 +11591,9 @@
       <c r="AB113" s="91"/>
       <c r="AC113" s="91"/>
       <c r="AD113" s="91"/>
-    </row>
-    <row r="114" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE113" s="91"/>
+    </row>
+    <row r="114" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="91"/>
       <c r="B114" s="92"/>
       <c r="C114" s="93"/>
@@ -11410,9 +11606,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
       <c r="L114" s="11"/>
-      <c r="M114" s="91"/>
-      <c r="N114" s="115"/>
-      <c r="O114" s="91"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="91"/>
+      <c r="O114" s="115"/>
       <c r="P114" s="91"/>
       <c r="Q114" s="91"/>
       <c r="R114" s="91"/>
@@ -11428,8 +11624,9 @@
       <c r="AB114" s="91"/>
       <c r="AC114" s="91"/>
       <c r="AD114" s="91"/>
-    </row>
-    <row r="115" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE114" s="91"/>
+    </row>
+    <row r="115" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="91"/>
       <c r="B115" s="92"/>
       <c r="C115" s="93"/>
@@ -11442,9 +11639,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
       <c r="L115" s="11"/>
-      <c r="M115" s="91"/>
-      <c r="N115" s="115"/>
-      <c r="O115" s="91"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="91"/>
+      <c r="O115" s="115"/>
       <c r="P115" s="91"/>
       <c r="Q115" s="91"/>
       <c r="R115" s="91"/>
@@ -11460,8 +11657,9 @@
       <c r="AB115" s="91"/>
       <c r="AC115" s="91"/>
       <c r="AD115" s="91"/>
-    </row>
-    <row r="116" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE115" s="91"/>
+    </row>
+    <row r="116" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="91"/>
       <c r="B116" s="92"/>
       <c r="C116" s="93"/>
@@ -11474,9 +11672,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="11"/>
       <c r="L116" s="11"/>
-      <c r="M116" s="91"/>
-      <c r="N116" s="115"/>
-      <c r="O116" s="91"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="91"/>
+      <c r="O116" s="115"/>
       <c r="P116" s="91"/>
       <c r="Q116" s="91"/>
       <c r="R116" s="91"/>
@@ -11492,8 +11690,9 @@
       <c r="AB116" s="91"/>
       <c r="AC116" s="91"/>
       <c r="AD116" s="91"/>
-    </row>
-    <row r="117" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE116" s="91"/>
+    </row>
+    <row r="117" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="91"/>
       <c r="B117" s="92"/>
       <c r="C117" s="93"/>
@@ -11506,9 +11705,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
-      <c r="M117" s="91"/>
-      <c r="N117" s="115"/>
-      <c r="O117" s="91"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="91"/>
+      <c r="O117" s="115"/>
       <c r="P117" s="91"/>
       <c r="Q117" s="91"/>
       <c r="R117" s="91"/>
@@ -11524,8 +11723,9 @@
       <c r="AB117" s="91"/>
       <c r="AC117" s="91"/>
       <c r="AD117" s="91"/>
-    </row>
-    <row r="118" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE117" s="91"/>
+    </row>
+    <row r="118" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="91"/>
       <c r="B118" s="92"/>
       <c r="C118" s="93"/>
@@ -11538,9 +11738,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="11"/>
       <c r="L118" s="11"/>
-      <c r="M118" s="91"/>
-      <c r="N118" s="115"/>
-      <c r="O118" s="91"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="91"/>
+      <c r="O118" s="115"/>
       <c r="P118" s="91"/>
       <c r="Q118" s="91"/>
       <c r="R118" s="91"/>
@@ -11556,8 +11756,9 @@
       <c r="AB118" s="91"/>
       <c r="AC118" s="91"/>
       <c r="AD118" s="91"/>
-    </row>
-    <row r="119" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE118" s="91"/>
+    </row>
+    <row r="119" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="91"/>
       <c r="B119" s="92"/>
       <c r="C119" s="93"/>
@@ -11570,9 +11771,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="11"/>
       <c r="L119" s="11"/>
-      <c r="M119" s="91"/>
-      <c r="N119" s="115"/>
-      <c r="O119" s="91"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="91"/>
+      <c r="O119" s="115"/>
       <c r="P119" s="91"/>
       <c r="Q119" s="91"/>
       <c r="R119" s="91"/>
@@ -11588,8 +11789,9 @@
       <c r="AB119" s="91"/>
       <c r="AC119" s="91"/>
       <c r="AD119" s="91"/>
-    </row>
-    <row r="120" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE119" s="91"/>
+    </row>
+    <row r="120" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="91"/>
       <c r="B120" s="92"/>
       <c r="C120" s="93"/>
@@ -11602,9 +11804,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="11"/>
       <c r="L120" s="11"/>
-      <c r="M120" s="91"/>
-      <c r="N120" s="115"/>
-      <c r="O120" s="91"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="91"/>
+      <c r="O120" s="115"/>
       <c r="P120" s="91"/>
       <c r="Q120" s="91"/>
       <c r="R120" s="91"/>
@@ -11620,8 +11822,9 @@
       <c r="AB120" s="91"/>
       <c r="AC120" s="91"/>
       <c r="AD120" s="91"/>
-    </row>
-    <row r="121" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE120" s="91"/>
+    </row>
+    <row r="121" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="91"/>
       <c r="B121" s="92"/>
       <c r="C121" s="93"/>
@@ -11634,9 +11837,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="11"/>
       <c r="L121" s="11"/>
-      <c r="M121" s="91"/>
-      <c r="N121" s="115"/>
-      <c r="O121" s="91"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="91"/>
+      <c r="O121" s="115"/>
       <c r="P121" s="91"/>
       <c r="Q121" s="91"/>
       <c r="R121" s="91"/>
@@ -11652,8 +11855,9 @@
       <c r="AB121" s="91"/>
       <c r="AC121" s="91"/>
       <c r="AD121" s="91"/>
-    </row>
-    <row r="122" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE121" s="91"/>
+    </row>
+    <row r="122" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="91"/>
       <c r="B122" s="92"/>
       <c r="C122" s="93"/>
@@ -11666,9 +11870,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
-      <c r="M122" s="91"/>
-      <c r="N122" s="115"/>
-      <c r="O122" s="91"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="91"/>
+      <c r="O122" s="115"/>
       <c r="P122" s="91"/>
       <c r="Q122" s="91"/>
       <c r="R122" s="91"/>
@@ -11684,8 +11888,9 @@
       <c r="AB122" s="91"/>
       <c r="AC122" s="91"/>
       <c r="AD122" s="91"/>
-    </row>
-    <row r="123" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE122" s="91"/>
+    </row>
+    <row r="123" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="91"/>
       <c r="B123" s="92"/>
       <c r="C123" s="93"/>
@@ -11698,9 +11903,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
-      <c r="M123" s="91"/>
-      <c r="N123" s="115"/>
-      <c r="O123" s="91"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="91"/>
+      <c r="O123" s="115"/>
       <c r="P123" s="91"/>
       <c r="Q123" s="91"/>
       <c r="R123" s="91"/>
@@ -11716,8 +11921,9 @@
       <c r="AB123" s="91"/>
       <c r="AC123" s="91"/>
       <c r="AD123" s="91"/>
-    </row>
-    <row r="124" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE123" s="91"/>
+    </row>
+    <row r="124" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="91"/>
       <c r="B124" s="92"/>
       <c r="C124" s="93"/>
@@ -11730,9 +11936,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
       <c r="L124" s="11"/>
-      <c r="M124" s="91"/>
-      <c r="N124" s="115"/>
-      <c r="O124" s="91"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="91"/>
+      <c r="O124" s="115"/>
       <c r="P124" s="91"/>
       <c r="Q124" s="91"/>
       <c r="R124" s="91"/>
@@ -11748,8 +11954,9 @@
       <c r="AB124" s="91"/>
       <c r="AC124" s="91"/>
       <c r="AD124" s="91"/>
-    </row>
-    <row r="125" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE124" s="91"/>
+    </row>
+    <row r="125" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="91"/>
       <c r="B125" s="92"/>
       <c r="C125" s="93"/>
@@ -11762,9 +11969,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="11"/>
       <c r="L125" s="11"/>
-      <c r="M125" s="91"/>
-      <c r="N125" s="115"/>
-      <c r="O125" s="91"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="91"/>
+      <c r="O125" s="115"/>
       <c r="P125" s="91"/>
       <c r="Q125" s="91"/>
       <c r="R125" s="91"/>
@@ -11780,8 +11987,9 @@
       <c r="AB125" s="91"/>
       <c r="AC125" s="91"/>
       <c r="AD125" s="91"/>
-    </row>
-    <row r="126" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE125" s="91"/>
+    </row>
+    <row r="126" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="91"/>
       <c r="B126" s="92"/>
       <c r="C126" s="93"/>
@@ -11794,9 +12002,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="11"/>
       <c r="L126" s="11"/>
-      <c r="M126" s="91"/>
-      <c r="N126" s="115"/>
-      <c r="O126" s="91"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="91"/>
+      <c r="O126" s="115"/>
       <c r="P126" s="91"/>
       <c r="Q126" s="91"/>
       <c r="R126" s="91"/>
@@ -11812,8 +12020,9 @@
       <c r="AB126" s="91"/>
       <c r="AC126" s="91"/>
       <c r="AD126" s="91"/>
-    </row>
-    <row r="127" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE126" s="91"/>
+    </row>
+    <row r="127" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="91"/>
       <c r="B127" s="92"/>
       <c r="C127" s="93"/>
@@ -11826,9 +12035,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="11"/>
       <c r="L127" s="11"/>
-      <c r="M127" s="91"/>
-      <c r="N127" s="115"/>
-      <c r="O127" s="91"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="91"/>
+      <c r="O127" s="115"/>
       <c r="P127" s="91"/>
       <c r="Q127" s="91"/>
       <c r="R127" s="91"/>
@@ -11844,8 +12053,9 @@
       <c r="AB127" s="91"/>
       <c r="AC127" s="91"/>
       <c r="AD127" s="91"/>
-    </row>
-    <row r="128" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE127" s="91"/>
+    </row>
+    <row r="128" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="91"/>
       <c r="B128" s="92"/>
       <c r="C128" s="93"/>
@@ -11858,9 +12068,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
-      <c r="M128" s="91"/>
-      <c r="N128" s="115"/>
-      <c r="O128" s="91"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="91"/>
+      <c r="O128" s="115"/>
       <c r="P128" s="91"/>
       <c r="Q128" s="91"/>
       <c r="R128" s="91"/>
@@ -11876,8 +12086,9 @@
       <c r="AB128" s="91"/>
       <c r="AC128" s="91"/>
       <c r="AD128" s="91"/>
-    </row>
-    <row r="129" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE128" s="91"/>
+    </row>
+    <row r="129" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="91"/>
       <c r="B129" s="92"/>
       <c r="C129" s="93"/>
@@ -11890,9 +12101,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="11"/>
       <c r="L129" s="11"/>
-      <c r="M129" s="91"/>
-      <c r="N129" s="115"/>
-      <c r="O129" s="91"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="91"/>
+      <c r="O129" s="115"/>
       <c r="P129" s="91"/>
       <c r="Q129" s="91"/>
       <c r="R129" s="91"/>
@@ -11908,8 +12119,9 @@
       <c r="AB129" s="91"/>
       <c r="AC129" s="91"/>
       <c r="AD129" s="91"/>
-    </row>
-    <row r="130" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE129" s="91"/>
+    </row>
+    <row r="130" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="91"/>
       <c r="B130" s="92"/>
       <c r="C130" s="93"/>
@@ -11922,9 +12134,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="11"/>
       <c r="L130" s="11"/>
-      <c r="M130" s="91"/>
-      <c r="N130" s="115"/>
-      <c r="O130" s="91"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="91"/>
+      <c r="O130" s="115"/>
       <c r="P130" s="91"/>
       <c r="Q130" s="91"/>
       <c r="R130" s="91"/>
@@ -11940,8 +12152,9 @@
       <c r="AB130" s="91"/>
       <c r="AC130" s="91"/>
       <c r="AD130" s="91"/>
-    </row>
-    <row r="131" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE130" s="91"/>
+    </row>
+    <row r="131" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="91"/>
       <c r="B131" s="92"/>
       <c r="C131" s="93"/>
@@ -11954,9 +12167,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="11"/>
       <c r="L131" s="11"/>
-      <c r="M131" s="91"/>
-      <c r="N131" s="115"/>
-      <c r="O131" s="91"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="91"/>
+      <c r="O131" s="115"/>
       <c r="P131" s="91"/>
       <c r="Q131" s="91"/>
       <c r="R131" s="91"/>
@@ -11972,8 +12185,9 @@
       <c r="AB131" s="91"/>
       <c r="AC131" s="91"/>
       <c r="AD131" s="91"/>
-    </row>
-    <row r="132" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE131" s="91"/>
+    </row>
+    <row r="132" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="91"/>
       <c r="B132" s="92"/>
       <c r="C132" s="93"/>
@@ -11986,9 +12200,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
-      <c r="M132" s="91"/>
-      <c r="N132" s="115"/>
-      <c r="O132" s="91"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="91"/>
+      <c r="O132" s="115"/>
       <c r="P132" s="91"/>
       <c r="Q132" s="91"/>
       <c r="R132" s="91"/>
@@ -12004,8 +12218,9 @@
       <c r="AB132" s="91"/>
       <c r="AC132" s="91"/>
       <c r="AD132" s="91"/>
-    </row>
-    <row r="133" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE132" s="91"/>
+    </row>
+    <row r="133" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="91"/>
       <c r="B133" s="92"/>
       <c r="C133" s="93"/>
@@ -12018,9 +12233,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="11"/>
       <c r="L133" s="11"/>
-      <c r="M133" s="91"/>
-      <c r="N133" s="115"/>
-      <c r="O133" s="91"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="91"/>
+      <c r="O133" s="115"/>
       <c r="P133" s="91"/>
       <c r="Q133" s="91"/>
       <c r="R133" s="91"/>
@@ -12036,8 +12251,9 @@
       <c r="AB133" s="91"/>
       <c r="AC133" s="91"/>
       <c r="AD133" s="91"/>
-    </row>
-    <row r="134" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE133" s="91"/>
+    </row>
+    <row r="134" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="91"/>
       <c r="B134" s="92"/>
       <c r="C134" s="93"/>
@@ -12050,9 +12266,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="11"/>
       <c r="L134" s="11"/>
-      <c r="M134" s="91"/>
-      <c r="N134" s="115"/>
-      <c r="O134" s="91"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="91"/>
+      <c r="O134" s="115"/>
       <c r="P134" s="91"/>
       <c r="Q134" s="91"/>
       <c r="R134" s="91"/>
@@ -12068,8 +12284,9 @@
       <c r="AB134" s="91"/>
       <c r="AC134" s="91"/>
       <c r="AD134" s="91"/>
-    </row>
-    <row r="135" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE134" s="91"/>
+    </row>
+    <row r="135" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="91"/>
       <c r="B135" s="92"/>
       <c r="C135" s="93"/>
@@ -12082,9 +12299,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="11"/>
       <c r="L135" s="11"/>
-      <c r="M135" s="91"/>
-      <c r="N135" s="115"/>
-      <c r="O135" s="91"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="91"/>
+      <c r="O135" s="115"/>
       <c r="P135" s="91"/>
       <c r="Q135" s="91"/>
       <c r="R135" s="91"/>
@@ -12100,8 +12317,9 @@
       <c r="AB135" s="91"/>
       <c r="AC135" s="91"/>
       <c r="AD135" s="91"/>
-    </row>
-    <row r="136" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE135" s="91"/>
+    </row>
+    <row r="136" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="91"/>
       <c r="B136" s="92"/>
       <c r="C136" s="93"/>
@@ -12114,9 +12332,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="11"/>
       <c r="L136" s="11"/>
-      <c r="M136" s="91"/>
-      <c r="N136" s="115"/>
-      <c r="O136" s="91"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="91"/>
+      <c r="O136" s="115"/>
       <c r="P136" s="91"/>
       <c r="Q136" s="91"/>
       <c r="R136" s="91"/>
@@ -12132,8 +12350,9 @@
       <c r="AB136" s="91"/>
       <c r="AC136" s="91"/>
       <c r="AD136" s="91"/>
-    </row>
-    <row r="137" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE136" s="91"/>
+    </row>
+    <row r="137" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="91"/>
       <c r="B137" s="92"/>
       <c r="C137" s="93"/>
@@ -12146,9 +12365,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="11"/>
       <c r="L137" s="11"/>
-      <c r="M137" s="91"/>
-      <c r="N137" s="115"/>
-      <c r="O137" s="91"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="91"/>
+      <c r="O137" s="115"/>
       <c r="P137" s="91"/>
       <c r="Q137" s="91"/>
       <c r="R137" s="91"/>
@@ -12164,8 +12383,9 @@
       <c r="AB137" s="91"/>
       <c r="AC137" s="91"/>
       <c r="AD137" s="91"/>
-    </row>
-    <row r="138" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE137" s="91"/>
+    </row>
+    <row r="138" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="91"/>
       <c r="B138" s="92"/>
       <c r="C138" s="93"/>
@@ -12178,9 +12398,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="11"/>
       <c r="L138" s="11"/>
-      <c r="M138" s="91"/>
-      <c r="N138" s="115"/>
-      <c r="O138" s="91"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="91"/>
+      <c r="O138" s="115"/>
       <c r="P138" s="91"/>
       <c r="Q138" s="91"/>
       <c r="R138" s="91"/>
@@ -12196,8 +12416,9 @@
       <c r="AB138" s="91"/>
       <c r="AC138" s="91"/>
       <c r="AD138" s="91"/>
-    </row>
-    <row r="139" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE138" s="91"/>
+    </row>
+    <row r="139" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="91"/>
       <c r="B139" s="92"/>
       <c r="C139" s="93"/>
@@ -12210,9 +12431,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="11"/>
       <c r="L139" s="11"/>
-      <c r="M139" s="91"/>
-      <c r="N139" s="115"/>
-      <c r="O139" s="91"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="91"/>
+      <c r="O139" s="115"/>
       <c r="P139" s="91"/>
       <c r="Q139" s="91"/>
       <c r="R139" s="91"/>
@@ -12228,8 +12449,9 @@
       <c r="AB139" s="91"/>
       <c r="AC139" s="91"/>
       <c r="AD139" s="91"/>
-    </row>
-    <row r="140" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE139" s="91"/>
+    </row>
+    <row r="140" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="91"/>
       <c r="B140" s="92"/>
       <c r="C140" s="93"/>
@@ -12242,9 +12464,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="11"/>
       <c r="L140" s="11"/>
-      <c r="M140" s="91"/>
-      <c r="N140" s="115"/>
-      <c r="O140" s="91"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="91"/>
+      <c r="O140" s="115"/>
       <c r="P140" s="91"/>
       <c r="Q140" s="91"/>
       <c r="R140" s="91"/>
@@ -12260,8 +12482,9 @@
       <c r="AB140" s="91"/>
       <c r="AC140" s="91"/>
       <c r="AD140" s="91"/>
-    </row>
-    <row r="141" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE140" s="91"/>
+    </row>
+    <row r="141" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="91"/>
       <c r="B141" s="92"/>
       <c r="C141" s="93"/>
@@ -12274,9 +12497,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="11"/>
       <c r="L141" s="11"/>
-      <c r="M141" s="91"/>
-      <c r="N141" s="115"/>
-      <c r="O141" s="91"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="91"/>
+      <c r="O141" s="115"/>
       <c r="P141" s="91"/>
       <c r="Q141" s="91"/>
       <c r="R141" s="91"/>
@@ -12292,8 +12515,9 @@
       <c r="AB141" s="91"/>
       <c r="AC141" s="91"/>
       <c r="AD141" s="91"/>
-    </row>
-    <row r="142" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE141" s="91"/>
+    </row>
+    <row r="142" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="91"/>
       <c r="B142" s="92"/>
       <c r="C142" s="93"/>
@@ -12306,9 +12530,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="11"/>
       <c r="L142" s="11"/>
-      <c r="M142" s="91"/>
-      <c r="N142" s="115"/>
-      <c r="O142" s="91"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="91"/>
+      <c r="O142" s="115"/>
       <c r="P142" s="91"/>
       <c r="Q142" s="91"/>
       <c r="R142" s="91"/>
@@ -12324,8 +12548,9 @@
       <c r="AB142" s="91"/>
       <c r="AC142" s="91"/>
       <c r="AD142" s="91"/>
-    </row>
-    <row r="143" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE142" s="91"/>
+    </row>
+    <row r="143" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="91"/>
       <c r="B143" s="92"/>
       <c r="C143" s="93"/>
@@ -12338,9 +12563,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="11"/>
       <c r="L143" s="11"/>
-      <c r="M143" s="91"/>
-      <c r="N143" s="115"/>
-      <c r="O143" s="91"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="91"/>
+      <c r="O143" s="115"/>
       <c r="P143" s="91"/>
       <c r="Q143" s="91"/>
       <c r="R143" s="91"/>
@@ -12356,8 +12581,9 @@
       <c r="AB143" s="91"/>
       <c r="AC143" s="91"/>
       <c r="AD143" s="91"/>
-    </row>
-    <row r="144" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE143" s="91"/>
+    </row>
+    <row r="144" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="91"/>
       <c r="B144" s="92"/>
       <c r="C144" s="93"/>
@@ -12370,9 +12596,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="11"/>
       <c r="L144" s="11"/>
-      <c r="M144" s="91"/>
-      <c r="N144" s="115"/>
-      <c r="O144" s="91"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="91"/>
+      <c r="O144" s="115"/>
       <c r="P144" s="91"/>
       <c r="Q144" s="91"/>
       <c r="R144" s="91"/>
@@ -12388,8 +12614,9 @@
       <c r="AB144" s="91"/>
       <c r="AC144" s="91"/>
       <c r="AD144" s="91"/>
-    </row>
-    <row r="145" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE144" s="91"/>
+    </row>
+    <row r="145" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="91"/>
       <c r="B145" s="92"/>
       <c r="C145" s="93"/>
@@ -12402,9 +12629,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="11"/>
       <c r="L145" s="11"/>
-      <c r="M145" s="91"/>
-      <c r="N145" s="115"/>
-      <c r="O145" s="91"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="91"/>
+      <c r="O145" s="115"/>
       <c r="P145" s="91"/>
       <c r="Q145" s="91"/>
       <c r="R145" s="91"/>
@@ -12420,8 +12647,9 @@
       <c r="AB145" s="91"/>
       <c r="AC145" s="91"/>
       <c r="AD145" s="91"/>
-    </row>
-    <row r="146" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE145" s="91"/>
+    </row>
+    <row r="146" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="91"/>
       <c r="B146" s="92"/>
       <c r="C146" s="93"/>
@@ -12434,9 +12662,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
       <c r="L146" s="11"/>
-      <c r="M146" s="91"/>
-      <c r="N146" s="115"/>
-      <c r="O146" s="91"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="91"/>
+      <c r="O146" s="115"/>
       <c r="P146" s="91"/>
       <c r="Q146" s="91"/>
       <c r="R146" s="91"/>
@@ -12452,8 +12680,9 @@
       <c r="AB146" s="91"/>
       <c r="AC146" s="91"/>
       <c r="AD146" s="91"/>
-    </row>
-    <row r="147" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE146" s="91"/>
+    </row>
+    <row r="147" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="91"/>
       <c r="B147" s="92"/>
       <c r="C147" s="93"/>
@@ -12466,9 +12695,9 @@
       <c r="J147" s="11"/>
       <c r="K147" s="11"/>
       <c r="L147" s="11"/>
-      <c r="M147" s="91"/>
-      <c r="N147" s="115"/>
-      <c r="O147" s="91"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="91"/>
+      <c r="O147" s="115"/>
       <c r="P147" s="91"/>
       <c r="Q147" s="91"/>
       <c r="R147" s="91"/>
@@ -12484,8 +12713,9 @@
       <c r="AB147" s="91"/>
       <c r="AC147" s="91"/>
       <c r="AD147" s="91"/>
-    </row>
-    <row r="148" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE147" s="91"/>
+    </row>
+    <row r="148" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="91"/>
       <c r="B148" s="92"/>
       <c r="C148" s="93"/>
@@ -12498,9 +12728,9 @@
       <c r="J148" s="11"/>
       <c r="K148" s="11"/>
       <c r="L148" s="11"/>
-      <c r="M148" s="91"/>
-      <c r="N148" s="115"/>
-      <c r="O148" s="91"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="91"/>
+      <c r="O148" s="115"/>
       <c r="P148" s="91"/>
       <c r="Q148" s="91"/>
       <c r="R148" s="91"/>
@@ -12516,8 +12746,9 @@
       <c r="AB148" s="91"/>
       <c r="AC148" s="91"/>
       <c r="AD148" s="91"/>
-    </row>
-    <row r="149" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE148" s="91"/>
+    </row>
+    <row r="149" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="91"/>
       <c r="B149" s="92"/>
       <c r="C149" s="93"/>
@@ -12530,9 +12761,9 @@
       <c r="J149" s="11"/>
       <c r="K149" s="11"/>
       <c r="L149" s="11"/>
-      <c r="M149" s="91"/>
-      <c r="N149" s="115"/>
-      <c r="O149" s="91"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="91"/>
+      <c r="O149" s="115"/>
       <c r="P149" s="91"/>
       <c r="Q149" s="91"/>
       <c r="R149" s="91"/>
@@ -12548,8 +12779,9 @@
       <c r="AB149" s="91"/>
       <c r="AC149" s="91"/>
       <c r="AD149" s="91"/>
-    </row>
-    <row r="150" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE149" s="91"/>
+    </row>
+    <row r="150" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="91"/>
       <c r="B150" s="92"/>
       <c r="C150" s="93"/>
@@ -12562,9 +12794,9 @@
       <c r="J150" s="11"/>
       <c r="K150" s="11"/>
       <c r="L150" s="11"/>
-      <c r="M150" s="91"/>
-      <c r="N150" s="115"/>
-      <c r="O150" s="91"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="91"/>
+      <c r="O150" s="115"/>
       <c r="P150" s="91"/>
       <c r="Q150" s="91"/>
       <c r="R150" s="91"/>
@@ -12580,8 +12812,9 @@
       <c r="AB150" s="91"/>
       <c r="AC150" s="91"/>
       <c r="AD150" s="91"/>
-    </row>
-    <row r="151" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE150" s="91"/>
+    </row>
+    <row r="151" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="91"/>
       <c r="B151" s="92"/>
       <c r="C151" s="93"/>
@@ -12594,9 +12827,9 @@
       <c r="J151" s="11"/>
       <c r="K151" s="11"/>
       <c r="L151" s="11"/>
-      <c r="M151" s="91"/>
-      <c r="N151" s="115"/>
-      <c r="O151" s="91"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="91"/>
+      <c r="O151" s="115"/>
       <c r="P151" s="91"/>
       <c r="Q151" s="91"/>
       <c r="R151" s="91"/>
@@ -12612,8 +12845,9 @@
       <c r="AB151" s="91"/>
       <c r="AC151" s="91"/>
       <c r="AD151" s="91"/>
-    </row>
-    <row r="152" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE151" s="91"/>
+    </row>
+    <row r="152" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="91"/>
       <c r="B152" s="92"/>
       <c r="C152" s="93"/>
@@ -12626,9 +12860,9 @@
       <c r="J152" s="11"/>
       <c r="K152" s="11"/>
       <c r="L152" s="11"/>
-      <c r="M152" s="91"/>
-      <c r="N152" s="115"/>
-      <c r="O152" s="91"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="91"/>
+      <c r="O152" s="115"/>
       <c r="P152" s="91"/>
       <c r="Q152" s="91"/>
       <c r="R152" s="91"/>
@@ -12644,8 +12878,9 @@
       <c r="AB152" s="91"/>
       <c r="AC152" s="91"/>
       <c r="AD152" s="91"/>
-    </row>
-    <row r="153" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE152" s="91"/>
+    </row>
+    <row r="153" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="91"/>
       <c r="B153" s="92"/>
       <c r="C153" s="93"/>
@@ -12658,9 +12893,9 @@
       <c r="J153" s="11"/>
       <c r="K153" s="11"/>
       <c r="L153" s="11"/>
-      <c r="M153" s="91"/>
-      <c r="N153" s="115"/>
-      <c r="O153" s="91"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="91"/>
+      <c r="O153" s="115"/>
       <c r="P153" s="91"/>
       <c r="Q153" s="91"/>
       <c r="R153" s="91"/>
@@ -12676,8 +12911,9 @@
       <c r="AB153" s="91"/>
       <c r="AC153" s="91"/>
       <c r="AD153" s="91"/>
-    </row>
-    <row r="154" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE153" s="91"/>
+    </row>
+    <row r="154" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="91"/>
       <c r="B154" s="92"/>
       <c r="C154" s="93"/>
@@ -12690,9 +12926,9 @@
       <c r="J154" s="11"/>
       <c r="K154" s="11"/>
       <c r="L154" s="11"/>
-      <c r="M154" s="91"/>
-      <c r="N154" s="115"/>
-      <c r="O154" s="91"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="91"/>
+      <c r="O154" s="115"/>
       <c r="P154" s="91"/>
       <c r="Q154" s="91"/>
       <c r="R154" s="91"/>
@@ -12708,8 +12944,9 @@
       <c r="AB154" s="91"/>
       <c r="AC154" s="91"/>
       <c r="AD154" s="91"/>
-    </row>
-    <row r="155" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE154" s="91"/>
+    </row>
+    <row r="155" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="91"/>
       <c r="B155" s="92"/>
       <c r="C155" s="93"/>
@@ -12722,9 +12959,9 @@
       <c r="J155" s="11"/>
       <c r="K155" s="11"/>
       <c r="L155" s="11"/>
-      <c r="M155" s="91"/>
-      <c r="N155" s="115"/>
-      <c r="O155" s="91"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="91"/>
+      <c r="O155" s="115"/>
       <c r="P155" s="91"/>
       <c r="Q155" s="91"/>
       <c r="R155" s="91"/>
@@ -12740,8 +12977,9 @@
       <c r="AB155" s="91"/>
       <c r="AC155" s="91"/>
       <c r="AD155" s="91"/>
-    </row>
-    <row r="156" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE155" s="91"/>
+    </row>
+    <row r="156" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="91"/>
       <c r="B156" s="92"/>
       <c r="C156" s="93"/>
@@ -12754,9 +12992,9 @@
       <c r="J156" s="11"/>
       <c r="K156" s="11"/>
       <c r="L156" s="11"/>
-      <c r="M156" s="91"/>
-      <c r="N156" s="115"/>
-      <c r="O156" s="91"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="91"/>
+      <c r="O156" s="115"/>
       <c r="P156" s="91"/>
       <c r="Q156" s="91"/>
       <c r="R156" s="91"/>
@@ -12772,8 +13010,9 @@
       <c r="AB156" s="91"/>
       <c r="AC156" s="91"/>
       <c r="AD156" s="91"/>
-    </row>
-    <row r="157" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE156" s="91"/>
+    </row>
+    <row r="157" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="91"/>
       <c r="B157" s="92"/>
       <c r="C157" s="93"/>
@@ -12786,9 +13025,9 @@
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
       <c r="L157" s="11"/>
-      <c r="M157" s="91"/>
-      <c r="N157" s="115"/>
-      <c r="O157" s="91"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="91"/>
+      <c r="O157" s="115"/>
       <c r="P157" s="91"/>
       <c r="Q157" s="91"/>
       <c r="R157" s="91"/>
@@ -12804,8 +13043,9 @@
       <c r="AB157" s="91"/>
       <c r="AC157" s="91"/>
       <c r="AD157" s="91"/>
-    </row>
-    <row r="158" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE157" s="91"/>
+    </row>
+    <row r="158" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="91"/>
       <c r="B158" s="92"/>
       <c r="C158" s="93"/>
@@ -12818,9 +13058,9 @@
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
       <c r="L158" s="11"/>
-      <c r="M158" s="91"/>
-      <c r="N158" s="115"/>
-      <c r="O158" s="91"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="91"/>
+      <c r="O158" s="115"/>
       <c r="P158" s="91"/>
       <c r="Q158" s="91"/>
       <c r="R158" s="91"/>
@@ -12836,8 +13076,9 @@
       <c r="AB158" s="91"/>
       <c r="AC158" s="91"/>
       <c r="AD158" s="91"/>
-    </row>
-    <row r="159" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE158" s="91"/>
+    </row>
+    <row r="159" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="91"/>
       <c r="B159" s="92"/>
       <c r="C159" s="93"/>
@@ -12850,9 +13091,9 @@
       <c r="J159" s="11"/>
       <c r="K159" s="11"/>
       <c r="L159" s="11"/>
-      <c r="M159" s="91"/>
-      <c r="N159" s="115"/>
-      <c r="O159" s="91"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="91"/>
+      <c r="O159" s="115"/>
       <c r="P159" s="91"/>
       <c r="Q159" s="91"/>
       <c r="R159" s="91"/>
@@ -12868,8 +13109,9 @@
       <c r="AB159" s="91"/>
       <c r="AC159" s="91"/>
       <c r="AD159" s="91"/>
-    </row>
-    <row r="160" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE159" s="91"/>
+    </row>
+    <row r="160" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="91"/>
       <c r="B160" s="92"/>
       <c r="C160" s="93"/>
@@ -12882,9 +13124,9 @@
       <c r="J160" s="11"/>
       <c r="K160" s="11"/>
       <c r="L160" s="11"/>
-      <c r="M160" s="91"/>
-      <c r="N160" s="115"/>
-      <c r="O160" s="91"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="91"/>
+      <c r="O160" s="115"/>
       <c r="P160" s="91"/>
       <c r="Q160" s="91"/>
       <c r="R160" s="91"/>
@@ -12900,8 +13142,9 @@
       <c r="AB160" s="91"/>
       <c r="AC160" s="91"/>
       <c r="AD160" s="91"/>
-    </row>
-    <row r="161" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE160" s="91"/>
+    </row>
+    <row r="161" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="91"/>
       <c r="B161" s="92"/>
       <c r="C161" s="93"/>
@@ -12914,9 +13157,9 @@
       <c r="J161" s="11"/>
       <c r="K161" s="11"/>
       <c r="L161" s="11"/>
-      <c r="M161" s="91"/>
-      <c r="N161" s="115"/>
-      <c r="O161" s="91"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="91"/>
+      <c r="O161" s="115"/>
       <c r="P161" s="91"/>
       <c r="Q161" s="91"/>
       <c r="R161" s="91"/>
@@ -12932,8 +13175,9 @@
       <c r="AB161" s="91"/>
       <c r="AC161" s="91"/>
       <c r="AD161" s="91"/>
-    </row>
-    <row r="162" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE161" s="91"/>
+    </row>
+    <row r="162" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="91"/>
       <c r="B162" s="92"/>
       <c r="C162" s="93"/>
@@ -12946,9 +13190,9 @@
       <c r="J162" s="11"/>
       <c r="K162" s="11"/>
       <c r="L162" s="11"/>
-      <c r="M162" s="91"/>
-      <c r="N162" s="115"/>
-      <c r="O162" s="91"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="91"/>
+      <c r="O162" s="115"/>
       <c r="P162" s="91"/>
       <c r="Q162" s="91"/>
       <c r="R162" s="91"/>
@@ -12964,8 +13208,9 @@
       <c r="AB162" s="91"/>
       <c r="AC162" s="91"/>
       <c r="AD162" s="91"/>
-    </row>
-    <row r="163" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE162" s="91"/>
+    </row>
+    <row r="163" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="91"/>
       <c r="B163" s="92"/>
       <c r="C163" s="93"/>
@@ -12978,9 +13223,9 @@
       <c r="J163" s="11"/>
       <c r="K163" s="11"/>
       <c r="L163" s="11"/>
-      <c r="M163" s="91"/>
-      <c r="N163" s="115"/>
-      <c r="O163" s="91"/>
+      <c r="M163" s="11"/>
+      <c r="N163" s="91"/>
+      <c r="O163" s="115"/>
       <c r="P163" s="91"/>
       <c r="Q163" s="91"/>
       <c r="R163" s="91"/>
@@ -12996,8 +13241,9 @@
       <c r="AB163" s="91"/>
       <c r="AC163" s="91"/>
       <c r="AD163" s="91"/>
-    </row>
-    <row r="164" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE163" s="91"/>
+    </row>
+    <row r="164" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="91"/>
       <c r="B164" s="92"/>
       <c r="C164" s="93"/>
@@ -13010,9 +13256,9 @@
       <c r="J164" s="11"/>
       <c r="K164" s="11"/>
       <c r="L164" s="11"/>
-      <c r="M164" s="91"/>
-      <c r="N164" s="115"/>
-      <c r="O164" s="91"/>
+      <c r="M164" s="11"/>
+      <c r="N164" s="91"/>
+      <c r="O164" s="115"/>
       <c r="P164" s="91"/>
       <c r="Q164" s="91"/>
       <c r="R164" s="91"/>
@@ -13028,8 +13274,9 @@
       <c r="AB164" s="91"/>
       <c r="AC164" s="91"/>
       <c r="AD164" s="91"/>
-    </row>
-    <row r="165" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE164" s="91"/>
+    </row>
+    <row r="165" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="91"/>
       <c r="B165" s="92"/>
       <c r="C165" s="93"/>
@@ -13042,9 +13289,9 @@
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
       <c r="L165" s="11"/>
-      <c r="M165" s="91"/>
-      <c r="N165" s="115"/>
-      <c r="O165" s="91"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="91"/>
+      <c r="O165" s="115"/>
       <c r="P165" s="91"/>
       <c r="Q165" s="91"/>
       <c r="R165" s="91"/>
@@ -13060,8 +13307,9 @@
       <c r="AB165" s="91"/>
       <c r="AC165" s="91"/>
       <c r="AD165" s="91"/>
-    </row>
-    <row r="166" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE165" s="91"/>
+    </row>
+    <row r="166" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="91"/>
       <c r="B166" s="92"/>
       <c r="C166" s="93"/>
@@ -13074,9 +13322,9 @@
       <c r="J166" s="11"/>
       <c r="K166" s="11"/>
       <c r="L166" s="11"/>
-      <c r="M166" s="91"/>
-      <c r="N166" s="115"/>
-      <c r="O166" s="91"/>
+      <c r="M166" s="11"/>
+      <c r="N166" s="91"/>
+      <c r="O166" s="115"/>
       <c r="P166" s="91"/>
       <c r="Q166" s="91"/>
       <c r="R166" s="91"/>
@@ -13092,8 +13340,9 @@
       <c r="AB166" s="91"/>
       <c r="AC166" s="91"/>
       <c r="AD166" s="91"/>
-    </row>
-    <row r="167" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE166" s="91"/>
+    </row>
+    <row r="167" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="91"/>
       <c r="B167" s="92"/>
       <c r="C167" s="93"/>
@@ -13106,9 +13355,9 @@
       <c r="J167" s="11"/>
       <c r="K167" s="11"/>
       <c r="L167" s="11"/>
-      <c r="M167" s="91"/>
-      <c r="N167" s="115"/>
-      <c r="O167" s="91"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="91"/>
+      <c r="O167" s="115"/>
       <c r="P167" s="91"/>
       <c r="Q167" s="91"/>
       <c r="R167" s="91"/>
@@ -13124,8 +13373,9 @@
       <c r="AB167" s="91"/>
       <c r="AC167" s="91"/>
       <c r="AD167" s="91"/>
-    </row>
-    <row r="168" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE167" s="91"/>
+    </row>
+    <row r="168" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="91"/>
       <c r="B168" s="92"/>
       <c r="C168" s="93"/>
@@ -13138,9 +13388,9 @@
       <c r="J168" s="11"/>
       <c r="K168" s="11"/>
       <c r="L168" s="11"/>
-      <c r="M168" s="91"/>
-      <c r="N168" s="115"/>
-      <c r="O168" s="91"/>
+      <c r="M168" s="11"/>
+      <c r="N168" s="91"/>
+      <c r="O168" s="115"/>
       <c r="P168" s="91"/>
       <c r="Q168" s="91"/>
       <c r="R168" s="91"/>
@@ -13156,8 +13406,9 @@
       <c r="AB168" s="91"/>
       <c r="AC168" s="91"/>
       <c r="AD168" s="91"/>
-    </row>
-    <row r="169" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE168" s="91"/>
+    </row>
+    <row r="169" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="91"/>
       <c r="B169" s="92"/>
       <c r="C169" s="93"/>
@@ -13170,9 +13421,9 @@
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
       <c r="L169" s="11"/>
-      <c r="M169" s="91"/>
-      <c r="N169" s="115"/>
-      <c r="O169" s="91"/>
+      <c r="M169" s="11"/>
+      <c r="N169" s="91"/>
+      <c r="O169" s="115"/>
       <c r="P169" s="91"/>
       <c r="Q169" s="91"/>
       <c r="R169" s="91"/>
@@ -13188,8 +13439,9 @@
       <c r="AB169" s="91"/>
       <c r="AC169" s="91"/>
       <c r="AD169" s="91"/>
-    </row>
-    <row r="170" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE169" s="91"/>
+    </row>
+    <row r="170" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="91"/>
       <c r="B170" s="92"/>
       <c r="C170" s="93"/>
@@ -13202,9 +13454,9 @@
       <c r="J170" s="11"/>
       <c r="K170" s="11"/>
       <c r="L170" s="11"/>
-      <c r="M170" s="91"/>
-      <c r="N170" s="115"/>
-      <c r="O170" s="91"/>
+      <c r="M170" s="11"/>
+      <c r="N170" s="91"/>
+      <c r="O170" s="115"/>
       <c r="P170" s="91"/>
       <c r="Q170" s="91"/>
       <c r="R170" s="91"/>
@@ -13220,8 +13472,9 @@
       <c r="AB170" s="91"/>
       <c r="AC170" s="91"/>
       <c r="AD170" s="91"/>
-    </row>
-    <row r="171" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE170" s="91"/>
+    </row>
+    <row r="171" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="91"/>
       <c r="B171" s="92"/>
       <c r="C171" s="93"/>
@@ -13234,9 +13487,9 @@
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
       <c r="L171" s="11"/>
-      <c r="M171" s="91"/>
-      <c r="N171" s="115"/>
-      <c r="O171" s="91"/>
+      <c r="M171" s="11"/>
+      <c r="N171" s="91"/>
+      <c r="O171" s="115"/>
       <c r="P171" s="91"/>
       <c r="Q171" s="91"/>
       <c r="R171" s="91"/>
@@ -13252,8 +13505,9 @@
       <c r="AB171" s="91"/>
       <c r="AC171" s="91"/>
       <c r="AD171" s="91"/>
-    </row>
-    <row r="172" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE171" s="91"/>
+    </row>
+    <row r="172" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="91"/>
       <c r="B172" s="92"/>
       <c r="C172" s="93"/>
@@ -13266,9 +13520,9 @@
       <c r="J172" s="11"/>
       <c r="K172" s="11"/>
       <c r="L172" s="11"/>
-      <c r="M172" s="91"/>
-      <c r="N172" s="115"/>
-      <c r="O172" s="91"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="91"/>
+      <c r="O172" s="115"/>
       <c r="P172" s="91"/>
       <c r="Q172" s="91"/>
       <c r="R172" s="91"/>
@@ -13284,8 +13538,9 @@
       <c r="AB172" s="91"/>
       <c r="AC172" s="91"/>
       <c r="AD172" s="91"/>
-    </row>
-    <row r="173" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE172" s="91"/>
+    </row>
+    <row r="173" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="91"/>
       <c r="B173" s="92"/>
       <c r="C173" s="93"/>
@@ -13298,9 +13553,9 @@
       <c r="J173" s="11"/>
       <c r="K173" s="11"/>
       <c r="L173" s="11"/>
-      <c r="M173" s="91"/>
-      <c r="N173" s="115"/>
-      <c r="O173" s="91"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="91"/>
+      <c r="O173" s="115"/>
       <c r="P173" s="91"/>
       <c r="Q173" s="91"/>
       <c r="R173" s="91"/>
@@ -13316,8 +13571,9 @@
       <c r="AB173" s="91"/>
       <c r="AC173" s="91"/>
       <c r="AD173" s="91"/>
-    </row>
-    <row r="174" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE173" s="91"/>
+    </row>
+    <row r="174" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="91"/>
       <c r="B174" s="92"/>
       <c r="C174" s="93"/>
@@ -13330,9 +13586,9 @@
       <c r="J174" s="11"/>
       <c r="K174" s="11"/>
       <c r="L174" s="11"/>
-      <c r="M174" s="91"/>
-      <c r="N174" s="115"/>
-      <c r="O174" s="91"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="91"/>
+      <c r="O174" s="115"/>
       <c r="P174" s="91"/>
       <c r="Q174" s="91"/>
       <c r="R174" s="91"/>
@@ -13348,8 +13604,9 @@
       <c r="AB174" s="91"/>
       <c r="AC174" s="91"/>
       <c r="AD174" s="91"/>
-    </row>
-    <row r="175" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE174" s="91"/>
+    </row>
+    <row r="175" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="91"/>
       <c r="B175" s="92"/>
       <c r="C175" s="93"/>
@@ -13362,9 +13619,9 @@
       <c r="J175" s="11"/>
       <c r="K175" s="11"/>
       <c r="L175" s="11"/>
-      <c r="M175" s="91"/>
-      <c r="N175" s="115"/>
-      <c r="O175" s="91"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="91"/>
+      <c r="O175" s="115"/>
       <c r="P175" s="91"/>
       <c r="Q175" s="91"/>
       <c r="R175" s="91"/>
@@ -13380,8 +13637,9 @@
       <c r="AB175" s="91"/>
       <c r="AC175" s="91"/>
       <c r="AD175" s="91"/>
-    </row>
-    <row r="176" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE175" s="91"/>
+    </row>
+    <row r="176" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="91"/>
       <c r="B176" s="92"/>
       <c r="C176" s="93"/>
@@ -13394,9 +13652,9 @@
       <c r="J176" s="11"/>
       <c r="K176" s="11"/>
       <c r="L176" s="11"/>
-      <c r="M176" s="91"/>
-      <c r="N176" s="115"/>
-      <c r="O176" s="91"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="91"/>
+      <c r="O176" s="115"/>
       <c r="P176" s="91"/>
       <c r="Q176" s="91"/>
       <c r="R176" s="91"/>
@@ -13412,8 +13670,9 @@
       <c r="AB176" s="91"/>
       <c r="AC176" s="91"/>
       <c r="AD176" s="91"/>
-    </row>
-    <row r="177" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE176" s="91"/>
+    </row>
+    <row r="177" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="91"/>
       <c r="B177" s="92"/>
       <c r="C177" s="93"/>
@@ -13426,9 +13685,9 @@
       <c r="J177" s="11"/>
       <c r="K177" s="11"/>
       <c r="L177" s="11"/>
-      <c r="M177" s="91"/>
-      <c r="N177" s="115"/>
-      <c r="O177" s="91"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="91"/>
+      <c r="O177" s="115"/>
       <c r="P177" s="91"/>
       <c r="Q177" s="91"/>
       <c r="R177" s="91"/>
@@ -13444,8 +13703,9 @@
       <c r="AB177" s="91"/>
       <c r="AC177" s="91"/>
       <c r="AD177" s="91"/>
-    </row>
-    <row r="178" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE177" s="91"/>
+    </row>
+    <row r="178" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="91"/>
       <c r="B178" s="92"/>
       <c r="C178" s="93"/>
@@ -13458,9 +13718,9 @@
       <c r="J178" s="11"/>
       <c r="K178" s="11"/>
       <c r="L178" s="11"/>
-      <c r="M178" s="91"/>
-      <c r="N178" s="115"/>
-      <c r="O178" s="91"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="91"/>
+      <c r="O178" s="115"/>
       <c r="P178" s="91"/>
       <c r="Q178" s="91"/>
       <c r="R178" s="91"/>
@@ -13476,8 +13736,9 @@
       <c r="AB178" s="91"/>
       <c r="AC178" s="91"/>
       <c r="AD178" s="91"/>
-    </row>
-    <row r="179" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE178" s="91"/>
+    </row>
+    <row r="179" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="91"/>
       <c r="B179" s="92"/>
       <c r="C179" s="93"/>
@@ -13490,9 +13751,9 @@
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
       <c r="L179" s="11"/>
-      <c r="M179" s="91"/>
-      <c r="N179" s="115"/>
-      <c r="O179" s="91"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="91"/>
+      <c r="O179" s="115"/>
       <c r="P179" s="91"/>
       <c r="Q179" s="91"/>
       <c r="R179" s="91"/>
@@ -13508,8 +13769,9 @@
       <c r="AB179" s="91"/>
       <c r="AC179" s="91"/>
       <c r="AD179" s="91"/>
-    </row>
-    <row r="180" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE179" s="91"/>
+    </row>
+    <row r="180" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="91"/>
       <c r="B180" s="92"/>
       <c r="C180" s="93"/>
@@ -13522,9 +13784,9 @@
       <c r="J180" s="11"/>
       <c r="K180" s="11"/>
       <c r="L180" s="11"/>
-      <c r="M180" s="91"/>
-      <c r="N180" s="115"/>
-      <c r="O180" s="91"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="91"/>
+      <c r="O180" s="115"/>
       <c r="P180" s="91"/>
       <c r="Q180" s="91"/>
       <c r="R180" s="91"/>
@@ -13540,8 +13802,9 @@
       <c r="AB180" s="91"/>
       <c r="AC180" s="91"/>
       <c r="AD180" s="91"/>
-    </row>
-    <row r="181" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE180" s="91"/>
+    </row>
+    <row r="181" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="91"/>
       <c r="B181" s="92"/>
       <c r="C181" s="93"/>
@@ -13554,9 +13817,9 @@
       <c r="J181" s="11"/>
       <c r="K181" s="11"/>
       <c r="L181" s="11"/>
-      <c r="M181" s="91"/>
-      <c r="N181" s="115"/>
-      <c r="O181" s="91"/>
+      <c r="M181" s="11"/>
+      <c r="N181" s="91"/>
+      <c r="O181" s="115"/>
       <c r="P181" s="91"/>
       <c r="Q181" s="91"/>
       <c r="R181" s="91"/>
@@ -13572,8 +13835,9 @@
       <c r="AB181" s="91"/>
       <c r="AC181" s="91"/>
       <c r="AD181" s="91"/>
-    </row>
-    <row r="182" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE181" s="91"/>
+    </row>
+    <row r="182" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="91"/>
       <c r="B182" s="92"/>
       <c r="C182" s="93"/>
@@ -13586,9 +13850,9 @@
       <c r="J182" s="11"/>
       <c r="K182" s="11"/>
       <c r="L182" s="11"/>
-      <c r="M182" s="91"/>
-      <c r="N182" s="115"/>
-      <c r="O182" s="91"/>
+      <c r="M182" s="11"/>
+      <c r="N182" s="91"/>
+      <c r="O182" s="115"/>
       <c r="P182" s="91"/>
       <c r="Q182" s="91"/>
       <c r="R182" s="91"/>
@@ -13604,8 +13868,9 @@
       <c r="AB182" s="91"/>
       <c r="AC182" s="91"/>
       <c r="AD182" s="91"/>
-    </row>
-    <row r="183" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE182" s="91"/>
+    </row>
+    <row r="183" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="91"/>
       <c r="B183" s="92"/>
       <c r="C183" s="93"/>
@@ -13618,9 +13883,9 @@
       <c r="J183" s="11"/>
       <c r="K183" s="11"/>
       <c r="L183" s="11"/>
-      <c r="M183" s="91"/>
-      <c r="N183" s="115"/>
-      <c r="O183" s="91"/>
+      <c r="M183" s="11"/>
+      <c r="N183" s="91"/>
+      <c r="O183" s="115"/>
       <c r="P183" s="91"/>
       <c r="Q183" s="91"/>
       <c r="R183" s="91"/>
@@ -13636,8 +13901,9 @@
       <c r="AB183" s="91"/>
       <c r="AC183" s="91"/>
       <c r="AD183" s="91"/>
-    </row>
-    <row r="184" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE183" s="91"/>
+    </row>
+    <row r="184" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="91"/>
       <c r="B184" s="92"/>
       <c r="C184" s="93"/>
@@ -13650,9 +13916,9 @@
       <c r="J184" s="11"/>
       <c r="K184" s="11"/>
       <c r="L184" s="11"/>
-      <c r="M184" s="91"/>
-      <c r="N184" s="115"/>
-      <c r="O184" s="91"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="91"/>
+      <c r="O184" s="115"/>
       <c r="P184" s="91"/>
       <c r="Q184" s="91"/>
       <c r="R184" s="91"/>
@@ -13668,8 +13934,9 @@
       <c r="AB184" s="91"/>
       <c r="AC184" s="91"/>
       <c r="AD184" s="91"/>
-    </row>
-    <row r="185" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE184" s="91"/>
+    </row>
+    <row r="185" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="91"/>
       <c r="B185" s="92"/>
       <c r="C185" s="93"/>
@@ -13682,9 +13949,9 @@
       <c r="J185" s="11"/>
       <c r="K185" s="11"/>
       <c r="L185" s="11"/>
-      <c r="M185" s="91"/>
-      <c r="N185" s="115"/>
-      <c r="O185" s="91"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="91"/>
+      <c r="O185" s="115"/>
       <c r="P185" s="91"/>
       <c r="Q185" s="91"/>
       <c r="R185" s="91"/>
@@ -13700,8 +13967,9 @@
       <c r="AB185" s="91"/>
       <c r="AC185" s="91"/>
       <c r="AD185" s="91"/>
-    </row>
-    <row r="186" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE185" s="91"/>
+    </row>
+    <row r="186" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="91"/>
       <c r="B186" s="92"/>
       <c r="C186" s="93"/>
@@ -13714,9 +13982,9 @@
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
       <c r="L186" s="11"/>
-      <c r="M186" s="91"/>
-      <c r="N186" s="115"/>
-      <c r="O186" s="91"/>
+      <c r="M186" s="11"/>
+      <c r="N186" s="91"/>
+      <c r="O186" s="115"/>
       <c r="P186" s="91"/>
       <c r="Q186" s="91"/>
       <c r="R186" s="91"/>
@@ -13732,8 +14000,9 @@
       <c r="AB186" s="91"/>
       <c r="AC186" s="91"/>
       <c r="AD186" s="91"/>
-    </row>
-    <row r="187" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE186" s="91"/>
+    </row>
+    <row r="187" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="91"/>
       <c r="B187" s="92"/>
       <c r="C187" s="93"/>
@@ -13746,9 +14015,9 @@
       <c r="J187" s="11"/>
       <c r="K187" s="11"/>
       <c r="L187" s="11"/>
-      <c r="M187" s="91"/>
-      <c r="N187" s="115"/>
-      <c r="O187" s="91"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="91"/>
+      <c r="O187" s="115"/>
       <c r="P187" s="91"/>
       <c r="Q187" s="91"/>
       <c r="R187" s="91"/>
@@ -13764,8 +14033,9 @@
       <c r="AB187" s="91"/>
       <c r="AC187" s="91"/>
       <c r="AD187" s="91"/>
-    </row>
-    <row r="188" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE187" s="91"/>
+    </row>
+    <row r="188" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="91"/>
       <c r="B188" s="92"/>
       <c r="C188" s="93"/>
@@ -13778,9 +14048,9 @@
       <c r="J188" s="11"/>
       <c r="K188" s="11"/>
       <c r="L188" s="11"/>
-      <c r="M188" s="91"/>
-      <c r="N188" s="115"/>
-      <c r="O188" s="91"/>
+      <c r="M188" s="11"/>
+      <c r="N188" s="91"/>
+      <c r="O188" s="115"/>
       <c r="P188" s="91"/>
       <c r="Q188" s="91"/>
       <c r="R188" s="91"/>
@@ -13796,8 +14066,9 @@
       <c r="AB188" s="91"/>
       <c r="AC188" s="91"/>
       <c r="AD188" s="91"/>
-    </row>
-    <row r="189" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE188" s="91"/>
+    </row>
+    <row r="189" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="91"/>
       <c r="B189" s="92"/>
       <c r="C189" s="93"/>
@@ -13810,9 +14081,9 @@
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
       <c r="L189" s="11"/>
-      <c r="M189" s="91"/>
-      <c r="N189" s="115"/>
-      <c r="O189" s="91"/>
+      <c r="M189" s="11"/>
+      <c r="N189" s="91"/>
+      <c r="O189" s="115"/>
       <c r="P189" s="91"/>
       <c r="Q189" s="91"/>
       <c r="R189" s="91"/>
@@ -13828,8 +14099,9 @@
       <c r="AB189" s="91"/>
       <c r="AC189" s="91"/>
       <c r="AD189" s="91"/>
-    </row>
-    <row r="190" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE189" s="91"/>
+    </row>
+    <row r="190" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="91"/>
       <c r="B190" s="92"/>
       <c r="C190" s="93"/>
@@ -13842,9 +14114,9 @@
       <c r="J190" s="11"/>
       <c r="K190" s="11"/>
       <c r="L190" s="11"/>
-      <c r="M190" s="91"/>
-      <c r="N190" s="115"/>
-      <c r="O190" s="91"/>
+      <c r="M190" s="11"/>
+      <c r="N190" s="91"/>
+      <c r="O190" s="115"/>
       <c r="P190" s="91"/>
       <c r="Q190" s="91"/>
       <c r="R190" s="91"/>
@@ -13860,8 +14132,9 @@
       <c r="AB190" s="91"/>
       <c r="AC190" s="91"/>
       <c r="AD190" s="91"/>
-    </row>
-    <row r="191" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE190" s="91"/>
+    </row>
+    <row r="191" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="91"/>
       <c r="B191" s="92"/>
       <c r="C191" s="93"/>
@@ -13874,9 +14147,9 @@
       <c r="J191" s="11"/>
       <c r="K191" s="11"/>
       <c r="L191" s="11"/>
-      <c r="M191" s="91"/>
-      <c r="N191" s="115"/>
-      <c r="O191" s="91"/>
+      <c r="M191" s="11"/>
+      <c r="N191" s="91"/>
+      <c r="O191" s="115"/>
       <c r="P191" s="91"/>
       <c r="Q191" s="91"/>
       <c r="R191" s="91"/>
@@ -13892,8 +14165,9 @@
       <c r="AB191" s="91"/>
       <c r="AC191" s="91"/>
       <c r="AD191" s="91"/>
-    </row>
-    <row r="192" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE191" s="91"/>
+    </row>
+    <row r="192" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="91"/>
       <c r="B192" s="92"/>
       <c r="C192" s="93"/>
@@ -13906,9 +14180,9 @@
       <c r="J192" s="11"/>
       <c r="K192" s="11"/>
       <c r="L192" s="11"/>
-      <c r="M192" s="91"/>
-      <c r="N192" s="115"/>
-      <c r="O192" s="91"/>
+      <c r="M192" s="11"/>
+      <c r="N192" s="91"/>
+      <c r="O192" s="115"/>
       <c r="P192" s="91"/>
       <c r="Q192" s="91"/>
       <c r="R192" s="91"/>
@@ -13924,8 +14198,9 @@
       <c r="AB192" s="91"/>
       <c r="AC192" s="91"/>
       <c r="AD192" s="91"/>
-    </row>
-    <row r="193" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE192" s="91"/>
+    </row>
+    <row r="193" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="91"/>
       <c r="B193" s="92"/>
       <c r="C193" s="93"/>
@@ -13938,9 +14213,9 @@
       <c r="J193" s="11"/>
       <c r="K193" s="11"/>
       <c r="L193" s="11"/>
-      <c r="M193" s="91"/>
-      <c r="N193" s="115"/>
-      <c r="O193" s="91"/>
+      <c r="M193" s="11"/>
+      <c r="N193" s="91"/>
+      <c r="O193" s="115"/>
       <c r="P193" s="91"/>
       <c r="Q193" s="91"/>
       <c r="R193" s="91"/>
@@ -13956,8 +14231,9 @@
       <c r="AB193" s="91"/>
       <c r="AC193" s="91"/>
       <c r="AD193" s="91"/>
-    </row>
-    <row r="194" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE193" s="91"/>
+    </row>
+    <row r="194" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="91"/>
       <c r="B194" s="92"/>
       <c r="C194" s="93"/>
@@ -13970,9 +14246,9 @@
       <c r="J194" s="11"/>
       <c r="K194" s="11"/>
       <c r="L194" s="11"/>
-      <c r="M194" s="91"/>
-      <c r="N194" s="115"/>
-      <c r="O194" s="91"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="91"/>
+      <c r="O194" s="115"/>
       <c r="P194" s="91"/>
       <c r="Q194" s="91"/>
       <c r="R194" s="91"/>
@@ -13988,8 +14264,9 @@
       <c r="AB194" s="91"/>
       <c r="AC194" s="91"/>
       <c r="AD194" s="91"/>
-    </row>
-    <row r="195" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE194" s="91"/>
+    </row>
+    <row r="195" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="91"/>
       <c r="B195" s="92"/>
       <c r="C195" s="93"/>
@@ -14002,9 +14279,9 @@
       <c r="J195" s="11"/>
       <c r="K195" s="11"/>
       <c r="L195" s="11"/>
-      <c r="M195" s="91"/>
-      <c r="N195" s="115"/>
-      <c r="O195" s="91"/>
+      <c r="M195" s="11"/>
+      <c r="N195" s="91"/>
+      <c r="O195" s="115"/>
       <c r="P195" s="91"/>
       <c r="Q195" s="91"/>
       <c r="R195" s="91"/>
@@ -14020,8 +14297,9 @@
       <c r="AB195" s="91"/>
       <c r="AC195" s="91"/>
       <c r="AD195" s="91"/>
-    </row>
-    <row r="196" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE195" s="91"/>
+    </row>
+    <row r="196" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="91"/>
       <c r="B196" s="92"/>
       <c r="C196" s="93"/>
@@ -14034,9 +14312,9 @@
       <c r="J196" s="11"/>
       <c r="K196" s="11"/>
       <c r="L196" s="11"/>
-      <c r="M196" s="91"/>
-      <c r="N196" s="115"/>
-      <c r="O196" s="91"/>
+      <c r="M196" s="11"/>
+      <c r="N196" s="91"/>
+      <c r="O196" s="115"/>
       <c r="P196" s="91"/>
       <c r="Q196" s="91"/>
       <c r="R196" s="91"/>
@@ -14052,8 +14330,9 @@
       <c r="AB196" s="91"/>
       <c r="AC196" s="91"/>
       <c r="AD196" s="91"/>
-    </row>
-    <row r="197" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE196" s="91"/>
+    </row>
+    <row r="197" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="91"/>
       <c r="B197" s="92"/>
       <c r="C197" s="93"/>
@@ -14066,9 +14345,9 @@
       <c r="J197" s="11"/>
       <c r="K197" s="11"/>
       <c r="L197" s="11"/>
-      <c r="M197" s="91"/>
-      <c r="N197" s="115"/>
-      <c r="O197" s="91"/>
+      <c r="M197" s="11"/>
+      <c r="N197" s="91"/>
+      <c r="O197" s="115"/>
       <c r="P197" s="91"/>
       <c r="Q197" s="91"/>
       <c r="R197" s="91"/>
@@ -14084,8 +14363,9 @@
       <c r="AB197" s="91"/>
       <c r="AC197" s="91"/>
       <c r="AD197" s="91"/>
-    </row>
-    <row r="198" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE197" s="91"/>
+    </row>
+    <row r="198" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="91"/>
       <c r="B198" s="92"/>
       <c r="C198" s="93"/>
@@ -14098,9 +14378,9 @@
       <c r="J198" s="11"/>
       <c r="K198" s="11"/>
       <c r="L198" s="11"/>
-      <c r="M198" s="91"/>
-      <c r="N198" s="115"/>
-      <c r="O198" s="91"/>
+      <c r="M198" s="11"/>
+      <c r="N198" s="91"/>
+      <c r="O198" s="115"/>
       <c r="P198" s="91"/>
       <c r="Q198" s="91"/>
       <c r="R198" s="91"/>
@@ -14116,8 +14396,9 @@
       <c r="AB198" s="91"/>
       <c r="AC198" s="91"/>
       <c r="AD198" s="91"/>
-    </row>
-    <row r="199" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE198" s="91"/>
+    </row>
+    <row r="199" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="91"/>
       <c r="B199" s="92"/>
       <c r="C199" s="93"/>
@@ -14130,9 +14411,9 @@
       <c r="J199" s="11"/>
       <c r="K199" s="11"/>
       <c r="L199" s="11"/>
-      <c r="M199" s="91"/>
-      <c r="N199" s="115"/>
-      <c r="O199" s="91"/>
+      <c r="M199" s="11"/>
+      <c r="N199" s="91"/>
+      <c r="O199" s="115"/>
       <c r="P199" s="91"/>
       <c r="Q199" s="91"/>
       <c r="R199" s="91"/>
@@ -14148,8 +14429,9 @@
       <c r="AB199" s="91"/>
       <c r="AC199" s="91"/>
       <c r="AD199" s="91"/>
-    </row>
-    <row r="200" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE199" s="91"/>
+    </row>
+    <row r="200" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="91"/>
       <c r="B200" s="92"/>
       <c r="C200" s="93"/>
@@ -14162,9 +14444,9 @@
       <c r="J200" s="11"/>
       <c r="K200" s="11"/>
       <c r="L200" s="11"/>
-      <c r="M200" s="91"/>
-      <c r="N200" s="115"/>
-      <c r="O200" s="91"/>
+      <c r="M200" s="11"/>
+      <c r="N200" s="91"/>
+      <c r="O200" s="115"/>
       <c r="P200" s="91"/>
       <c r="Q200" s="91"/>
       <c r="R200" s="91"/>
@@ -14180,8 +14462,9 @@
       <c r="AB200" s="91"/>
       <c r="AC200" s="91"/>
       <c r="AD200" s="91"/>
-    </row>
-    <row r="201" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE200" s="91"/>
+    </row>
+    <row r="201" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="91"/>
       <c r="B201" s="92"/>
       <c r="C201" s="93"/>
@@ -14194,9 +14477,9 @@
       <c r="J201" s="11"/>
       <c r="K201" s="11"/>
       <c r="L201" s="11"/>
-      <c r="M201" s="91"/>
-      <c r="N201" s="115"/>
-      <c r="O201" s="91"/>
+      <c r="M201" s="11"/>
+      <c r="N201" s="91"/>
+      <c r="O201" s="115"/>
       <c r="P201" s="91"/>
       <c r="Q201" s="91"/>
       <c r="R201" s="91"/>
@@ -14212,8 +14495,9 @@
       <c r="AB201" s="91"/>
       <c r="AC201" s="91"/>
       <c r="AD201" s="91"/>
-    </row>
-    <row r="202" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE201" s="91"/>
+    </row>
+    <row r="202" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="91"/>
       <c r="B202" s="92"/>
       <c r="C202" s="93"/>
@@ -14226,9 +14510,9 @@
       <c r="J202" s="11"/>
       <c r="K202" s="11"/>
       <c r="L202" s="11"/>
-      <c r="M202" s="91"/>
-      <c r="N202" s="115"/>
-      <c r="O202" s="91"/>
+      <c r="M202" s="11"/>
+      <c r="N202" s="91"/>
+      <c r="O202" s="115"/>
       <c r="P202" s="91"/>
       <c r="Q202" s="91"/>
       <c r="R202" s="91"/>
@@ -14244,8 +14528,9 @@
       <c r="AB202" s="91"/>
       <c r="AC202" s="91"/>
       <c r="AD202" s="91"/>
-    </row>
-    <row r="203" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE202" s="91"/>
+    </row>
+    <row r="203" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="91"/>
       <c r="B203" s="92"/>
       <c r="C203" s="93"/>
@@ -14258,9 +14543,9 @@
       <c r="J203" s="11"/>
       <c r="K203" s="11"/>
       <c r="L203" s="11"/>
-      <c r="M203" s="91"/>
-      <c r="N203" s="115"/>
-      <c r="O203" s="91"/>
+      <c r="M203" s="11"/>
+      <c r="N203" s="91"/>
+      <c r="O203" s="115"/>
       <c r="P203" s="91"/>
       <c r="Q203" s="91"/>
       <c r="R203" s="91"/>
@@ -14276,8 +14561,9 @@
       <c r="AB203" s="91"/>
       <c r="AC203" s="91"/>
       <c r="AD203" s="91"/>
-    </row>
-    <row r="204" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE203" s="91"/>
+    </row>
+    <row r="204" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="91"/>
       <c r="B204" s="92"/>
       <c r="C204" s="93"/>
@@ -14290,9 +14576,9 @@
       <c r="J204" s="11"/>
       <c r="K204" s="11"/>
       <c r="L204" s="11"/>
-      <c r="M204" s="91"/>
-      <c r="N204" s="115"/>
-      <c r="O204" s="91"/>
+      <c r="M204" s="11"/>
+      <c r="N204" s="91"/>
+      <c r="O204" s="115"/>
       <c r="P204" s="91"/>
       <c r="Q204" s="91"/>
       <c r="R204" s="91"/>
@@ -14308,8 +14594,9 @@
       <c r="AB204" s="91"/>
       <c r="AC204" s="91"/>
       <c r="AD204" s="91"/>
-    </row>
-    <row r="205" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE204" s="91"/>
+    </row>
+    <row r="205" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="91"/>
       <c r="B205" s="92"/>
       <c r="C205" s="93"/>
@@ -14322,9 +14609,9 @@
       <c r="J205" s="11"/>
       <c r="K205" s="11"/>
       <c r="L205" s="11"/>
-      <c r="M205" s="91"/>
-      <c r="N205" s="115"/>
-      <c r="O205" s="91"/>
+      <c r="M205" s="11"/>
+      <c r="N205" s="91"/>
+      <c r="O205" s="115"/>
       <c r="P205" s="91"/>
       <c r="Q205" s="91"/>
       <c r="R205" s="91"/>
@@ -14340,8 +14627,9 @@
       <c r="AB205" s="91"/>
       <c r="AC205" s="91"/>
       <c r="AD205" s="91"/>
-    </row>
-    <row r="206" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE205" s="91"/>
+    </row>
+    <row r="206" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="91"/>
       <c r="B206" s="92"/>
       <c r="C206" s="93"/>
@@ -14354,9 +14642,9 @@
       <c r="J206" s="11"/>
       <c r="K206" s="11"/>
       <c r="L206" s="11"/>
-      <c r="M206" s="91"/>
-      <c r="N206" s="115"/>
-      <c r="O206" s="91"/>
+      <c r="M206" s="11"/>
+      <c r="N206" s="91"/>
+      <c r="O206" s="115"/>
       <c r="P206" s="91"/>
       <c r="Q206" s="91"/>
       <c r="R206" s="91"/>
@@ -14372,8 +14660,9 @@
       <c r="AB206" s="91"/>
       <c r="AC206" s="91"/>
       <c r="AD206" s="91"/>
-    </row>
-    <row r="207" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE206" s="91"/>
+    </row>
+    <row r="207" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="91"/>
       <c r="B207" s="92"/>
       <c r="C207" s="93"/>
@@ -14386,9 +14675,9 @@
       <c r="J207" s="11"/>
       <c r="K207" s="11"/>
       <c r="L207" s="11"/>
-      <c r="M207" s="91"/>
-      <c r="N207" s="115"/>
-      <c r="O207" s="91"/>
+      <c r="M207" s="11"/>
+      <c r="N207" s="91"/>
+      <c r="O207" s="115"/>
       <c r="P207" s="91"/>
       <c r="Q207" s="91"/>
       <c r="R207" s="91"/>
@@ -14404,8 +14693,9 @@
       <c r="AB207" s="91"/>
       <c r="AC207" s="91"/>
       <c r="AD207" s="91"/>
-    </row>
-    <row r="208" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE207" s="91"/>
+    </row>
+    <row r="208" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="91"/>
       <c r="B208" s="92"/>
       <c r="C208" s="93"/>
@@ -14418,9 +14708,9 @@
       <c r="J208" s="11"/>
       <c r="K208" s="11"/>
       <c r="L208" s="11"/>
-      <c r="M208" s="91"/>
-      <c r="N208" s="115"/>
-      <c r="O208" s="91"/>
+      <c r="M208" s="11"/>
+      <c r="N208" s="91"/>
+      <c r="O208" s="115"/>
       <c r="P208" s="91"/>
       <c r="Q208" s="91"/>
       <c r="R208" s="91"/>
@@ -14436,8 +14726,9 @@
       <c r="AB208" s="91"/>
       <c r="AC208" s="91"/>
       <c r="AD208" s="91"/>
-    </row>
-    <row r="209" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE208" s="91"/>
+    </row>
+    <row r="209" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="91"/>
       <c r="B209" s="92"/>
       <c r="C209" s="93"/>
@@ -14450,9 +14741,9 @@
       <c r="J209" s="11"/>
       <c r="K209" s="11"/>
       <c r="L209" s="11"/>
-      <c r="M209" s="91"/>
-      <c r="N209" s="115"/>
-      <c r="O209" s="91"/>
+      <c r="M209" s="11"/>
+      <c r="N209" s="91"/>
+      <c r="O209" s="115"/>
       <c r="P209" s="91"/>
       <c r="Q209" s="91"/>
       <c r="R209" s="91"/>
@@ -14468,8 +14759,9 @@
       <c r="AB209" s="91"/>
       <c r="AC209" s="91"/>
       <c r="AD209" s="91"/>
-    </row>
-    <row r="210" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE209" s="91"/>
+    </row>
+    <row r="210" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="91"/>
       <c r="B210" s="92"/>
       <c r="C210" s="93"/>
@@ -14482,9 +14774,9 @@
       <c r="J210" s="11"/>
       <c r="K210" s="11"/>
       <c r="L210" s="11"/>
-      <c r="M210" s="91"/>
-      <c r="N210" s="115"/>
-      <c r="O210" s="91"/>
+      <c r="M210" s="11"/>
+      <c r="N210" s="91"/>
+      <c r="O210" s="115"/>
       <c r="P210" s="91"/>
       <c r="Q210" s="91"/>
       <c r="R210" s="91"/>
@@ -14500,8 +14792,9 @@
       <c r="AB210" s="91"/>
       <c r="AC210" s="91"/>
       <c r="AD210" s="91"/>
-    </row>
-    <row r="211" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE210" s="91"/>
+    </row>
+    <row r="211" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="91"/>
       <c r="B211" s="92"/>
       <c r="C211" s="93"/>
@@ -14514,9 +14807,9 @@
       <c r="J211" s="11"/>
       <c r="K211" s="11"/>
       <c r="L211" s="11"/>
-      <c r="M211" s="91"/>
-      <c r="N211" s="115"/>
-      <c r="O211" s="91"/>
+      <c r="M211" s="11"/>
+      <c r="N211" s="91"/>
+      <c r="O211" s="115"/>
       <c r="P211" s="91"/>
       <c r="Q211" s="91"/>
       <c r="R211" s="91"/>
@@ -14532,8 +14825,9 @@
       <c r="AB211" s="91"/>
       <c r="AC211" s="91"/>
       <c r="AD211" s="91"/>
-    </row>
-    <row r="212" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE211" s="91"/>
+    </row>
+    <row r="212" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="91"/>
       <c r="B212" s="92"/>
       <c r="C212" s="93"/>
@@ -14546,9 +14840,9 @@
       <c r="J212" s="11"/>
       <c r="K212" s="11"/>
       <c r="L212" s="11"/>
-      <c r="M212" s="91"/>
-      <c r="N212" s="115"/>
-      <c r="O212" s="91"/>
+      <c r="M212" s="11"/>
+      <c r="N212" s="91"/>
+      <c r="O212" s="115"/>
       <c r="P212" s="91"/>
       <c r="Q212" s="91"/>
       <c r="R212" s="91"/>
@@ -14564,8 +14858,9 @@
       <c r="AB212" s="91"/>
       <c r="AC212" s="91"/>
       <c r="AD212" s="91"/>
-    </row>
-    <row r="213" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE212" s="91"/>
+    </row>
+    <row r="213" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="91"/>
       <c r="B213" s="92"/>
       <c r="C213" s="93"/>
@@ -14578,9 +14873,9 @@
       <c r="J213" s="11"/>
       <c r="K213" s="11"/>
       <c r="L213" s="11"/>
-      <c r="M213" s="91"/>
-      <c r="N213" s="115"/>
-      <c r="O213" s="91"/>
+      <c r="M213" s="11"/>
+      <c r="N213" s="91"/>
+      <c r="O213" s="115"/>
       <c r="P213" s="91"/>
       <c r="Q213" s="91"/>
       <c r="R213" s="91"/>
@@ -14596,8 +14891,9 @@
       <c r="AB213" s="91"/>
       <c r="AC213" s="91"/>
       <c r="AD213" s="91"/>
-    </row>
-    <row r="214" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE213" s="91"/>
+    </row>
+    <row r="214" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="91"/>
       <c r="B214" s="92"/>
       <c r="C214" s="93"/>
@@ -14610,9 +14906,9 @@
       <c r="J214" s="11"/>
       <c r="K214" s="11"/>
       <c r="L214" s="11"/>
-      <c r="M214" s="91"/>
-      <c r="N214" s="115"/>
-      <c r="O214" s="91"/>
+      <c r="M214" s="11"/>
+      <c r="N214" s="91"/>
+      <c r="O214" s="115"/>
       <c r="P214" s="91"/>
       <c r="Q214" s="91"/>
       <c r="R214" s="91"/>
@@ -14628,8 +14924,9 @@
       <c r="AB214" s="91"/>
       <c r="AC214" s="91"/>
       <c r="AD214" s="91"/>
-    </row>
-    <row r="215" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE214" s="91"/>
+    </row>
+    <row r="215" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="91"/>
       <c r="B215" s="92"/>
       <c r="C215" s="93"/>
@@ -14642,9 +14939,9 @@
       <c r="J215" s="11"/>
       <c r="K215" s="11"/>
       <c r="L215" s="11"/>
-      <c r="M215" s="91"/>
-      <c r="N215" s="115"/>
-      <c r="O215" s="91"/>
+      <c r="M215" s="11"/>
+      <c r="N215" s="91"/>
+      <c r="O215" s="115"/>
       <c r="P215" s="91"/>
       <c r="Q215" s="91"/>
       <c r="R215" s="91"/>
@@ -14660,8 +14957,9 @@
       <c r="AB215" s="91"/>
       <c r="AC215" s="91"/>
       <c r="AD215" s="91"/>
-    </row>
-    <row r="216" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE215" s="91"/>
+    </row>
+    <row r="216" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="91"/>
       <c r="B216" s="92"/>
       <c r="C216" s="93"/>
@@ -14674,9 +14972,9 @@
       <c r="J216" s="11"/>
       <c r="K216" s="11"/>
       <c r="L216" s="11"/>
-      <c r="M216" s="91"/>
-      <c r="N216" s="115"/>
-      <c r="O216" s="91"/>
+      <c r="M216" s="11"/>
+      <c r="N216" s="91"/>
+      <c r="O216" s="115"/>
       <c r="P216" s="91"/>
       <c r="Q216" s="91"/>
       <c r="R216" s="91"/>
@@ -14692,8 +14990,9 @@
       <c r="AB216" s="91"/>
       <c r="AC216" s="91"/>
       <c r="AD216" s="91"/>
-    </row>
-    <row r="217" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE216" s="91"/>
+    </row>
+    <row r="217" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="91"/>
       <c r="B217" s="92"/>
       <c r="C217" s="93"/>
@@ -14706,9 +15005,9 @@
       <c r="J217" s="11"/>
       <c r="K217" s="11"/>
       <c r="L217" s="11"/>
-      <c r="M217" s="91"/>
-      <c r="N217" s="115"/>
-      <c r="O217" s="91"/>
+      <c r="M217" s="11"/>
+      <c r="N217" s="91"/>
+      <c r="O217" s="115"/>
       <c r="P217" s="91"/>
       <c r="Q217" s="91"/>
       <c r="R217" s="91"/>
@@ -14724,8 +15023,9 @@
       <c r="AB217" s="91"/>
       <c r="AC217" s="91"/>
       <c r="AD217" s="91"/>
-    </row>
-    <row r="218" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE217" s="91"/>
+    </row>
+    <row r="218" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="91"/>
       <c r="B218" s="92"/>
       <c r="C218" s="93"/>
@@ -14738,9 +15038,9 @@
       <c r="J218" s="11"/>
       <c r="K218" s="11"/>
       <c r="L218" s="11"/>
-      <c r="M218" s="91"/>
-      <c r="N218" s="115"/>
-      <c r="O218" s="91"/>
+      <c r="M218" s="11"/>
+      <c r="N218" s="91"/>
+      <c r="O218" s="115"/>
       <c r="P218" s="91"/>
       <c r="Q218" s="91"/>
       <c r="R218" s="91"/>
@@ -14756,8 +15056,9 @@
       <c r="AB218" s="91"/>
       <c r="AC218" s="91"/>
       <c r="AD218" s="91"/>
-    </row>
-    <row r="219" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE218" s="91"/>
+    </row>
+    <row r="219" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="91"/>
       <c r="B219" s="92"/>
       <c r="C219" s="93"/>
@@ -14770,9 +15071,9 @@
       <c r="J219" s="11"/>
       <c r="K219" s="11"/>
       <c r="L219" s="11"/>
-      <c r="M219" s="91"/>
-      <c r="N219" s="115"/>
-      <c r="O219" s="91"/>
+      <c r="M219" s="11"/>
+      <c r="N219" s="91"/>
+      <c r="O219" s="115"/>
       <c r="P219" s="91"/>
       <c r="Q219" s="91"/>
       <c r="R219" s="91"/>
@@ -14788,8 +15089,9 @@
       <c r="AB219" s="91"/>
       <c r="AC219" s="91"/>
       <c r="AD219" s="91"/>
-    </row>
-    <row r="220" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE219" s="91"/>
+    </row>
+    <row r="220" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="91"/>
       <c r="B220" s="92"/>
       <c r="C220" s="93"/>
@@ -14802,9 +15104,9 @@
       <c r="J220" s="11"/>
       <c r="K220" s="11"/>
       <c r="L220" s="11"/>
-      <c r="M220" s="91"/>
-      <c r="N220" s="115"/>
-      <c r="O220" s="91"/>
+      <c r="M220" s="11"/>
+      <c r="N220" s="91"/>
+      <c r="O220" s="115"/>
       <c r="P220" s="91"/>
       <c r="Q220" s="91"/>
       <c r="R220" s="91"/>
@@ -14820,8 +15122,9 @@
       <c r="AB220" s="91"/>
       <c r="AC220" s="91"/>
       <c r="AD220" s="91"/>
-    </row>
-    <row r="221" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE220" s="91"/>
+    </row>
+    <row r="221" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="91"/>
       <c r="B221" s="92"/>
       <c r="C221" s="93"/>
@@ -14834,9 +15137,9 @@
       <c r="J221" s="11"/>
       <c r="K221" s="11"/>
       <c r="L221" s="11"/>
-      <c r="M221" s="91"/>
-      <c r="N221" s="115"/>
-      <c r="O221" s="91"/>
+      <c r="M221" s="11"/>
+      <c r="N221" s="91"/>
+      <c r="O221" s="115"/>
       <c r="P221" s="91"/>
       <c r="Q221" s="91"/>
       <c r="R221" s="91"/>
@@ -14852,8 +15155,9 @@
       <c r="AB221" s="91"/>
       <c r="AC221" s="91"/>
       <c r="AD221" s="91"/>
-    </row>
-    <row r="222" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE221" s="91"/>
+    </row>
+    <row r="222" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="91"/>
       <c r="B222" s="92"/>
       <c r="C222" s="93"/>
@@ -14866,9 +15170,9 @@
       <c r="J222" s="11"/>
       <c r="K222" s="11"/>
       <c r="L222" s="11"/>
-      <c r="M222" s="91"/>
-      <c r="N222" s="115"/>
-      <c r="O222" s="91"/>
+      <c r="M222" s="11"/>
+      <c r="N222" s="91"/>
+      <c r="O222" s="115"/>
       <c r="P222" s="91"/>
       <c r="Q222" s="91"/>
       <c r="R222" s="91"/>
@@ -14884,8 +15188,9 @@
       <c r="AB222" s="91"/>
       <c r="AC222" s="91"/>
       <c r="AD222" s="91"/>
-    </row>
-    <row r="223" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE222" s="91"/>
+    </row>
+    <row r="223" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="91"/>
       <c r="B223" s="92"/>
       <c r="C223" s="93"/>
@@ -14898,9 +15203,9 @@
       <c r="J223" s="11"/>
       <c r="K223" s="11"/>
       <c r="L223" s="11"/>
-      <c r="M223" s="91"/>
-      <c r="N223" s="115"/>
-      <c r="O223" s="91"/>
+      <c r="M223" s="11"/>
+      <c r="N223" s="91"/>
+      <c r="O223" s="115"/>
       <c r="P223" s="91"/>
       <c r="Q223" s="91"/>
       <c r="R223" s="91"/>
@@ -14916,8 +15221,9 @@
       <c r="AB223" s="91"/>
       <c r="AC223" s="91"/>
       <c r="AD223" s="91"/>
-    </row>
-    <row r="224" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE223" s="91"/>
+    </row>
+    <row r="224" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="91"/>
       <c r="B224" s="92"/>
       <c r="C224" s="93"/>
@@ -14930,9 +15236,9 @@
       <c r="J224" s="11"/>
       <c r="K224" s="11"/>
       <c r="L224" s="11"/>
-      <c r="M224" s="91"/>
-      <c r="N224" s="115"/>
-      <c r="O224" s="91"/>
+      <c r="M224" s="11"/>
+      <c r="N224" s="91"/>
+      <c r="O224" s="115"/>
       <c r="P224" s="91"/>
       <c r="Q224" s="91"/>
       <c r="R224" s="91"/>
@@ -14948,8 +15254,9 @@
       <c r="AB224" s="91"/>
       <c r="AC224" s="91"/>
       <c r="AD224" s="91"/>
-    </row>
-    <row r="225" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE224" s="91"/>
+    </row>
+    <row r="225" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="91"/>
       <c r="B225" s="92"/>
       <c r="C225" s="93"/>
@@ -14963,8 +15270,8 @@
       <c r="K225" s="91"/>
       <c r="L225" s="91"/>
       <c r="M225" s="91"/>
-      <c r="N225" s="115"/>
-      <c r="O225" s="91"/>
+      <c r="N225" s="91"/>
+      <c r="O225" s="115"/>
       <c r="P225" s="91"/>
       <c r="Q225" s="91"/>
       <c r="R225" s="91"/>
@@ -14980,8 +15287,9 @@
       <c r="AB225" s="91"/>
       <c r="AC225" s="91"/>
       <c r="AD225" s="91"/>
-    </row>
-    <row r="226" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE225" s="91"/>
+    </row>
+    <row r="226" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="91"/>
       <c r="B226" s="92"/>
       <c r="C226" s="93"/>
@@ -14995,8 +15303,8 @@
       <c r="K226" s="91"/>
       <c r="L226" s="91"/>
       <c r="M226" s="91"/>
-      <c r="N226" s="115"/>
-      <c r="O226" s="91"/>
+      <c r="N226" s="91"/>
+      <c r="O226" s="115"/>
       <c r="P226" s="91"/>
       <c r="Q226" s="91"/>
       <c r="R226" s="91"/>
@@ -15012,8 +15320,9 @@
       <c r="AB226" s="91"/>
       <c r="AC226" s="91"/>
       <c r="AD226" s="91"/>
-    </row>
-    <row r="227" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE226" s="91"/>
+    </row>
+    <row r="227" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="91"/>
       <c r="B227" s="92"/>
       <c r="C227" s="93"/>
@@ -15027,8 +15336,8 @@
       <c r="K227" s="91"/>
       <c r="L227" s="91"/>
       <c r="M227" s="91"/>
-      <c r="N227" s="115"/>
-      <c r="O227" s="91"/>
+      <c r="N227" s="91"/>
+      <c r="O227" s="115"/>
       <c r="P227" s="91"/>
       <c r="Q227" s="91"/>
       <c r="R227" s="91"/>
@@ -15044,8 +15353,9 @@
       <c r="AB227" s="91"/>
       <c r="AC227" s="91"/>
       <c r="AD227" s="91"/>
-    </row>
-    <row r="228" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE227" s="91"/>
+    </row>
+    <row r="228" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="91"/>
       <c r="B228" s="92"/>
       <c r="C228" s="93"/>
@@ -15059,8 +15369,8 @@
       <c r="K228" s="91"/>
       <c r="L228" s="91"/>
       <c r="M228" s="91"/>
-      <c r="N228" s="115"/>
-      <c r="O228" s="91"/>
+      <c r="N228" s="91"/>
+      <c r="O228" s="115"/>
       <c r="P228" s="91"/>
       <c r="Q228" s="91"/>
       <c r="R228" s="91"/>
@@ -15076,8 +15386,9 @@
       <c r="AB228" s="91"/>
       <c r="AC228" s="91"/>
       <c r="AD228" s="91"/>
-    </row>
-    <row r="229" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE228" s="91"/>
+    </row>
+    <row r="229" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="91"/>
       <c r="B229" s="92"/>
       <c r="C229" s="93"/>
@@ -15091,8 +15402,8 @@
       <c r="K229" s="91"/>
       <c r="L229" s="91"/>
       <c r="M229" s="91"/>
-      <c r="N229" s="115"/>
-      <c r="O229" s="91"/>
+      <c r="N229" s="91"/>
+      <c r="O229" s="115"/>
       <c r="P229" s="91"/>
       <c r="Q229" s="91"/>
       <c r="R229" s="91"/>
@@ -15108,8 +15419,9 @@
       <c r="AB229" s="91"/>
       <c r="AC229" s="91"/>
       <c r="AD229" s="91"/>
-    </row>
-    <row r="230" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE229" s="91"/>
+    </row>
+    <row r="230" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="91"/>
       <c r="B230" s="92"/>
       <c r="C230" s="93"/>
@@ -15123,8 +15435,8 @@
       <c r="K230" s="91"/>
       <c r="L230" s="91"/>
       <c r="M230" s="91"/>
-      <c r="N230" s="115"/>
-      <c r="O230" s="91"/>
+      <c r="N230" s="91"/>
+      <c r="O230" s="115"/>
       <c r="P230" s="91"/>
       <c r="Q230" s="91"/>
       <c r="R230" s="91"/>
@@ -15140,8 +15452,9 @@
       <c r="AB230" s="91"/>
       <c r="AC230" s="91"/>
       <c r="AD230" s="91"/>
-    </row>
-    <row r="231" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE230" s="91"/>
+    </row>
+    <row r="231" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="91"/>
       <c r="B231" s="92"/>
       <c r="C231" s="93"/>
@@ -15155,8 +15468,8 @@
       <c r="K231" s="91"/>
       <c r="L231" s="91"/>
       <c r="M231" s="91"/>
-      <c r="N231" s="115"/>
-      <c r="O231" s="91"/>
+      <c r="N231" s="91"/>
+      <c r="O231" s="115"/>
       <c r="P231" s="91"/>
       <c r="Q231" s="91"/>
       <c r="R231" s="91"/>
@@ -15172,8 +15485,9 @@
       <c r="AB231" s="91"/>
       <c r="AC231" s="91"/>
       <c r="AD231" s="91"/>
-    </row>
-    <row r="232" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE231" s="91"/>
+    </row>
+    <row r="232" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="91"/>
       <c r="B232" s="92"/>
       <c r="C232" s="93"/>
@@ -15187,8 +15501,8 @@
       <c r="K232" s="91"/>
       <c r="L232" s="91"/>
       <c r="M232" s="91"/>
-      <c r="N232" s="115"/>
-      <c r="O232" s="91"/>
+      <c r="N232" s="91"/>
+      <c r="O232" s="115"/>
       <c r="P232" s="91"/>
       <c r="Q232" s="91"/>
       <c r="R232" s="91"/>
@@ -15204,8 +15518,9 @@
       <c r="AB232" s="91"/>
       <c r="AC232" s="91"/>
       <c r="AD232" s="91"/>
-    </row>
-    <row r="233" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE232" s="91"/>
+    </row>
+    <row r="233" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="91"/>
       <c r="B233" s="92"/>
       <c r="C233" s="93"/>
@@ -15219,8 +15534,8 @@
       <c r="K233" s="91"/>
       <c r="L233" s="91"/>
       <c r="M233" s="91"/>
-      <c r="N233" s="115"/>
-      <c r="O233" s="91"/>
+      <c r="N233" s="91"/>
+      <c r="O233" s="115"/>
       <c r="P233" s="91"/>
       <c r="Q233" s="91"/>
       <c r="R233" s="91"/>
@@ -15236,8 +15551,9 @@
       <c r="AB233" s="91"/>
       <c r="AC233" s="91"/>
       <c r="AD233" s="91"/>
-    </row>
-    <row r="234" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE233" s="91"/>
+    </row>
+    <row r="234" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="91"/>
       <c r="B234" s="92"/>
       <c r="C234" s="93"/>
@@ -15251,8 +15567,8 @@
       <c r="K234" s="91"/>
       <c r="L234" s="91"/>
       <c r="M234" s="91"/>
-      <c r="N234" s="115"/>
-      <c r="O234" s="91"/>
+      <c r="N234" s="91"/>
+      <c r="O234" s="115"/>
       <c r="P234" s="91"/>
       <c r="Q234" s="91"/>
       <c r="R234" s="91"/>
@@ -15268,8 +15584,9 @@
       <c r="AB234" s="91"/>
       <c r="AC234" s="91"/>
       <c r="AD234" s="91"/>
-    </row>
-    <row r="235" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE234" s="91"/>
+    </row>
+    <row r="235" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="91"/>
       <c r="B235" s="92"/>
       <c r="C235" s="93"/>
@@ -15283,8 +15600,8 @@
       <c r="K235" s="91"/>
       <c r="L235" s="91"/>
       <c r="M235" s="91"/>
-      <c r="N235" s="115"/>
-      <c r="O235" s="91"/>
+      <c r="N235" s="91"/>
+      <c r="O235" s="115"/>
       <c r="P235" s="91"/>
       <c r="Q235" s="91"/>
       <c r="R235" s="91"/>
@@ -15300,8 +15617,9 @@
       <c r="AB235" s="91"/>
       <c r="AC235" s="91"/>
       <c r="AD235" s="91"/>
-    </row>
-    <row r="236" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE235" s="91"/>
+    </row>
+    <row r="236" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="91"/>
       <c r="B236" s="92"/>
       <c r="C236" s="93"/>
@@ -15315,8 +15633,8 @@
       <c r="K236" s="91"/>
       <c r="L236" s="91"/>
       <c r="M236" s="91"/>
-      <c r="N236" s="115"/>
-      <c r="O236" s="91"/>
+      <c r="N236" s="91"/>
+      <c r="O236" s="115"/>
       <c r="P236" s="91"/>
       <c r="Q236" s="91"/>
       <c r="R236" s="91"/>
@@ -15332,8 +15650,9 @@
       <c r="AB236" s="91"/>
       <c r="AC236" s="91"/>
       <c r="AD236" s="91"/>
-    </row>
-    <row r="237" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE236" s="91"/>
+    </row>
+    <row r="237" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="91"/>
       <c r="B237" s="92"/>
       <c r="C237" s="93"/>
@@ -15347,8 +15666,8 @@
       <c r="K237" s="91"/>
       <c r="L237" s="91"/>
       <c r="M237" s="91"/>
-      <c r="N237" s="115"/>
-      <c r="O237" s="91"/>
+      <c r="N237" s="91"/>
+      <c r="O237" s="115"/>
       <c r="P237" s="91"/>
       <c r="Q237" s="91"/>
       <c r="R237" s="91"/>
@@ -15364,8 +15683,9 @@
       <c r="AB237" s="91"/>
       <c r="AC237" s="91"/>
       <c r="AD237" s="91"/>
-    </row>
-    <row r="238" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE237" s="91"/>
+    </row>
+    <row r="238" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="91"/>
       <c r="B238" s="92"/>
       <c r="C238" s="93"/>
@@ -15379,8 +15699,8 @@
       <c r="K238" s="91"/>
       <c r="L238" s="91"/>
       <c r="M238" s="91"/>
-      <c r="N238" s="115"/>
-      <c r="O238" s="91"/>
+      <c r="N238" s="91"/>
+      <c r="O238" s="115"/>
       <c r="P238" s="91"/>
       <c r="Q238" s="91"/>
       <c r="R238" s="91"/>
@@ -15396,8 +15716,9 @@
       <c r="AB238" s="91"/>
       <c r="AC238" s="91"/>
       <c r="AD238" s="91"/>
-    </row>
-    <row r="239" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE238" s="91"/>
+    </row>
+    <row r="239" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="91"/>
       <c r="B239" s="92"/>
       <c r="C239" s="93"/>
@@ -15411,8 +15732,8 @@
       <c r="K239" s="91"/>
       <c r="L239" s="91"/>
       <c r="M239" s="91"/>
-      <c r="N239" s="115"/>
-      <c r="O239" s="91"/>
+      <c r="N239" s="91"/>
+      <c r="O239" s="115"/>
       <c r="P239" s="91"/>
       <c r="Q239" s="91"/>
       <c r="R239" s="91"/>
@@ -15428,8 +15749,9 @@
       <c r="AB239" s="91"/>
       <c r="AC239" s="91"/>
       <c r="AD239" s="91"/>
-    </row>
-    <row r="240" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE239" s="91"/>
+    </row>
+    <row r="240" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="91"/>
       <c r="B240" s="92"/>
       <c r="C240" s="93"/>
@@ -15443,8 +15765,8 @@
       <c r="K240" s="91"/>
       <c r="L240" s="91"/>
       <c r="M240" s="91"/>
-      <c r="N240" s="115"/>
-      <c r="O240" s="91"/>
+      <c r="N240" s="91"/>
+      <c r="O240" s="115"/>
       <c r="P240" s="91"/>
       <c r="Q240" s="91"/>
       <c r="R240" s="91"/>
@@ -15460,8 +15782,9 @@
       <c r="AB240" s="91"/>
       <c r="AC240" s="91"/>
       <c r="AD240" s="91"/>
-    </row>
-    <row r="241" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE240" s="91"/>
+    </row>
+    <row r="241" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="91"/>
       <c r="B241" s="92"/>
       <c r="C241" s="93"/>
@@ -15475,8 +15798,8 @@
       <c r="K241" s="91"/>
       <c r="L241" s="91"/>
       <c r="M241" s="91"/>
-      <c r="N241" s="115"/>
-      <c r="O241" s="91"/>
+      <c r="N241" s="91"/>
+      <c r="O241" s="115"/>
       <c r="P241" s="91"/>
       <c r="Q241" s="91"/>
       <c r="R241" s="91"/>
@@ -15492,8 +15815,9 @@
       <c r="AB241" s="91"/>
       <c r="AC241" s="91"/>
       <c r="AD241" s="91"/>
-    </row>
-    <row r="242" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE241" s="91"/>
+    </row>
+    <row r="242" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="91"/>
       <c r="B242" s="92"/>
       <c r="C242" s="93"/>
@@ -15507,8 +15831,8 @@
       <c r="K242" s="91"/>
       <c r="L242" s="91"/>
       <c r="M242" s="91"/>
-      <c r="N242" s="115"/>
-      <c r="O242" s="91"/>
+      <c r="N242" s="91"/>
+      <c r="O242" s="115"/>
       <c r="P242" s="91"/>
       <c r="Q242" s="91"/>
       <c r="R242" s="91"/>
@@ -15524,8 +15848,9 @@
       <c r="AB242" s="91"/>
       <c r="AC242" s="91"/>
       <c r="AD242" s="91"/>
-    </row>
-    <row r="243" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE242" s="91"/>
+    </row>
+    <row r="243" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="91"/>
       <c r="B243" s="92"/>
       <c r="C243" s="93"/>
@@ -15539,8 +15864,8 @@
       <c r="K243" s="91"/>
       <c r="L243" s="91"/>
       <c r="M243" s="91"/>
-      <c r="N243" s="115"/>
-      <c r="O243" s="91"/>
+      <c r="N243" s="91"/>
+      <c r="O243" s="115"/>
       <c r="P243" s="91"/>
       <c r="Q243" s="91"/>
       <c r="R243" s="91"/>
@@ -15556,8 +15881,9 @@
       <c r="AB243" s="91"/>
       <c r="AC243" s="91"/>
       <c r="AD243" s="91"/>
-    </row>
-    <row r="244" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE243" s="91"/>
+    </row>
+    <row r="244" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="91"/>
       <c r="B244" s="92"/>
       <c r="C244" s="93"/>
@@ -15571,8 +15897,8 @@
       <c r="K244" s="91"/>
       <c r="L244" s="91"/>
       <c r="M244" s="91"/>
-      <c r="N244" s="115"/>
-      <c r="O244" s="91"/>
+      <c r="N244" s="91"/>
+      <c r="O244" s="115"/>
       <c r="P244" s="91"/>
       <c r="Q244" s="91"/>
       <c r="R244" s="91"/>
@@ -15588,8 +15914,9 @@
       <c r="AB244" s="91"/>
       <c r="AC244" s="91"/>
       <c r="AD244" s="91"/>
-    </row>
-    <row r="245" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE244" s="91"/>
+    </row>
+    <row r="245" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="91"/>
       <c r="B245" s="92"/>
       <c r="C245" s="93"/>
@@ -15603,8 +15930,8 @@
       <c r="K245" s="91"/>
       <c r="L245" s="91"/>
       <c r="M245" s="91"/>
-      <c r="N245" s="115"/>
-      <c r="O245" s="91"/>
+      <c r="N245" s="91"/>
+      <c r="O245" s="115"/>
       <c r="P245" s="91"/>
       <c r="Q245" s="91"/>
       <c r="R245" s="91"/>
@@ -15620,8 +15947,9 @@
       <c r="AB245" s="91"/>
       <c r="AC245" s="91"/>
       <c r="AD245" s="91"/>
-    </row>
-    <row r="246" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE245" s="91"/>
+    </row>
+    <row r="246" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="91"/>
       <c r="B246" s="92"/>
       <c r="C246" s="93"/>
@@ -15635,8 +15963,8 @@
       <c r="K246" s="91"/>
       <c r="L246" s="91"/>
       <c r="M246" s="91"/>
-      <c r="N246" s="115"/>
-      <c r="O246" s="91"/>
+      <c r="N246" s="91"/>
+      <c r="O246" s="115"/>
       <c r="P246" s="91"/>
       <c r="Q246" s="91"/>
       <c r="R246" s="91"/>
@@ -15652,8 +15980,9 @@
       <c r="AB246" s="91"/>
       <c r="AC246" s="91"/>
       <c r="AD246" s="91"/>
-    </row>
-    <row r="247" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE246" s="91"/>
+    </row>
+    <row r="247" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="91"/>
       <c r="B247" s="92"/>
       <c r="C247" s="93"/>
@@ -15667,8 +15996,8 @@
       <c r="K247" s="91"/>
       <c r="L247" s="91"/>
       <c r="M247" s="91"/>
-      <c r="N247" s="115"/>
-      <c r="O247" s="91"/>
+      <c r="N247" s="91"/>
+      <c r="O247" s="115"/>
       <c r="P247" s="91"/>
       <c r="Q247" s="91"/>
       <c r="R247" s="91"/>
@@ -15684,8 +16013,9 @@
       <c r="AB247" s="91"/>
       <c r="AC247" s="91"/>
       <c r="AD247" s="91"/>
-    </row>
-    <row r="248" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE247" s="91"/>
+    </row>
+    <row r="248" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="91"/>
       <c r="B248" s="92"/>
       <c r="C248" s="93"/>
@@ -15699,8 +16029,8 @@
       <c r="K248" s="91"/>
       <c r="L248" s="91"/>
       <c r="M248" s="91"/>
-      <c r="N248" s="115"/>
-      <c r="O248" s="91"/>
+      <c r="N248" s="91"/>
+      <c r="O248" s="115"/>
       <c r="P248" s="91"/>
       <c r="Q248" s="91"/>
       <c r="R248" s="91"/>
@@ -15716,8 +16046,9 @@
       <c r="AB248" s="91"/>
       <c r="AC248" s="91"/>
       <c r="AD248" s="91"/>
-    </row>
-    <row r="249" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE248" s="91"/>
+    </row>
+    <row r="249" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="91"/>
       <c r="B249" s="92"/>
       <c r="C249" s="93"/>
@@ -15731,8 +16062,8 @@
       <c r="K249" s="91"/>
       <c r="L249" s="91"/>
       <c r="M249" s="91"/>
-      <c r="N249" s="115"/>
-      <c r="O249" s="91"/>
+      <c r="N249" s="91"/>
+      <c r="O249" s="115"/>
       <c r="P249" s="91"/>
       <c r="Q249" s="91"/>
       <c r="R249" s="91"/>
@@ -15748,8 +16079,9 @@
       <c r="AB249" s="91"/>
       <c r="AC249" s="91"/>
       <c r="AD249" s="91"/>
-    </row>
-    <row r="250" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE249" s="91"/>
+    </row>
+    <row r="250" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="91"/>
       <c r="B250" s="92"/>
       <c r="C250" s="93"/>
@@ -15763,8 +16095,8 @@
       <c r="K250" s="91"/>
       <c r="L250" s="91"/>
       <c r="M250" s="91"/>
-      <c r="N250" s="115"/>
-      <c r="O250" s="91"/>
+      <c r="N250" s="91"/>
+      <c r="O250" s="115"/>
       <c r="P250" s="91"/>
       <c r="Q250" s="91"/>
       <c r="R250" s="91"/>
@@ -15780,8 +16112,9 @@
       <c r="AB250" s="91"/>
       <c r="AC250" s="91"/>
       <c r="AD250" s="91"/>
-    </row>
-    <row r="251" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE250" s="91"/>
+    </row>
+    <row r="251" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="91"/>
       <c r="B251" s="92"/>
       <c r="C251" s="93"/>
@@ -15795,8 +16128,8 @@
       <c r="K251" s="91"/>
       <c r="L251" s="91"/>
       <c r="M251" s="91"/>
-      <c r="N251" s="115"/>
-      <c r="O251" s="91"/>
+      <c r="N251" s="91"/>
+      <c r="O251" s="115"/>
       <c r="P251" s="91"/>
       <c r="Q251" s="91"/>
       <c r="R251" s="91"/>
@@ -15812,8 +16145,9 @@
       <c r="AB251" s="91"/>
       <c r="AC251" s="91"/>
       <c r="AD251" s="91"/>
-    </row>
-    <row r="252" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE251" s="91"/>
+    </row>
+    <row r="252" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="91"/>
       <c r="B252" s="92"/>
       <c r="C252" s="93"/>
@@ -15827,8 +16161,8 @@
       <c r="K252" s="91"/>
       <c r="L252" s="91"/>
       <c r="M252" s="91"/>
-      <c r="N252" s="115"/>
-      <c r="O252" s="91"/>
+      <c r="N252" s="91"/>
+      <c r="O252" s="115"/>
       <c r="P252" s="91"/>
       <c r="Q252" s="91"/>
       <c r="R252" s="91"/>
@@ -15844,8 +16178,9 @@
       <c r="AB252" s="91"/>
       <c r="AC252" s="91"/>
       <c r="AD252" s="91"/>
-    </row>
-    <row r="253" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE252" s="91"/>
+    </row>
+    <row r="253" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="91"/>
       <c r="B253" s="92"/>
       <c r="C253" s="93"/>
@@ -15859,8 +16194,8 @@
       <c r="K253" s="91"/>
       <c r="L253" s="91"/>
       <c r="M253" s="91"/>
-      <c r="N253" s="115"/>
-      <c r="O253" s="91"/>
+      <c r="N253" s="91"/>
+      <c r="O253" s="115"/>
       <c r="P253" s="91"/>
       <c r="Q253" s="91"/>
       <c r="R253" s="91"/>
@@ -15876,8 +16211,9 @@
       <c r="AB253" s="91"/>
       <c r="AC253" s="91"/>
       <c r="AD253" s="91"/>
-    </row>
-    <row r="254" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE253" s="91"/>
+    </row>
+    <row r="254" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="91"/>
       <c r="B254" s="92"/>
       <c r="C254" s="93"/>
@@ -15891,8 +16227,8 @@
       <c r="K254" s="91"/>
       <c r="L254" s="91"/>
       <c r="M254" s="91"/>
-      <c r="N254" s="115"/>
-      <c r="O254" s="91"/>
+      <c r="N254" s="91"/>
+      <c r="O254" s="115"/>
       <c r="P254" s="91"/>
       <c r="Q254" s="91"/>
       <c r="R254" s="91"/>
@@ -15908,8 +16244,9 @@
       <c r="AB254" s="91"/>
       <c r="AC254" s="91"/>
       <c r="AD254" s="91"/>
-    </row>
-    <row r="255" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE254" s="91"/>
+    </row>
+    <row r="255" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="91"/>
       <c r="B255" s="92"/>
       <c r="C255" s="93"/>
@@ -15923,8 +16260,8 @@
       <c r="K255" s="91"/>
       <c r="L255" s="91"/>
       <c r="M255" s="91"/>
-      <c r="N255" s="115"/>
-      <c r="O255" s="91"/>
+      <c r="N255" s="91"/>
+      <c r="O255" s="115"/>
       <c r="P255" s="91"/>
       <c r="Q255" s="91"/>
       <c r="R255" s="91"/>
@@ -15940,8 +16277,9 @@
       <c r="AB255" s="91"/>
       <c r="AC255" s="91"/>
       <c r="AD255" s="91"/>
-    </row>
-    <row r="256" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE255" s="91"/>
+    </row>
+    <row r="256" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="91"/>
       <c r="B256" s="92"/>
       <c r="C256" s="93"/>
@@ -15955,8 +16293,8 @@
       <c r="K256" s="91"/>
       <c r="L256" s="91"/>
       <c r="M256" s="91"/>
-      <c r="N256" s="115"/>
-      <c r="O256" s="91"/>
+      <c r="N256" s="91"/>
+      <c r="O256" s="115"/>
       <c r="P256" s="91"/>
       <c r="Q256" s="91"/>
       <c r="R256" s="91"/>
@@ -15972,8 +16310,9 @@
       <c r="AB256" s="91"/>
       <c r="AC256" s="91"/>
       <c r="AD256" s="91"/>
-    </row>
-    <row r="257" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE256" s="91"/>
+    </row>
+    <row r="257" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="91"/>
       <c r="B257" s="92"/>
       <c r="C257" s="93"/>
@@ -15987,8 +16326,8 @@
       <c r="K257" s="91"/>
       <c r="L257" s="91"/>
       <c r="M257" s="91"/>
-      <c r="N257" s="115"/>
-      <c r="O257" s="91"/>
+      <c r="N257" s="91"/>
+      <c r="O257" s="115"/>
       <c r="P257" s="91"/>
       <c r="Q257" s="91"/>
       <c r="R257" s="91"/>
@@ -16004,8 +16343,9 @@
       <c r="AB257" s="91"/>
       <c r="AC257" s="91"/>
       <c r="AD257" s="91"/>
-    </row>
-    <row r="258" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE257" s="91"/>
+    </row>
+    <row r="258" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="91"/>
       <c r="B258" s="92"/>
       <c r="C258" s="93"/>
@@ -16019,8 +16359,8 @@
       <c r="K258" s="91"/>
       <c r="L258" s="91"/>
       <c r="M258" s="91"/>
-      <c r="N258" s="115"/>
-      <c r="O258" s="91"/>
+      <c r="N258" s="91"/>
+      <c r="O258" s="115"/>
       <c r="P258" s="91"/>
       <c r="Q258" s="91"/>
       <c r="R258" s="91"/>
@@ -16036,8 +16376,9 @@
       <c r="AB258" s="91"/>
       <c r="AC258" s="91"/>
       <c r="AD258" s="91"/>
-    </row>
-    <row r="259" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE258" s="91"/>
+    </row>
+    <row r="259" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="91"/>
       <c r="B259" s="92"/>
       <c r="C259" s="93"/>
@@ -16051,8 +16392,8 @@
       <c r="K259" s="91"/>
       <c r="L259" s="91"/>
       <c r="M259" s="91"/>
-      <c r="N259" s="115"/>
-      <c r="O259" s="91"/>
+      <c r="N259" s="91"/>
+      <c r="O259" s="115"/>
       <c r="P259" s="91"/>
       <c r="Q259" s="91"/>
       <c r="R259" s="91"/>
@@ -16068,8 +16409,9 @@
       <c r="AB259" s="91"/>
       <c r="AC259" s="91"/>
       <c r="AD259" s="91"/>
-    </row>
-    <row r="260" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE259" s="91"/>
+    </row>
+    <row r="260" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="91"/>
       <c r="B260" s="92"/>
       <c r="C260" s="93"/>
@@ -16083,8 +16425,8 @@
       <c r="K260" s="91"/>
       <c r="L260" s="91"/>
       <c r="M260" s="91"/>
-      <c r="N260" s="115"/>
-      <c r="O260" s="91"/>
+      <c r="N260" s="91"/>
+      <c r="O260" s="115"/>
       <c r="P260" s="91"/>
       <c r="Q260" s="91"/>
       <c r="R260" s="91"/>
@@ -16100,8 +16442,9 @@
       <c r="AB260" s="91"/>
       <c r="AC260" s="91"/>
       <c r="AD260" s="91"/>
-    </row>
-    <row r="261" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE260" s="91"/>
+    </row>
+    <row r="261" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="91"/>
       <c r="B261" s="92"/>
       <c r="C261" s="93"/>
@@ -16115,8 +16458,8 @@
       <c r="K261" s="91"/>
       <c r="L261" s="91"/>
       <c r="M261" s="91"/>
-      <c r="N261" s="115"/>
-      <c r="O261" s="91"/>
+      <c r="N261" s="91"/>
+      <c r="O261" s="115"/>
       <c r="P261" s="91"/>
       <c r="Q261" s="91"/>
       <c r="R261" s="91"/>
@@ -16132,8 +16475,9 @@
       <c r="AB261" s="91"/>
       <c r="AC261" s="91"/>
       <c r="AD261" s="91"/>
-    </row>
-    <row r="262" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE261" s="91"/>
+    </row>
+    <row r="262" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="91"/>
       <c r="B262" s="92"/>
       <c r="C262" s="93"/>
@@ -16147,8 +16491,8 @@
       <c r="K262" s="91"/>
       <c r="L262" s="91"/>
       <c r="M262" s="91"/>
-      <c r="N262" s="115"/>
-      <c r="O262" s="91"/>
+      <c r="N262" s="91"/>
+      <c r="O262" s="115"/>
       <c r="P262" s="91"/>
       <c r="Q262" s="91"/>
       <c r="R262" s="91"/>
@@ -16164,8 +16508,9 @@
       <c r="AB262" s="91"/>
       <c r="AC262" s="91"/>
       <c r="AD262" s="91"/>
-    </row>
-    <row r="263" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE262" s="91"/>
+    </row>
+    <row r="263" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="91"/>
       <c r="B263" s="92"/>
       <c r="C263" s="93"/>
@@ -16179,8 +16524,8 @@
       <c r="K263" s="91"/>
       <c r="L263" s="91"/>
       <c r="M263" s="91"/>
-      <c r="N263" s="115"/>
-      <c r="O263" s="91"/>
+      <c r="N263" s="91"/>
+      <c r="O263" s="115"/>
       <c r="P263" s="91"/>
       <c r="Q263" s="91"/>
       <c r="R263" s="91"/>
@@ -16196,8 +16541,9 @@
       <c r="AB263" s="91"/>
       <c r="AC263" s="91"/>
       <c r="AD263" s="91"/>
-    </row>
-    <row r="264" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE263" s="91"/>
+    </row>
+    <row r="264" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="91"/>
       <c r="B264" s="92"/>
       <c r="C264" s="93"/>
@@ -16211,8 +16557,8 @@
       <c r="K264" s="91"/>
       <c r="L264" s="91"/>
       <c r="M264" s="91"/>
-      <c r="N264" s="115"/>
-      <c r="O264" s="91"/>
+      <c r="N264" s="91"/>
+      <c r="O264" s="115"/>
       <c r="P264" s="91"/>
       <c r="Q264" s="91"/>
       <c r="R264" s="91"/>
@@ -16228,15 +16574,16 @@
       <c r="AB264" s="91"/>
       <c r="AC264" s="91"/>
       <c r="AD264" s="91"/>
-    </row>
-    <row r="265" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AE264" s="91"/>
+    </row>
+    <row r="265" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16973,7 +17320,7 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A72:C72"/>
@@ -17121,7 +17468,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D7" s="136">
         <v>100000000</v>
@@ -17141,7 +17488,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D8" s="105">
         <v>100000000</v>
@@ -17161,7 +17508,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="130" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D9" s="136">
         <v>600000000</v>
@@ -17181,7 +17528,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="130" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D10" s="136">
         <v>70000000</v>
@@ -17201,7 +17548,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="130" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D11" s="136">
         <v>500000000</v>
@@ -17285,10 +17632,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17298,7 +17645,7 @@
     <col min="3" max="3" width="51.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17386,7 +17733,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="124" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -17456,6 +17803,105 @@
       </c>
       <c r="E10" s="128"/>
       <c r="F10" s="126"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="183" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="183" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>395</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
